--- a/data/catatan pembukuan dewi sri 2019.xlsx
+++ b/data/catatan pembukuan dewi sri 2019.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="21">
   <si>
     <t>Penjualan CV Putra Dewi Sri 2019</t>
   </si>
@@ -503,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1967"/>
+  <dimension ref="A1:Q2097"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A2077" workbookViewId="0">
+      <selection activeCell="H2096" sqref="H2096"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32662,27 +32662,27 @@
         <v>9</v>
       </c>
       <c r="D1882" s="14">
-        <f>SUM(D1862:D1881)</f>
+        <f t="shared" ref="D1882:I1882" si="173">SUM(D1862:D1881)</f>
         <v>78</v>
       </c>
       <c r="E1882" s="14">
-        <f>SUM(E1862:E1881)</f>
+        <f t="shared" si="173"/>
         <v>0</v>
       </c>
       <c r="F1882" s="14">
-        <f>SUM(F1862:F1881)</f>
+        <f t="shared" si="173"/>
         <v>41</v>
       </c>
       <c r="G1882" s="14">
-        <f>SUM(G1862:G1881)</f>
+        <f t="shared" si="173"/>
         <v>49</v>
       </c>
       <c r="H1882" s="14">
-        <f>SUM(H1862:H1881)</f>
+        <f t="shared" si="173"/>
         <v>0</v>
       </c>
       <c r="I1882" s="14">
-        <f>SUM(I1862:I1881)</f>
+        <f t="shared" si="173"/>
         <v>0</v>
       </c>
     </row>
@@ -32970,27 +32970,27 @@
         <v>9</v>
       </c>
       <c r="D1901" s="14">
-        <f>SUM(D1884:D1900)</f>
+        <f t="shared" ref="D1901:I1901" si="174">SUM(D1884:D1900)</f>
         <v>103.5</v>
       </c>
       <c r="E1901" s="14">
-        <f>SUM(E1884:E1900)</f>
+        <f t="shared" si="174"/>
         <v>0</v>
       </c>
       <c r="F1901" s="14">
-        <f>SUM(F1884:F1900)</f>
+        <f t="shared" si="174"/>
         <v>29.5</v>
       </c>
       <c r="G1901" s="14">
-        <f>SUM(G1884:G1900)</f>
+        <f t="shared" si="174"/>
         <v>0</v>
       </c>
       <c r="H1901" s="14">
-        <f>SUM(H1884:H1900)</f>
+        <f t="shared" si="174"/>
         <v>0</v>
       </c>
       <c r="I1901" s="14">
-        <f>SUM(I1884:I1900)</f>
+        <f t="shared" si="174"/>
         <v>0</v>
       </c>
     </row>
@@ -33194,27 +33194,27 @@
         <v>9</v>
       </c>
       <c r="D1915" s="14">
-        <f>SUM(D1903:D1914)</f>
+        <f t="shared" ref="D1915:I1915" si="175">SUM(D1903:D1914)</f>
         <v>59</v>
       </c>
       <c r="E1915" s="14">
-        <f>SUM(E1903:E1914)</f>
+        <f t="shared" si="175"/>
         <v>0</v>
       </c>
       <c r="F1915" s="14">
-        <f>SUM(F1903:F1914)</f>
+        <f t="shared" si="175"/>
         <v>17</v>
       </c>
       <c r="G1915" s="14">
-        <f>SUM(G1903:G1914)</f>
+        <f t="shared" si="175"/>
         <v>20</v>
       </c>
       <c r="H1915" s="14">
-        <f>SUM(H1903:H1914)</f>
+        <f t="shared" si="175"/>
         <v>0</v>
       </c>
       <c r="I1915" s="14">
-        <f>SUM(I1903:I1914)</f>
+        <f t="shared" si="175"/>
         <v>0</v>
       </c>
     </row>
@@ -33482,27 +33482,27 @@
         <v>9</v>
       </c>
       <c r="D1933" s="14">
-        <f>SUM(D1917:D1932)</f>
+        <f t="shared" ref="D1933:I1933" si="176">SUM(D1917:D1932)</f>
         <v>80</v>
       </c>
       <c r="E1933" s="14">
-        <f>SUM(E1917:E1932)</f>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="F1933" s="14">
-        <f>SUM(F1917:F1932)</f>
+        <f t="shared" si="176"/>
         <v>23</v>
       </c>
       <c r="G1933" s="14">
-        <f>SUM(G1917:G1932)</f>
+        <f t="shared" si="176"/>
         <v>14</v>
       </c>
       <c r="H1933" s="14">
-        <f>SUM(H1917:H1932)</f>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="I1933" s="14">
-        <f>SUM(I1917:I1932)</f>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
     </row>
@@ -33722,27 +33722,27 @@
         <v>9</v>
       </c>
       <c r="D1948" s="14">
-        <f>SUM(D1935:D1947)</f>
+        <f t="shared" ref="D1948:I1948" si="177">SUM(D1935:D1947)</f>
         <v>36</v>
       </c>
       <c r="E1948" s="14">
-        <f>SUM(E1935:E1947)</f>
+        <f t="shared" si="177"/>
         <v>0</v>
       </c>
       <c r="F1948" s="14">
-        <f>SUM(F1935:F1947)</f>
+        <f t="shared" si="177"/>
         <v>28</v>
       </c>
       <c r="G1948" s="14">
-        <f>SUM(G1935:G1947)</f>
+        <f t="shared" si="177"/>
         <v>60</v>
       </c>
       <c r="H1948" s="14">
-        <f>SUM(H1935:H1947)</f>
+        <f t="shared" si="177"/>
         <v>2</v>
       </c>
       <c r="I1948" s="14">
-        <f>SUM(I1935:I1947)</f>
+        <f t="shared" si="177"/>
         <v>7</v>
       </c>
     </row>
@@ -33866,27 +33866,27 @@
         <v>9</v>
       </c>
       <c r="D1957" s="14">
-        <f>SUM(D1950:D1956)</f>
+        <f t="shared" ref="D1957:I1957" si="178">SUM(D1950:D1956)</f>
         <v>25</v>
       </c>
       <c r="E1957" s="14">
-        <f>SUM(E1950:E1956)</f>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="F1957" s="14">
-        <f>SUM(F1950:F1956)</f>
+        <f t="shared" si="178"/>
         <v>16.5</v>
       </c>
       <c r="G1957" s="14">
-        <f>SUM(G1950:G1956)</f>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="H1957" s="14">
-        <f>SUM(H1950:H1956)</f>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="I1957" s="14">
-        <f>SUM(I1950:I1956)</f>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
     </row>
@@ -34034,23 +34034,2109 @@
         <v>24</v>
       </c>
       <c r="E1967" s="14">
-        <f t="shared" ref="E1967:I1967" si="173">SUM(E1959:E1966)</f>
+        <f t="shared" ref="E1967:I1967" si="179">SUM(E1959:E1966)</f>
         <v>0</v>
       </c>
       <c r="F1967" s="14">
-        <f t="shared" si="173"/>
+        <f t="shared" si="179"/>
         <v>9</v>
       </c>
       <c r="G1967" s="14">
-        <f t="shared" si="173"/>
+        <f t="shared" si="179"/>
         <v>16</v>
       </c>
       <c r="H1967" s="14">
-        <f t="shared" si="173"/>
+        <f t="shared" si="179"/>
         <v>14</v>
       </c>
       <c r="I1967" s="14">
-        <f t="shared" si="173"/>
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1969" s="16">
+        <v>43678</v>
+      </c>
+      <c r="B1969" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1969" s="5">
+        <v>8235</v>
+      </c>
+      <c r="D1969" s="4"/>
+      <c r="E1969" s="4"/>
+      <c r="F1969" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G1969" s="4"/>
+      <c r="H1969" s="4"/>
+      <c r="I1969" s="4"/>
+    </row>
+    <row r="1970" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1970" s="4">
+        <v>2</v>
+      </c>
+      <c r="C1970" s="5">
+        <v>8236</v>
+      </c>
+      <c r="D1970" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1970" s="4"/>
+      <c r="F1970" s="4"/>
+      <c r="G1970" s="4"/>
+      <c r="H1970" s="4"/>
+      <c r="I1970" s="4"/>
+    </row>
+    <row r="1971" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1971" s="4">
+        <v>3</v>
+      </c>
+      <c r="C1971" s="5">
+        <v>8237</v>
+      </c>
+      <c r="D1971" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1971" s="4"/>
+      <c r="F1971" s="4"/>
+      <c r="G1971" s="4"/>
+      <c r="H1971" s="4"/>
+      <c r="I1971" s="4"/>
+    </row>
+    <row r="1972" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1972" s="4">
+        <v>4</v>
+      </c>
+      <c r="C1972" s="5">
+        <v>8239</v>
+      </c>
+      <c r="D1972" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1972" s="4"/>
+      <c r="F1972" s="4"/>
+      <c r="G1972" s="4"/>
+      <c r="H1972" s="4"/>
+      <c r="I1972" s="4"/>
+    </row>
+    <row r="1973" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1973" s="4">
+        <v>5</v>
+      </c>
+      <c r="C1973" s="5">
+        <v>8240</v>
+      </c>
+      <c r="D1973" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E1973" s="4"/>
+      <c r="F1973" s="4"/>
+      <c r="G1973" s="4"/>
+      <c r="H1973" s="4"/>
+      <c r="I1973" s="4"/>
+    </row>
+    <row r="1974" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1974" s="4">
+        <v>6</v>
+      </c>
+      <c r="C1974" s="5">
+        <v>8241</v>
+      </c>
+      <c r="D1974" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="E1974" s="4"/>
+      <c r="F1974" s="4"/>
+      <c r="G1974" s="4"/>
+      <c r="H1974" s="4"/>
+      <c r="I1974" s="4"/>
+    </row>
+    <row r="1975" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1975" s="4">
+        <v>7</v>
+      </c>
+      <c r="C1975" s="5">
+        <v>8242</v>
+      </c>
+      <c r="D1975" s="4"/>
+      <c r="E1975" s="4"/>
+      <c r="F1975" s="4">
+        <v>16</v>
+      </c>
+      <c r="G1975" s="4"/>
+      <c r="H1975" s="4"/>
+      <c r="I1975" s="4"/>
+    </row>
+    <row r="1976" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1976" s="4">
+        <v>8</v>
+      </c>
+      <c r="C1976" s="5">
+        <v>8243</v>
+      </c>
+      <c r="D1976" s="4"/>
+      <c r="E1976" s="4"/>
+      <c r="F1976" s="4">
+        <v>6</v>
+      </c>
+      <c r="G1976" s="4"/>
+      <c r="H1976" s="4"/>
+      <c r="I1976" s="4"/>
+    </row>
+    <row r="1977" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1977" s="4">
+        <v>9</v>
+      </c>
+      <c r="C1977" s="5">
+        <v>8244</v>
+      </c>
+      <c r="D1977" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1977" s="4"/>
+      <c r="F1977" s="4"/>
+      <c r="G1977" s="4"/>
+      <c r="H1977" s="4"/>
+      <c r="I1977" s="4"/>
+    </row>
+    <row r="1978" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1978" s="4">
+        <v>10</v>
+      </c>
+      <c r="C1978" s="5">
+        <v>8245</v>
+      </c>
+      <c r="D1978" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1978" s="4"/>
+      <c r="F1978" s="4"/>
+      <c r="G1978" s="4"/>
+      <c r="H1978" s="4"/>
+      <c r="I1978" s="4"/>
+    </row>
+    <row r="1979" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1979" s="4">
+        <v>11</v>
+      </c>
+      <c r="C1979" s="5">
+        <v>8246</v>
+      </c>
+      <c r="D1979" s="4"/>
+      <c r="E1979" s="4"/>
+      <c r="F1979" s="4"/>
+      <c r="G1979" s="4"/>
+      <c r="H1979" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="I1979" s="4"/>
+    </row>
+    <row r="1980" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1980" s="4">
+        <v>12</v>
+      </c>
+      <c r="C1980" s="5">
+        <v>8247</v>
+      </c>
+      <c r="D1980" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1980" s="4"/>
+      <c r="F1980" s="4"/>
+      <c r="G1980" s="4"/>
+      <c r="H1980" s="4"/>
+      <c r="I1980" s="4"/>
+    </row>
+    <row r="1981" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1981" s="4">
+        <v>13</v>
+      </c>
+      <c r="C1981" s="5">
+        <v>8248</v>
+      </c>
+      <c r="D1981" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1981" s="4"/>
+      <c r="F1981" s="4"/>
+      <c r="G1981" s="4"/>
+      <c r="H1981" s="4"/>
+      <c r="I1981" s="4"/>
+    </row>
+    <row r="1982" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1982" s="4">
+        <v>14</v>
+      </c>
+      <c r="C1982" s="5">
+        <v>8408</v>
+      </c>
+      <c r="D1982" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1982" s="4"/>
+      <c r="F1982" s="4"/>
+      <c r="G1982" s="4"/>
+      <c r="H1982" s="4"/>
+      <c r="I1982" s="4"/>
+    </row>
+    <row r="1983" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1983" s="4">
+        <v>15</v>
+      </c>
+      <c r="C1983" s="5">
+        <v>8409</v>
+      </c>
+      <c r="D1983" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1983" s="4"/>
+      <c r="F1983" s="4"/>
+      <c r="G1983" s="4"/>
+      <c r="H1983" s="4"/>
+      <c r="I1983" s="4"/>
+    </row>
+    <row r="1984" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1984" s="4">
+        <v>16</v>
+      </c>
+      <c r="C1984" s="5">
+        <v>8410</v>
+      </c>
+      <c r="D1984" s="4"/>
+      <c r="E1984" s="4"/>
+      <c r="F1984" s="4">
+        <v>6</v>
+      </c>
+      <c r="G1984" s="4"/>
+      <c r="H1984" s="4"/>
+      <c r="I1984" s="4"/>
+    </row>
+    <row r="1985" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1985" s="4">
+        <v>17</v>
+      </c>
+      <c r="C1985" s="5">
+        <v>8249</v>
+      </c>
+      <c r="D1985" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1985" s="4"/>
+      <c r="F1985" s="4"/>
+      <c r="G1985" s="4"/>
+      <c r="H1985" s="4"/>
+      <c r="I1985" s="4"/>
+    </row>
+    <row r="1986" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1986" s="4">
+        <v>18</v>
+      </c>
+      <c r="C1986" s="5">
+        <v>8250</v>
+      </c>
+      <c r="D1986" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1986" s="4"/>
+      <c r="F1986" s="4"/>
+      <c r="G1986" s="4"/>
+      <c r="H1986" s="4"/>
+      <c r="I1986" s="4"/>
+    </row>
+    <row r="1987" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1987" s="4">
+        <v>19</v>
+      </c>
+      <c r="C1987" s="5">
+        <v>8411</v>
+      </c>
+      <c r="D1987" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1987" s="4"/>
+      <c r="F1987" s="4"/>
+      <c r="G1987" s="4"/>
+      <c r="H1987" s="4"/>
+      <c r="I1987" s="4"/>
+    </row>
+    <row r="1988" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1988" s="4">
+        <v>20</v>
+      </c>
+      <c r="C1988" s="5">
+        <v>8412</v>
+      </c>
+      <c r="D1988" s="4"/>
+      <c r="E1988" s="4"/>
+      <c r="F1988" s="4">
+        <v>6</v>
+      </c>
+      <c r="G1988" s="4"/>
+      <c r="H1988" s="4"/>
+      <c r="I1988" s="4"/>
+    </row>
+    <row r="1989" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1989" s="4">
+        <v>21</v>
+      </c>
+      <c r="C1989" s="5">
+        <v>8413</v>
+      </c>
+      <c r="D1989" s="4"/>
+      <c r="E1989" s="4"/>
+      <c r="F1989" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1989" s="4"/>
+      <c r="H1989" s="4"/>
+      <c r="I1989" s="4"/>
+    </row>
+    <row r="1990" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1990" s="4">
+        <v>22</v>
+      </c>
+      <c r="C1990" s="5">
+        <v>8414</v>
+      </c>
+      <c r="D1990" s="4"/>
+      <c r="E1990" s="4"/>
+      <c r="F1990" s="4">
+        <v>64</v>
+      </c>
+      <c r="G1990" s="4"/>
+      <c r="H1990" s="4"/>
+      <c r="I1990" s="4"/>
+    </row>
+    <row r="1991" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C1991" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1991" s="14">
+        <f>SUM(D1969:D1990)</f>
+        <v>106</v>
+      </c>
+      <c r="E1991" s="14">
+        <f t="shared" ref="E1991:I1991" si="180">SUM(E1969:E1990)</f>
+        <v>0</v>
+      </c>
+      <c r="F1991" s="14">
+        <f t="shared" si="180"/>
+        <v>105.5</v>
+      </c>
+      <c r="G1991" s="14">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="H1991" s="14">
+        <f t="shared" si="180"/>
+        <v>7.5</v>
+      </c>
+      <c r="I1991" s="14">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1993" s="16">
+        <v>43679</v>
+      </c>
+      <c r="B1993" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1993" s="5">
+        <v>8415</v>
+      </c>
+      <c r="D1993" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="E1993" s="4"/>
+      <c r="F1993" s="4"/>
+      <c r="G1993" s="4"/>
+      <c r="H1993" s="4"/>
+      <c r="I1993" s="4"/>
+    </row>
+    <row r="1994" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1994" s="4">
+        <v>2</v>
+      </c>
+      <c r="C1994" s="5">
+        <v>8416</v>
+      </c>
+      <c r="D1994" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1994" s="4"/>
+      <c r="F1994" s="4"/>
+      <c r="G1994" s="4"/>
+      <c r="H1994" s="4"/>
+      <c r="I1994" s="4"/>
+    </row>
+    <row r="1995" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1995" s="4">
+        <v>3</v>
+      </c>
+      <c r="C1995" s="5">
+        <v>8417</v>
+      </c>
+      <c r="D1995" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1995" s="4"/>
+      <c r="F1995" s="4"/>
+      <c r="G1995" s="4"/>
+      <c r="H1995" s="4"/>
+      <c r="I1995" s="4"/>
+    </row>
+    <row r="1996" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1996" s="4">
+        <v>4</v>
+      </c>
+      <c r="C1996" s="5">
+        <v>8418</v>
+      </c>
+      <c r="D1996" s="4"/>
+      <c r="E1996" s="4"/>
+      <c r="F1996" s="4">
+        <v>7</v>
+      </c>
+      <c r="G1996" s="4"/>
+      <c r="H1996" s="4"/>
+      <c r="I1996" s="4"/>
+    </row>
+    <row r="1997" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1997" s="4">
+        <v>5</v>
+      </c>
+      <c r="C1997" s="5">
+        <v>8419</v>
+      </c>
+      <c r="D1997" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1997" s="4"/>
+      <c r="F1997" s="4"/>
+      <c r="G1997" s="4"/>
+      <c r="H1997" s="4"/>
+      <c r="I1997" s="4"/>
+    </row>
+    <row r="1998" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1998" s="4">
+        <v>6</v>
+      </c>
+      <c r="C1998" s="5">
+        <v>8420</v>
+      </c>
+      <c r="D1998" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1998" s="4"/>
+      <c r="F1998" s="4"/>
+      <c r="G1998" s="4"/>
+      <c r="H1998" s="4"/>
+      <c r="I1998" s="4"/>
+    </row>
+    <row r="1999" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1999" s="4">
+        <v>7</v>
+      </c>
+      <c r="C1999" s="5">
+        <v>8421</v>
+      </c>
+      <c r="D1999" s="4">
+        <v>24</v>
+      </c>
+      <c r="E1999" s="4"/>
+      <c r="F1999" s="4"/>
+      <c r="G1999" s="4"/>
+      <c r="H1999" s="4"/>
+      <c r="I1999" s="4"/>
+    </row>
+    <row r="2000" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2000" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2000" s="5">
+        <v>8422</v>
+      </c>
+      <c r="D2000" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2000" s="4"/>
+      <c r="F2000" s="4"/>
+      <c r="G2000" s="4"/>
+      <c r="H2000" s="4"/>
+      <c r="I2000" s="4"/>
+    </row>
+    <row r="2001" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2001" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2001" s="5">
+        <v>8423</v>
+      </c>
+      <c r="D2001" s="4"/>
+      <c r="E2001" s="4"/>
+      <c r="F2001" s="4">
+        <v>8</v>
+      </c>
+      <c r="G2001" s="4"/>
+      <c r="H2001" s="4"/>
+      <c r="I2001" s="4"/>
+    </row>
+    <row r="2002" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2002" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2002" s="5">
+        <v>8424</v>
+      </c>
+      <c r="D2002" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2002" s="4"/>
+      <c r="F2002" s="4"/>
+      <c r="G2002" s="4"/>
+      <c r="H2002" s="4"/>
+      <c r="I2002" s="4"/>
+    </row>
+    <row r="2003" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2003" s="4">
+        <v>11</v>
+      </c>
+      <c r="C2003" s="5">
+        <v>8425</v>
+      </c>
+      <c r="D2003" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2003" s="4"/>
+      <c r="F2003" s="4"/>
+      <c r="G2003" s="4"/>
+      <c r="H2003" s="4"/>
+      <c r="I2003" s="4"/>
+    </row>
+    <row r="2004" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2004" s="4">
+        <v>12</v>
+      </c>
+      <c r="C2004" s="5">
+        <v>8426</v>
+      </c>
+      <c r="D2004" s="4"/>
+      <c r="E2004" s="4"/>
+      <c r="F2004" s="4"/>
+      <c r="G2004" s="4"/>
+      <c r="H2004" s="4">
+        <v>8</v>
+      </c>
+      <c r="I2004" s="4"/>
+    </row>
+    <row r="2005" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2005" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2005" s="14">
+        <f t="shared" ref="D2005:I2005" si="181">SUM(D1993:D2004)</f>
+        <v>85.5</v>
+      </c>
+      <c r="E2005" s="14">
+        <f t="shared" si="181"/>
+        <v>0</v>
+      </c>
+      <c r="F2005" s="14">
+        <f t="shared" si="181"/>
+        <v>15</v>
+      </c>
+      <c r="G2005" s="14">
+        <f t="shared" si="181"/>
+        <v>0</v>
+      </c>
+      <c r="H2005" s="14">
+        <f t="shared" si="181"/>
+        <v>8</v>
+      </c>
+      <c r="I2005" s="14">
+        <f t="shared" si="181"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2007" s="16">
+        <v>43680</v>
+      </c>
+      <c r="B2007" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2007" s="5">
+        <v>8427</v>
+      </c>
+      <c r="D2007" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2007" s="4"/>
+      <c r="F2007" s="4"/>
+      <c r="G2007" s="4"/>
+      <c r="H2007" s="4"/>
+      <c r="I2007" s="4"/>
+    </row>
+    <row r="2008" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2008" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2008" s="5">
+        <v>8428</v>
+      </c>
+      <c r="D2008" s="4"/>
+      <c r="E2008" s="4"/>
+      <c r="F2008" s="4">
+        <v>5</v>
+      </c>
+      <c r="G2008" s="4"/>
+      <c r="H2008" s="4"/>
+      <c r="I2008" s="4"/>
+    </row>
+    <row r="2009" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2009" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2009" s="5">
+        <v>8429</v>
+      </c>
+      <c r="D2009" s="4"/>
+      <c r="E2009" s="4"/>
+      <c r="F2009" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2009" s="4"/>
+      <c r="H2009" s="4"/>
+      <c r="I2009" s="4"/>
+    </row>
+    <row r="2010" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2010" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2010" s="5">
+        <v>8430</v>
+      </c>
+      <c r="D2010" s="4"/>
+      <c r="E2010" s="4"/>
+      <c r="F2010" s="4">
+        <v>8</v>
+      </c>
+      <c r="G2010" s="4"/>
+      <c r="H2010" s="4"/>
+      <c r="I2010" s="4"/>
+    </row>
+    <row r="2011" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2011" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2011" s="5">
+        <v>8431</v>
+      </c>
+      <c r="D2011" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2011" s="4"/>
+      <c r="F2011" s="4"/>
+      <c r="G2011" s="4"/>
+      <c r="H2011" s="4"/>
+      <c r="I2011" s="4"/>
+    </row>
+    <row r="2012" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2012" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2012" s="5">
+        <v>8432</v>
+      </c>
+      <c r="D2012" s="4"/>
+      <c r="E2012" s="4"/>
+      <c r="F2012" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2012" s="4"/>
+      <c r="H2012" s="4"/>
+      <c r="I2012" s="4"/>
+    </row>
+    <row r="2013" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2013" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2013" s="5">
+        <v>8433</v>
+      </c>
+      <c r="D2013" s="4"/>
+      <c r="E2013" s="4"/>
+      <c r="F2013" s="4">
+        <v>7</v>
+      </c>
+      <c r="G2013" s="4"/>
+      <c r="H2013" s="4"/>
+      <c r="I2013" s="4"/>
+    </row>
+    <row r="2014" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2014" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2014" s="5">
+        <v>8434</v>
+      </c>
+      <c r="D2014" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2014" s="4"/>
+      <c r="F2014" s="4"/>
+      <c r="G2014" s="4"/>
+      <c r="H2014" s="4"/>
+      <c r="I2014" s="4"/>
+    </row>
+    <row r="2015" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2015" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2015" s="5">
+        <v>8435</v>
+      </c>
+      <c r="D2015" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2015" s="4"/>
+      <c r="F2015" s="4"/>
+      <c r="G2015" s="4"/>
+      <c r="H2015" s="4"/>
+      <c r="I2015" s="4"/>
+    </row>
+    <row r="2016" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2016" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2016" s="14">
+        <f t="shared" ref="D2016:I2016" si="182">SUM(D2007:D2015)</f>
+        <v>32</v>
+      </c>
+      <c r="E2016" s="14">
+        <f t="shared" si="182"/>
+        <v>0</v>
+      </c>
+      <c r="F2016" s="14">
+        <f t="shared" si="182"/>
+        <v>22</v>
+      </c>
+      <c r="G2016" s="14">
+        <f t="shared" si="182"/>
+        <v>0</v>
+      </c>
+      <c r="H2016" s="14">
+        <f t="shared" si="182"/>
+        <v>0</v>
+      </c>
+      <c r="I2016" s="14">
+        <f t="shared" si="182"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2018" s="16">
+        <v>43682</v>
+      </c>
+      <c r="B2018" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2018" s="5">
+        <v>8436</v>
+      </c>
+      <c r="D2018" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2018" s="4"/>
+      <c r="F2018" s="4"/>
+      <c r="G2018" s="4"/>
+      <c r="H2018" s="4"/>
+      <c r="I2018" s="4"/>
+    </row>
+    <row r="2019" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2019" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2019" s="5">
+        <v>8437</v>
+      </c>
+      <c r="D2019" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2019" s="4"/>
+      <c r="F2019" s="4"/>
+      <c r="G2019" s="4"/>
+      <c r="H2019" s="4"/>
+      <c r="I2019" s="4"/>
+    </row>
+    <row r="2020" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2020" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2020" s="5">
+        <v>8438</v>
+      </c>
+      <c r="D2020" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2020" s="4"/>
+      <c r="F2020" s="4"/>
+      <c r="G2020" s="4"/>
+      <c r="H2020" s="4"/>
+      <c r="I2020" s="4"/>
+    </row>
+    <row r="2021" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2021" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2021" s="5">
+        <v>8439</v>
+      </c>
+      <c r="D2021" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2021" s="4"/>
+      <c r="F2021" s="4"/>
+      <c r="G2021" s="4"/>
+      <c r="H2021" s="4"/>
+      <c r="I2021" s="4"/>
+    </row>
+    <row r="2022" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2022" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2022" s="5">
+        <v>8440</v>
+      </c>
+      <c r="D2022" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="E2022" s="4"/>
+      <c r="F2022" s="4"/>
+      <c r="G2022" s="4"/>
+      <c r="H2022" s="4"/>
+      <c r="I2022" s="4"/>
+    </row>
+    <row r="2023" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2023" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2023" s="5">
+        <v>8441</v>
+      </c>
+      <c r="D2023" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2023" s="4"/>
+      <c r="F2023" s="4"/>
+      <c r="G2023" s="4"/>
+      <c r="H2023" s="4"/>
+      <c r="I2023" s="4"/>
+    </row>
+    <row r="2024" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2024" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2024" s="5">
+        <v>8442</v>
+      </c>
+      <c r="D2024" s="4"/>
+      <c r="E2024" s="4"/>
+      <c r="F2024" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2024" s="4"/>
+      <c r="H2024" s="4"/>
+      <c r="I2024" s="4"/>
+    </row>
+    <row r="2025" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2025" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2025" s="5">
+        <v>8443</v>
+      </c>
+      <c r="D2025" s="4"/>
+      <c r="E2025" s="4"/>
+      <c r="F2025" s="4"/>
+      <c r="G2025" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="H2025" s="4">
+        <v>3</v>
+      </c>
+      <c r="I2025" s="4"/>
+    </row>
+    <row r="2026" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2026" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2026" s="5">
+        <v>8444</v>
+      </c>
+      <c r="D2026" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2026" s="4"/>
+      <c r="F2026" s="4"/>
+      <c r="G2026" s="4"/>
+      <c r="H2026" s="4"/>
+      <c r="I2026" s="4"/>
+    </row>
+    <row r="2027" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2027" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2027" s="5">
+        <v>8445</v>
+      </c>
+      <c r="D2027" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2027" s="4"/>
+      <c r="F2027" s="4"/>
+      <c r="G2027" s="4"/>
+      <c r="H2027" s="4"/>
+      <c r="I2027" s="4"/>
+    </row>
+    <row r="2028" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2028" s="4">
+        <v>11</v>
+      </c>
+      <c r="C2028" s="5">
+        <v>8446</v>
+      </c>
+      <c r="D2028" s="4"/>
+      <c r="E2028" s="4"/>
+      <c r="F2028" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2028" s="4"/>
+      <c r="H2028" s="4"/>
+      <c r="I2028" s="4"/>
+    </row>
+    <row r="2029" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2029" s="4">
+        <v>12</v>
+      </c>
+      <c r="C2029" s="5">
+        <v>8447</v>
+      </c>
+      <c r="D2029" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2029" s="4"/>
+      <c r="F2029" s="4"/>
+      <c r="G2029" s="4"/>
+      <c r="H2029" s="4"/>
+      <c r="I2029" s="4"/>
+    </row>
+    <row r="2030" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2030" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2030" s="5">
+        <v>8448</v>
+      </c>
+      <c r="D2030" s="4"/>
+      <c r="E2030" s="4"/>
+      <c r="F2030" s="4"/>
+      <c r="G2030" s="4">
+        <v>7</v>
+      </c>
+      <c r="H2030" s="4"/>
+      <c r="I2030" s="4"/>
+    </row>
+    <row r="2031" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2031" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2031" s="5">
+        <v>8449</v>
+      </c>
+      <c r="D2031" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2031" s="4"/>
+      <c r="F2031" s="4"/>
+      <c r="G2031" s="4"/>
+      <c r="H2031" s="4"/>
+      <c r="I2031" s="4"/>
+    </row>
+    <row r="2032" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2032" s="4">
+        <v>15</v>
+      </c>
+      <c r="C2032" s="5">
+        <v>8450</v>
+      </c>
+      <c r="D2032" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2032" s="4"/>
+      <c r="F2032" s="4"/>
+      <c r="G2032" s="4"/>
+      <c r="H2032" s="4"/>
+      <c r="I2032" s="4"/>
+    </row>
+    <row r="2033" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2033" s="4">
+        <v>16</v>
+      </c>
+      <c r="C2033" s="5">
+        <v>3284</v>
+      </c>
+      <c r="D2033" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2033" s="4"/>
+      <c r="F2033" s="4"/>
+      <c r="G2033" s="4"/>
+      <c r="H2033" s="4"/>
+      <c r="I2033" s="4"/>
+    </row>
+    <row r="2034" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2034" s="4">
+        <v>17</v>
+      </c>
+      <c r="C2034" s="5">
+        <v>3285</v>
+      </c>
+      <c r="D2034" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2034" s="4"/>
+      <c r="F2034" s="4"/>
+      <c r="G2034" s="4"/>
+      <c r="H2034" s="4"/>
+      <c r="I2034" s="4"/>
+    </row>
+    <row r="2035" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2035" s="4">
+        <v>18</v>
+      </c>
+      <c r="C2035" s="5">
+        <v>3286</v>
+      </c>
+      <c r="D2035" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2035" s="4"/>
+      <c r="F2035" s="4"/>
+      <c r="G2035" s="4"/>
+      <c r="H2035" s="4"/>
+      <c r="I2035" s="4"/>
+    </row>
+    <row r="2036" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2036" s="4">
+        <v>19</v>
+      </c>
+      <c r="C2036" s="5">
+        <v>3287</v>
+      </c>
+      <c r="D2036" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2036" s="4"/>
+      <c r="F2036" s="4"/>
+      <c r="G2036" s="4"/>
+      <c r="H2036" s="4"/>
+      <c r="I2036" s="4"/>
+    </row>
+    <row r="2037" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2037" s="4">
+        <v>20</v>
+      </c>
+      <c r="C2037" s="5">
+        <v>3288</v>
+      </c>
+      <c r="D2037" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2037" s="4"/>
+      <c r="F2037" s="4"/>
+      <c r="G2037" s="4"/>
+      <c r="H2037" s="4"/>
+      <c r="I2037" s="4"/>
+    </row>
+    <row r="2038" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2038" s="4">
+        <v>21</v>
+      </c>
+      <c r="C2038" s="5">
+        <v>3289</v>
+      </c>
+      <c r="D2038" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2038" s="4"/>
+      <c r="F2038" s="4"/>
+      <c r="G2038" s="4"/>
+      <c r="H2038" s="4"/>
+      <c r="I2038" s="4"/>
+    </row>
+    <row r="2039" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2039" s="4">
+        <v>22</v>
+      </c>
+      <c r="C2039" s="5">
+        <v>3290</v>
+      </c>
+      <c r="D2039" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2039" s="4"/>
+      <c r="F2039" s="4"/>
+      <c r="G2039" s="4"/>
+      <c r="H2039" s="4"/>
+      <c r="I2039" s="4"/>
+    </row>
+    <row r="2040" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2040" s="4">
+        <v>23</v>
+      </c>
+      <c r="C2040" s="5">
+        <v>3291</v>
+      </c>
+      <c r="D2040" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2040" s="4"/>
+      <c r="F2040" s="4"/>
+      <c r="G2040" s="4"/>
+      <c r="H2040" s="4"/>
+      <c r="I2040" s="4"/>
+    </row>
+    <row r="2041" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2041" s="4">
+        <v>24</v>
+      </c>
+      <c r="C2041" s="5">
+        <v>3292</v>
+      </c>
+      <c r="D2041" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2041" s="4"/>
+      <c r="F2041" s="4"/>
+      <c r="G2041" s="4"/>
+      <c r="H2041" s="4"/>
+      <c r="I2041" s="4"/>
+    </row>
+    <row r="2042" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2042" s="4">
+        <v>25</v>
+      </c>
+      <c r="C2042" s="5">
+        <v>3293</v>
+      </c>
+      <c r="D2042" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2042" s="4"/>
+      <c r="F2042" s="4"/>
+      <c r="G2042" s="4"/>
+      <c r="H2042" s="4"/>
+      <c r="I2042" s="4"/>
+    </row>
+    <row r="2043" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2043" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2043" s="14">
+        <f>SUM(D2018:D2042)</f>
+        <v>96.5</v>
+      </c>
+      <c r="E2043" s="14">
+        <f t="shared" ref="E2043:I2043" si="183">SUM(E2018:E2042)</f>
+        <v>0</v>
+      </c>
+      <c r="F2043" s="14">
+        <f t="shared" si="183"/>
+        <v>12</v>
+      </c>
+      <c r="G2043" s="14">
+        <f t="shared" si="183"/>
+        <v>10.5</v>
+      </c>
+      <c r="H2043" s="14">
+        <f t="shared" si="183"/>
+        <v>3</v>
+      </c>
+      <c r="I2043" s="14">
+        <f t="shared" si="183"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2045" s="16">
+        <v>43683</v>
+      </c>
+      <c r="B2045" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2045" s="5">
+        <v>8251</v>
+      </c>
+      <c r="D2045" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2045" s="4"/>
+      <c r="F2045" s="4"/>
+      <c r="G2045" s="4"/>
+      <c r="H2045" s="4"/>
+      <c r="I2045" s="4"/>
+    </row>
+    <row r="2046" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2046" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2046" s="5">
+        <v>8252</v>
+      </c>
+      <c r="D2046" s="4"/>
+      <c r="E2046" s="4"/>
+      <c r="F2046" s="4">
+        <v>7</v>
+      </c>
+      <c r="G2046" s="4"/>
+      <c r="H2046" s="4"/>
+      <c r="I2046" s="4"/>
+    </row>
+    <row r="2047" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2047" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2047" s="5">
+        <v>8253</v>
+      </c>
+      <c r="D2047" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2047" s="4"/>
+      <c r="F2047" s="4"/>
+      <c r="G2047" s="4"/>
+      <c r="H2047" s="4"/>
+      <c r="I2047" s="4"/>
+    </row>
+    <row r="2048" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2048" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2048" s="5">
+        <v>8254</v>
+      </c>
+      <c r="D2048" s="4">
+        <v>6</v>
+      </c>
+      <c r="E2048" s="4"/>
+      <c r="F2048" s="4"/>
+      <c r="G2048" s="4"/>
+      <c r="H2048" s="4"/>
+      <c r="I2048" s="4"/>
+    </row>
+    <row r="2049" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2049" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2049" s="14">
+        <f t="shared" ref="D2049:I2049" si="184">SUM(D2045:D2048)</f>
+        <v>22</v>
+      </c>
+      <c r="E2049" s="14">
+        <f t="shared" si="184"/>
+        <v>0</v>
+      </c>
+      <c r="F2049" s="14">
+        <f t="shared" si="184"/>
+        <v>7</v>
+      </c>
+      <c r="G2049" s="14">
+        <f t="shared" si="184"/>
+        <v>0</v>
+      </c>
+      <c r="H2049" s="14">
+        <f t="shared" si="184"/>
+        <v>0</v>
+      </c>
+      <c r="I2049" s="14">
+        <f t="shared" si="184"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2051" s="16">
+        <v>43684</v>
+      </c>
+      <c r="B2051" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2051" s="5">
+        <v>8255</v>
+      </c>
+      <c r="D2051" s="4"/>
+      <c r="E2051" s="4"/>
+      <c r="F2051" s="4">
+        <v>5</v>
+      </c>
+      <c r="G2051" s="4"/>
+      <c r="H2051" s="4"/>
+      <c r="I2051" s="4"/>
+    </row>
+    <row r="2052" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2052" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2052" s="5">
+        <v>8256</v>
+      </c>
+      <c r="D2052" s="4"/>
+      <c r="E2052" s="4"/>
+      <c r="F2052" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G2052" s="4"/>
+      <c r="H2052" s="4"/>
+      <c r="I2052" s="4"/>
+    </row>
+    <row r="2053" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2053" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2053" s="5">
+        <v>8257</v>
+      </c>
+      <c r="D2053" s="4"/>
+      <c r="E2053" s="4"/>
+      <c r="F2053" s="4"/>
+      <c r="G2053" s="4"/>
+      <c r="H2053" s="4">
+        <v>6</v>
+      </c>
+      <c r="I2053" s="4"/>
+    </row>
+    <row r="2054" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2054" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2054" s="5">
+        <v>8258</v>
+      </c>
+      <c r="D2054" s="4"/>
+      <c r="E2054" s="4"/>
+      <c r="F2054" s="4"/>
+      <c r="G2054" s="4">
+        <v>6</v>
+      </c>
+      <c r="H2054" s="4"/>
+      <c r="I2054" s="4"/>
+    </row>
+    <row r="2055" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2055" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2055" s="5">
+        <v>8259</v>
+      </c>
+      <c r="D2055" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2055" s="4"/>
+      <c r="F2055" s="4"/>
+      <c r="G2055" s="4"/>
+      <c r="H2055" s="4"/>
+      <c r="I2055" s="4"/>
+    </row>
+    <row r="2056" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2056" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2056" s="5">
+        <v>8260</v>
+      </c>
+      <c r="D2056" s="4"/>
+      <c r="E2056" s="4"/>
+      <c r="F2056" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2056" s="4"/>
+      <c r="H2056" s="4"/>
+      <c r="I2056" s="4"/>
+    </row>
+    <row r="2057" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2057" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2057" s="5">
+        <v>8261</v>
+      </c>
+      <c r="D2057" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2057" s="4"/>
+      <c r="F2057" s="4"/>
+      <c r="G2057" s="4"/>
+      <c r="H2057" s="4"/>
+      <c r="I2057" s="4"/>
+    </row>
+    <row r="2058" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2058" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2058" s="5">
+        <v>8262</v>
+      </c>
+      <c r="D2058" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2058" s="4"/>
+      <c r="F2058" s="4"/>
+      <c r="G2058" s="4"/>
+      <c r="H2058" s="4"/>
+      <c r="I2058" s="4"/>
+    </row>
+    <row r="2059" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2059" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2059" s="5">
+        <v>8263</v>
+      </c>
+      <c r="D2059" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2059" s="4"/>
+      <c r="F2059" s="4"/>
+      <c r="G2059" s="4"/>
+      <c r="H2059" s="4"/>
+      <c r="I2059" s="4"/>
+    </row>
+    <row r="2060" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2060" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2060" s="14">
+        <f>SUM(D2051:D2059)</f>
+        <v>29</v>
+      </c>
+      <c r="E2060" s="14">
+        <f t="shared" ref="E2060:I2060" si="185">SUM(E2051:E2059)</f>
+        <v>0</v>
+      </c>
+      <c r="F2060" s="14">
+        <f t="shared" si="185"/>
+        <v>11.5</v>
+      </c>
+      <c r="G2060" s="14">
+        <f t="shared" si="185"/>
+        <v>6</v>
+      </c>
+      <c r="H2060" s="14">
+        <f t="shared" si="185"/>
+        <v>6</v>
+      </c>
+      <c r="I2060" s="14">
+        <f t="shared" si="185"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2062" s="16">
+        <v>43685</v>
+      </c>
+      <c r="B2062" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2062" s="5">
+        <v>8264</v>
+      </c>
+      <c r="D2062" s="4"/>
+      <c r="E2062" s="4"/>
+      <c r="F2062" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2062" s="4"/>
+      <c r="H2062" s="4"/>
+      <c r="I2062" s="4"/>
+    </row>
+    <row r="2063" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2063" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2063" s="5">
+        <v>8265</v>
+      </c>
+      <c r="D2063" s="4"/>
+      <c r="E2063" s="4"/>
+      <c r="F2063" s="4">
+        <v>5</v>
+      </c>
+      <c r="G2063" s="4"/>
+      <c r="H2063" s="4"/>
+      <c r="I2063" s="4"/>
+    </row>
+    <row r="2064" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2064" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2064" s="5">
+        <v>8266</v>
+      </c>
+      <c r="D2064" s="4"/>
+      <c r="E2064" s="4"/>
+      <c r="F2064" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2064" s="4"/>
+      <c r="H2064" s="4"/>
+      <c r="I2064" s="4"/>
+    </row>
+    <row r="2065" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2065" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2065" s="5">
+        <v>8267</v>
+      </c>
+      <c r="D2065" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2065" s="4"/>
+      <c r="F2065" s="4"/>
+      <c r="G2065" s="4"/>
+      <c r="H2065" s="4"/>
+      <c r="I2065" s="4"/>
+    </row>
+    <row r="2066" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2066" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2066" s="5">
+        <v>8268</v>
+      </c>
+      <c r="D2066" s="4"/>
+      <c r="E2066" s="4"/>
+      <c r="F2066" s="4"/>
+      <c r="G2066" s="4">
+        <v>6</v>
+      </c>
+      <c r="H2066" s="4"/>
+      <c r="I2066" s="4"/>
+    </row>
+    <row r="2067" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2067" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2067" s="5">
+        <v>8269</v>
+      </c>
+      <c r="D2067" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2067" s="4"/>
+      <c r="F2067" s="4"/>
+      <c r="G2067" s="4"/>
+      <c r="H2067" s="4"/>
+      <c r="I2067" s="4"/>
+    </row>
+    <row r="2068" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2068" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2068" s="5">
+        <v>8270</v>
+      </c>
+      <c r="D2068" s="4"/>
+      <c r="E2068" s="4"/>
+      <c r="F2068" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2068" s="4"/>
+      <c r="H2068" s="4"/>
+      <c r="I2068" s="4"/>
+    </row>
+    <row r="2069" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2069" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2069" s="5">
+        <v>8271</v>
+      </c>
+      <c r="D2069" s="4"/>
+      <c r="E2069" s="4"/>
+      <c r="F2069" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G2069" s="4"/>
+      <c r="H2069" s="4"/>
+      <c r="I2069" s="4"/>
+    </row>
+    <row r="2070" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2070" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2070" s="5">
+        <v>8272</v>
+      </c>
+      <c r="D2070" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2070" s="4"/>
+      <c r="F2070" s="4"/>
+      <c r="G2070" s="4"/>
+      <c r="H2070" s="4"/>
+      <c r="I2070" s="4"/>
+    </row>
+    <row r="2071" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2071" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2071" s="5">
+        <v>8273</v>
+      </c>
+      <c r="D2071" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2071" s="4"/>
+      <c r="F2071" s="4"/>
+      <c r="G2071" s="4"/>
+      <c r="H2071" s="4"/>
+      <c r="I2071" s="4"/>
+    </row>
+    <row r="2072" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2072" s="4">
+        <v>11</v>
+      </c>
+      <c r="C2072" s="5">
+        <v>8274</v>
+      </c>
+      <c r="D2072" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2072" s="4"/>
+      <c r="F2072" s="4"/>
+      <c r="G2072" s="4"/>
+      <c r="H2072" s="4"/>
+      <c r="I2072" s="4"/>
+    </row>
+    <row r="2073" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2073" s="4">
+        <v>12</v>
+      </c>
+      <c r="C2073" s="5">
+        <v>8275</v>
+      </c>
+      <c r="D2073" s="4"/>
+      <c r="E2073" s="4"/>
+      <c r="F2073" s="4"/>
+      <c r="G2073" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="H2073" s="4"/>
+      <c r="I2073" s="4"/>
+    </row>
+    <row r="2074" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2074" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2074" s="14">
+        <f>SUM(D2062:D2073)</f>
+        <v>36</v>
+      </c>
+      <c r="E2074" s="14">
+        <f t="shared" ref="E2074:I2074" si="186">SUM(E2062:E2073)</f>
+        <v>0</v>
+      </c>
+      <c r="F2074" s="14">
+        <f t="shared" si="186"/>
+        <v>28.5</v>
+      </c>
+      <c r="G2074" s="14">
+        <f t="shared" si="186"/>
+        <v>11.5</v>
+      </c>
+      <c r="H2074" s="14">
+        <f t="shared" si="186"/>
+        <v>0</v>
+      </c>
+      <c r="I2074" s="14">
+        <f t="shared" si="186"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2076" s="16">
+        <v>43686</v>
+      </c>
+      <c r="B2076" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2076" s="5">
+        <v>8276</v>
+      </c>
+      <c r="D2076" s="4"/>
+      <c r="E2076" s="4"/>
+      <c r="F2076" s="4"/>
+      <c r="G2076" s="4">
+        <v>3</v>
+      </c>
+      <c r="H2076" s="4">
+        <v>3</v>
+      </c>
+      <c r="I2076" s="4"/>
+    </row>
+    <row r="2077" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2077" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2077" s="5">
+        <v>8277</v>
+      </c>
+      <c r="D2077" s="4">
+        <v>7</v>
+      </c>
+      <c r="E2077" s="4"/>
+      <c r="F2077" s="4"/>
+      <c r="G2077" s="4"/>
+      <c r="H2077" s="4"/>
+      <c r="I2077" s="4"/>
+    </row>
+    <row r="2078" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2078" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2078" s="5">
+        <v>8278</v>
+      </c>
+      <c r="D2078" s="4">
+        <v>7</v>
+      </c>
+      <c r="E2078" s="4"/>
+      <c r="F2078" s="4"/>
+      <c r="G2078" s="4"/>
+      <c r="H2078" s="4"/>
+      <c r="I2078" s="4"/>
+    </row>
+    <row r="2079" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2079" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2079" s="5">
+        <v>8279</v>
+      </c>
+      <c r="D2079" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2079" s="4"/>
+      <c r="F2079" s="4"/>
+      <c r="G2079" s="4"/>
+      <c r="H2079" s="4"/>
+      <c r="I2079" s="4"/>
+    </row>
+    <row r="2080" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2080" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2080" s="5">
+        <v>8280</v>
+      </c>
+      <c r="D2080" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2080" s="4"/>
+      <c r="F2080" s="4"/>
+      <c r="G2080" s="4"/>
+      <c r="H2080" s="4"/>
+      <c r="I2080" s="4"/>
+    </row>
+    <row r="2081" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2081" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2081" s="5">
+        <v>8281</v>
+      </c>
+      <c r="D2081" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2081" s="4"/>
+      <c r="F2081" s="4"/>
+      <c r="G2081" s="4"/>
+      <c r="H2081" s="4"/>
+      <c r="I2081" s="4"/>
+    </row>
+    <row r="2082" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2082" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2082" s="5">
+        <v>8282</v>
+      </c>
+      <c r="D2082" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2082" s="4"/>
+      <c r="F2082" s="4"/>
+      <c r="G2082" s="4"/>
+      <c r="H2082" s="4"/>
+      <c r="I2082" s="4"/>
+    </row>
+    <row r="2083" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2083" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2083" s="14">
+        <f>SUM(D2076:D2082)</f>
+        <v>46</v>
+      </c>
+      <c r="E2083" s="14">
+        <f>SUM(E2076:E2082)</f>
+        <v>0</v>
+      </c>
+      <c r="F2083" s="14">
+        <f>SUM(F2076:F2082)</f>
+        <v>0</v>
+      </c>
+      <c r="G2083" s="14">
+        <f>SUM(G2076:G2082)</f>
+        <v>3</v>
+      </c>
+      <c r="H2083" s="14">
+        <f>SUM(H2076:H2082)</f>
+        <v>3</v>
+      </c>
+      <c r="I2083" s="14">
+        <f>SUM(I2076:I2082)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2085" s="16">
+        <v>43687</v>
+      </c>
+      <c r="B2085" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2085" s="5">
+        <v>8283</v>
+      </c>
+      <c r="D2085" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2085" s="4"/>
+      <c r="F2085" s="4"/>
+      <c r="G2085" s="4"/>
+      <c r="H2085" s="4"/>
+      <c r="I2085" s="4"/>
+    </row>
+    <row r="2086" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2086" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2086" s="5">
+        <v>8284</v>
+      </c>
+      <c r="D2086" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="E2086" s="4"/>
+      <c r="F2086" s="4"/>
+      <c r="G2086" s="4"/>
+      <c r="H2086" s="4"/>
+      <c r="I2086" s="4"/>
+    </row>
+    <row r="2087" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2087" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2087" s="5">
+        <v>8285</v>
+      </c>
+      <c r="D2087" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2087" s="4"/>
+      <c r="F2087" s="4"/>
+      <c r="G2087" s="4"/>
+      <c r="H2087" s="4"/>
+      <c r="I2087" s="4"/>
+    </row>
+    <row r="2088" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2088" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2088" s="5">
+        <v>8286</v>
+      </c>
+      <c r="D2088" s="4"/>
+      <c r="E2088" s="4"/>
+      <c r="F2088" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G2088" s="4"/>
+      <c r="H2088" s="4"/>
+      <c r="I2088" s="4"/>
+    </row>
+    <row r="2089" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2089" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2089" s="5">
+        <v>8287</v>
+      </c>
+      <c r="D2089" s="4"/>
+      <c r="E2089" s="4"/>
+      <c r="F2089" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G2089" s="4"/>
+      <c r="H2089" s="4"/>
+      <c r="I2089" s="4"/>
+    </row>
+    <row r="2090" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2090" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2090" s="5">
+        <v>8288</v>
+      </c>
+      <c r="D2090" s="4"/>
+      <c r="E2090" s="4"/>
+      <c r="F2090" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G2090" s="4"/>
+      <c r="H2090" s="4"/>
+      <c r="I2090" s="4"/>
+    </row>
+    <row r="2091" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2091" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2091" s="5">
+        <v>8289</v>
+      </c>
+      <c r="D2091" s="4"/>
+      <c r="E2091" s="4"/>
+      <c r="F2091" s="4"/>
+      <c r="G2091" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="H2091" s="4"/>
+      <c r="I2091" s="4"/>
+    </row>
+    <row r="2092" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2092" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2092" s="5">
+        <v>8290</v>
+      </c>
+      <c r="D2092" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2092" s="4"/>
+      <c r="F2092" s="4"/>
+      <c r="G2092" s="4"/>
+      <c r="H2092" s="4"/>
+      <c r="I2092" s="4"/>
+    </row>
+    <row r="2093" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2093" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2093" s="5">
+        <v>8291</v>
+      </c>
+      <c r="D2093" s="4"/>
+      <c r="E2093" s="4"/>
+      <c r="F2093" s="4"/>
+      <c r="G2093" s="4"/>
+      <c r="H2093" s="4">
+        <v>6</v>
+      </c>
+      <c r="I2093" s="4"/>
+    </row>
+    <row r="2094" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2094" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2094" s="5">
+        <v>8292</v>
+      </c>
+      <c r="D2094" s="4"/>
+      <c r="E2094" s="4"/>
+      <c r="F2094" s="4"/>
+      <c r="G2094" s="4"/>
+      <c r="H2094" s="4">
+        <v>6</v>
+      </c>
+      <c r="I2094" s="4"/>
+    </row>
+    <row r="2095" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2095" s="4">
+        <v>11</v>
+      </c>
+      <c r="C2095" s="5">
+        <v>8293</v>
+      </c>
+      <c r="D2095" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2095" s="4"/>
+      <c r="F2095" s="4"/>
+      <c r="G2095" s="4"/>
+      <c r="H2095" s="4"/>
+      <c r="I2095" s="4"/>
+    </row>
+    <row r="2096" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2096" s="4">
+        <v>12</v>
+      </c>
+      <c r="C2096" s="5">
+        <v>8294</v>
+      </c>
+      <c r="D2096" s="4"/>
+      <c r="E2096" s="4"/>
+      <c r="F2096" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2096" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2096" s="4"/>
+      <c r="I2096" s="4"/>
+    </row>
+    <row r="2097" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C2097" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2097" s="14">
+        <f>SUM(D2085:D2096)</f>
+        <v>37.5</v>
+      </c>
+      <c r="E2097" s="14">
+        <f t="shared" ref="E2097" si="187">SUM(E2085:E2096)</f>
+        <v>0</v>
+      </c>
+      <c r="F2097" s="14">
+        <f t="shared" ref="F2097" si="188">SUM(F2085:F2096)</f>
+        <v>17.5</v>
+      </c>
+      <c r="G2097" s="14">
+        <f t="shared" ref="G2097" si="189">SUM(G2085:G2096)</f>
+        <v>7.5</v>
+      </c>
+      <c r="H2097" s="14">
+        <f t="shared" ref="H2097" si="190">SUM(H2085:H2096)</f>
+        <v>12</v>
+      </c>
+      <c r="I2097" s="14">
+        <f t="shared" ref="I2097" si="191">SUM(I2085:I2096)</f>
         <v>0</v>
       </c>
     </row>

--- a/data/catatan pembukuan dewi sri 2019.xlsx
+++ b/data/catatan pembukuan dewi sri 2019.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="21">
   <si>
     <t>Penjualan CV Putra Dewi Sri 2019</t>
   </si>
@@ -503,15 +503,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2097"/>
+  <dimension ref="A1:Q2689"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2077" workbookViewId="0">
-      <selection activeCell="H2096" sqref="H2096"/>
+    <sheetView tabSelected="1" topLeftCell="A2666" workbookViewId="0">
+      <selection activeCell="G2688" sqref="G2688"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -35890,27 +35890,27 @@
         <v>9</v>
       </c>
       <c r="D2083" s="14">
-        <f>SUM(D2076:D2082)</f>
+        <f t="shared" ref="D2083:I2083" si="187">SUM(D2076:D2082)</f>
         <v>46</v>
       </c>
       <c r="E2083" s="14">
-        <f>SUM(E2076:E2082)</f>
+        <f t="shared" si="187"/>
         <v>0</v>
       </c>
       <c r="F2083" s="14">
-        <f>SUM(F2076:F2082)</f>
+        <f t="shared" si="187"/>
         <v>0</v>
       </c>
       <c r="G2083" s="14">
-        <f>SUM(G2076:G2082)</f>
+        <f t="shared" si="187"/>
         <v>3</v>
       </c>
       <c r="H2083" s="14">
-        <f>SUM(H2076:H2082)</f>
+        <f t="shared" si="187"/>
         <v>3</v>
       </c>
       <c r="I2083" s="14">
-        <f>SUM(I2076:I2082)</f>
+        <f t="shared" si="187"/>
         <v>0</v>
       </c>
     </row>
@@ -36111,7 +36111,7 @@
       <c r="H2096" s="4"/>
       <c r="I2096" s="4"/>
     </row>
-    <row r="2097" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="2097" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C2097" s="1" t="s">
         <v>9</v>
       </c>
@@ -36120,23 +36120,9511 @@
         <v>37.5</v>
       </c>
       <c r="E2097" s="14">
-        <f t="shared" ref="E2097" si="187">SUM(E2085:E2096)</f>
+        <f t="shared" ref="E2097" si="188">SUM(E2085:E2096)</f>
         <v>0</v>
       </c>
       <c r="F2097" s="14">
-        <f t="shared" ref="F2097" si="188">SUM(F2085:F2096)</f>
+        <f t="shared" ref="F2097" si="189">SUM(F2085:F2096)</f>
         <v>17.5</v>
       </c>
       <c r="G2097" s="14">
-        <f t="shared" ref="G2097" si="189">SUM(G2085:G2096)</f>
+        <f t="shared" ref="G2097" si="190">SUM(G2085:G2096)</f>
         <v>7.5</v>
       </c>
       <c r="H2097" s="14">
-        <f t="shared" ref="H2097" si="190">SUM(H2085:H2096)</f>
+        <f t="shared" ref="H2097" si="191">SUM(H2085:H2096)</f>
         <v>12</v>
       </c>
       <c r="I2097" s="14">
-        <f t="shared" ref="I2097" si="191">SUM(I2085:I2096)</f>
+        <f t="shared" ref="I2097" si="192">SUM(I2085:I2096)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2099" s="16">
+        <v>43689</v>
+      </c>
+      <c r="B2099" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2099" s="5">
+        <v>8295</v>
+      </c>
+      <c r="D2099" s="4"/>
+      <c r="E2099" s="4"/>
+      <c r="F2099" s="4"/>
+      <c r="G2099" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="H2099" s="4"/>
+      <c r="I2099" s="4"/>
+    </row>
+    <row r="2100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2100" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2100" s="5">
+        <v>8296</v>
+      </c>
+      <c r="D2100" s="4"/>
+      <c r="E2100" s="4"/>
+      <c r="F2100" s="4">
+        <v>5</v>
+      </c>
+      <c r="G2100" s="4"/>
+      <c r="H2100" s="4"/>
+      <c r="I2100" s="4"/>
+    </row>
+    <row r="2101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2101" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2101" s="5">
+        <v>8297</v>
+      </c>
+      <c r="D2101" s="4"/>
+      <c r="E2101" s="4"/>
+      <c r="F2101" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2101" s="4"/>
+      <c r="H2101" s="4"/>
+      <c r="I2101" s="4"/>
+    </row>
+    <row r="2102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2102" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2102" s="5">
+        <v>8298</v>
+      </c>
+      <c r="D2102" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2102" s="4"/>
+      <c r="F2102" s="4"/>
+      <c r="G2102" s="4"/>
+      <c r="H2102" s="4"/>
+      <c r="I2102" s="4"/>
+    </row>
+    <row r="2103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2103" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2103" s="5">
+        <v>8299</v>
+      </c>
+      <c r="D2103" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2103" s="4"/>
+      <c r="F2103" s="4"/>
+      <c r="G2103" s="4"/>
+      <c r="H2103" s="4"/>
+      <c r="I2103" s="4"/>
+    </row>
+    <row r="2104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2104" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2104" s="5">
+        <v>8300</v>
+      </c>
+      <c r="D2104" s="4"/>
+      <c r="E2104" s="4"/>
+      <c r="F2104" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G2104" s="4"/>
+      <c r="H2104" s="4"/>
+      <c r="I2104" s="4"/>
+    </row>
+    <row r="2105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2105" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2105" s="5">
+        <v>8101</v>
+      </c>
+      <c r="D2105" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2105" s="4"/>
+      <c r="F2105" s="4"/>
+      <c r="G2105" s="4"/>
+      <c r="H2105" s="4"/>
+      <c r="I2105" s="4"/>
+    </row>
+    <row r="2106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2106" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2106" s="5">
+        <v>8102</v>
+      </c>
+      <c r="D2106" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2106" s="4"/>
+      <c r="F2106" s="4"/>
+      <c r="G2106" s="4"/>
+      <c r="H2106" s="4"/>
+      <c r="I2106" s="4"/>
+    </row>
+    <row r="2107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2107" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2107" s="5">
+        <v>8103</v>
+      </c>
+      <c r="D2107" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2107" s="4"/>
+      <c r="F2107" s="4"/>
+      <c r="G2107" s="4"/>
+      <c r="H2107" s="4"/>
+      <c r="I2107" s="4"/>
+    </row>
+    <row r="2108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2108" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2108" s="5">
+        <v>8104</v>
+      </c>
+      <c r="D2108" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2108" s="4"/>
+      <c r="F2108" s="4"/>
+      <c r="G2108" s="4"/>
+      <c r="H2108" s="4"/>
+      <c r="I2108" s="4"/>
+    </row>
+    <row r="2109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2109" s="4">
+        <v>11</v>
+      </c>
+      <c r="C2109" s="5">
+        <v>8105</v>
+      </c>
+      <c r="D2109" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2109" s="4"/>
+      <c r="F2109" s="4"/>
+      <c r="G2109" s="4"/>
+      <c r="H2109" s="4"/>
+      <c r="I2109" s="4"/>
+    </row>
+    <row r="2110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2110" s="4">
+        <v>12</v>
+      </c>
+      <c r="C2110" s="5">
+        <v>8106</v>
+      </c>
+      <c r="D2110" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2110" s="4"/>
+      <c r="F2110" s="4"/>
+      <c r="G2110" s="4"/>
+      <c r="H2110" s="4"/>
+      <c r="I2110" s="4"/>
+    </row>
+    <row r="2111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2111" s="14">
+        <f>SUM(D2099:D2110)</f>
+        <v>60</v>
+      </c>
+      <c r="E2111" s="14">
+        <f t="shared" ref="E2111:I2111" si="193">SUM(E2099:E2110)</f>
+        <v>0</v>
+      </c>
+      <c r="F2111" s="14">
+        <f t="shared" si="193"/>
+        <v>14.5</v>
+      </c>
+      <c r="G2111" s="14">
+        <f t="shared" si="193"/>
+        <v>7.5</v>
+      </c>
+      <c r="H2111" s="14">
+        <f t="shared" si="193"/>
+        <v>0</v>
+      </c>
+      <c r="I2111" s="14">
+        <f t="shared" si="193"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2113" s="16">
+        <v>43690</v>
+      </c>
+      <c r="B2113" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2113" s="5">
+        <v>8107</v>
+      </c>
+      <c r="D2113" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="E2113" s="4"/>
+      <c r="F2113" s="4"/>
+      <c r="G2113" s="4"/>
+      <c r="H2113" s="4"/>
+      <c r="I2113" s="4"/>
+    </row>
+    <row r="2114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2114" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2114" s="5">
+        <v>8108</v>
+      </c>
+      <c r="D2114" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="E2114" s="4"/>
+      <c r="F2114" s="4"/>
+      <c r="G2114" s="4"/>
+      <c r="H2114" s="4"/>
+      <c r="I2114" s="4"/>
+    </row>
+    <row r="2115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2115" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2115" s="5">
+        <v>8109</v>
+      </c>
+      <c r="D2115" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2115" s="4"/>
+      <c r="F2115" s="4"/>
+      <c r="G2115" s="4"/>
+      <c r="H2115" s="4"/>
+      <c r="I2115" s="4"/>
+    </row>
+    <row r="2116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2116" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2116" s="5">
+        <v>8110</v>
+      </c>
+      <c r="D2116" s="4"/>
+      <c r="E2116" s="4"/>
+      <c r="F2116" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2116" s="4"/>
+      <c r="H2116" s="4"/>
+      <c r="I2116" s="4"/>
+    </row>
+    <row r="2117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2117" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2117" s="5">
+        <v>8111</v>
+      </c>
+      <c r="D2117" s="4"/>
+      <c r="E2117" s="4"/>
+      <c r="F2117" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G2117" s="4"/>
+      <c r="H2117" s="4"/>
+      <c r="I2117" s="4"/>
+    </row>
+    <row r="2118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2118" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2118" s="5">
+        <v>8112</v>
+      </c>
+      <c r="D2118" s="4"/>
+      <c r="E2118" s="4"/>
+      <c r="F2118" s="4"/>
+      <c r="G2118" s="4">
+        <v>6</v>
+      </c>
+      <c r="H2118" s="4"/>
+      <c r="I2118" s="4"/>
+    </row>
+    <row r="2119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2119" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2119" s="5">
+        <v>8113</v>
+      </c>
+      <c r="D2119" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2119" s="4"/>
+      <c r="F2119" s="4"/>
+      <c r="G2119" s="4"/>
+      <c r="H2119" s="4"/>
+      <c r="I2119" s="4"/>
+    </row>
+    <row r="2120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2120" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2120" s="5">
+        <v>8114</v>
+      </c>
+      <c r="D2120" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2120" s="4"/>
+      <c r="F2120" s="4"/>
+      <c r="G2120" s="4"/>
+      <c r="H2120" s="4"/>
+      <c r="I2120" s="4"/>
+    </row>
+    <row r="2121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2121" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2121" s="5">
+        <v>8115</v>
+      </c>
+      <c r="D2121" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2121" s="4"/>
+      <c r="F2121" s="4"/>
+      <c r="G2121" s="4"/>
+      <c r="H2121" s="4"/>
+      <c r="I2121" s="4"/>
+    </row>
+    <row r="2122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2122" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2122" s="5">
+        <v>8116</v>
+      </c>
+      <c r="D2122" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2122" s="4"/>
+      <c r="F2122" s="4"/>
+      <c r="G2122" s="4"/>
+      <c r="H2122" s="4"/>
+      <c r="I2122" s="4"/>
+    </row>
+    <row r="2123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2123" s="14">
+        <f>SUM(D2113:D2122)</f>
+        <v>50</v>
+      </c>
+      <c r="E2123" s="14">
+        <f>SUM(E2113:E2122)</f>
+        <v>0</v>
+      </c>
+      <c r="F2123" s="14">
+        <f>SUM(F2113:F2122)</f>
+        <v>12.5</v>
+      </c>
+      <c r="G2123" s="14">
+        <f>SUM(G2113:G2122)</f>
+        <v>6</v>
+      </c>
+      <c r="H2123" s="14">
+        <f>SUM(H2113:H2122)</f>
+        <v>0</v>
+      </c>
+      <c r="I2123" s="14">
+        <f>SUM(I2113:I2122)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2125" s="16">
+        <v>43691</v>
+      </c>
+      <c r="B2125" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2125" s="5">
+        <v>8117</v>
+      </c>
+      <c r="D2125" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2125" s="4"/>
+      <c r="F2125" s="4"/>
+      <c r="G2125" s="4"/>
+      <c r="H2125" s="4"/>
+      <c r="I2125" s="4"/>
+    </row>
+    <row r="2126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2126" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2126" s="5">
+        <v>8118</v>
+      </c>
+      <c r="D2126" s="4"/>
+      <c r="E2126" s="4"/>
+      <c r="F2126" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G2126" s="4"/>
+      <c r="H2126" s="4"/>
+      <c r="I2126" s="4"/>
+    </row>
+    <row r="2127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2127" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2127" s="5">
+        <v>8119</v>
+      </c>
+      <c r="D2127" s="4"/>
+      <c r="E2127" s="4"/>
+      <c r="F2127" s="4">
+        <v>7</v>
+      </c>
+      <c r="G2127" s="4"/>
+      <c r="H2127" s="4"/>
+      <c r="I2127" s="4"/>
+    </row>
+    <row r="2128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2128" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2128" s="5">
+        <v>8120</v>
+      </c>
+      <c r="D2128" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E2128" s="4"/>
+      <c r="F2128" s="4"/>
+      <c r="G2128" s="4"/>
+      <c r="H2128" s="4"/>
+      <c r="I2128" s="4"/>
+    </row>
+    <row r="2129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2129" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2129" s="5">
+        <v>8121</v>
+      </c>
+      <c r="D2129" s="4"/>
+      <c r="E2129" s="4"/>
+      <c r="F2129" s="4"/>
+      <c r="G2129" s="4"/>
+      <c r="H2129" s="4">
+        <v>7</v>
+      </c>
+      <c r="I2129" s="4"/>
+    </row>
+    <row r="2130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2130" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2130" s="5">
+        <v>8122</v>
+      </c>
+      <c r="D2130" s="4"/>
+      <c r="E2130" s="4"/>
+      <c r="F2130" s="4">
+        <v>7</v>
+      </c>
+      <c r="G2130" s="4"/>
+      <c r="H2130" s="4"/>
+      <c r="I2130" s="4"/>
+    </row>
+    <row r="2131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2131" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2131" s="5">
+        <v>8123</v>
+      </c>
+      <c r="D2131" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2131" s="4"/>
+      <c r="F2131" s="4"/>
+      <c r="G2131" s="4"/>
+      <c r="H2131" s="4"/>
+      <c r="I2131" s="4"/>
+    </row>
+    <row r="2132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2132" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2132" s="5">
+        <v>8124</v>
+      </c>
+      <c r="D2132" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2132" s="4"/>
+      <c r="F2132" s="4"/>
+      <c r="G2132" s="4"/>
+      <c r="H2132" s="4"/>
+      <c r="I2132" s="4"/>
+    </row>
+    <row r="2133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2133" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2133" s="5">
+        <v>8125</v>
+      </c>
+      <c r="D2133" s="4"/>
+      <c r="E2133" s="4"/>
+      <c r="F2133" s="4">
+        <v>7</v>
+      </c>
+      <c r="G2133" s="4"/>
+      <c r="H2133" s="4"/>
+      <c r="I2133" s="4"/>
+    </row>
+    <row r="2134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2134" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2134" s="5">
+        <v>8126</v>
+      </c>
+      <c r="D2134" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2134" s="4"/>
+      <c r="F2134" s="4"/>
+      <c r="G2134" s="4"/>
+      <c r="H2134" s="4"/>
+      <c r="I2134" s="4"/>
+    </row>
+    <row r="2135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2135" s="4">
+        <v>11</v>
+      </c>
+      <c r="C2135" s="5">
+        <v>8127</v>
+      </c>
+      <c r="D2135" s="4"/>
+      <c r="E2135" s="4"/>
+      <c r="F2135" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G2135" s="4"/>
+      <c r="H2135" s="4"/>
+      <c r="I2135" s="4"/>
+    </row>
+    <row r="2136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2136" s="4">
+        <v>12</v>
+      </c>
+      <c r="C2136" s="5">
+        <v>8128</v>
+      </c>
+      <c r="D2136" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2136" s="4"/>
+      <c r="F2136" s="4"/>
+      <c r="G2136" s="4"/>
+      <c r="H2136" s="4"/>
+      <c r="I2136" s="4"/>
+    </row>
+    <row r="2137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2137" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2137" s="5">
+        <v>8129</v>
+      </c>
+      <c r="D2137" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2137" s="4"/>
+      <c r="F2137" s="4"/>
+      <c r="G2137" s="4"/>
+      <c r="H2137" s="4"/>
+      <c r="I2137" s="4"/>
+    </row>
+    <row r="2138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2138" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2138" s="5">
+        <v>8130</v>
+      </c>
+      <c r="D2138" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2138" s="4"/>
+      <c r="F2138" s="4"/>
+      <c r="G2138" s="4"/>
+      <c r="H2138" s="4"/>
+      <c r="I2138" s="4"/>
+    </row>
+    <row r="2139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2139" s="4">
+        <v>15</v>
+      </c>
+      <c r="C2139" s="5">
+        <v>8131</v>
+      </c>
+      <c r="D2139" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2139" s="4"/>
+      <c r="F2139" s="4"/>
+      <c r="G2139" s="4"/>
+      <c r="H2139" s="4"/>
+      <c r="I2139" s="4"/>
+    </row>
+    <row r="2140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2140" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2140" s="14">
+        <f>SUM(D2125:D2139)</f>
+        <v>67.5</v>
+      </c>
+      <c r="E2140" s="14">
+        <f t="shared" ref="E2140:I2140" si="194">SUM(E2125:E2139)</f>
+        <v>0</v>
+      </c>
+      <c r="F2140" s="14">
+        <f t="shared" si="194"/>
+        <v>33</v>
+      </c>
+      <c r="G2140" s="14">
+        <f t="shared" si="194"/>
+        <v>0</v>
+      </c>
+      <c r="H2140" s="14">
+        <f t="shared" si="194"/>
+        <v>7</v>
+      </c>
+      <c r="I2140" s="14">
+        <f t="shared" si="194"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2142" s="16">
+        <v>43692</v>
+      </c>
+      <c r="B2142" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2142" s="5">
+        <v>8132</v>
+      </c>
+      <c r="D2142" s="4"/>
+      <c r="E2142" s="4"/>
+      <c r="F2142" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G2142" s="4"/>
+      <c r="H2142" s="4"/>
+      <c r="I2142" s="4"/>
+    </row>
+    <row r="2143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2143" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2143" s="5">
+        <v>8133</v>
+      </c>
+      <c r="D2143" s="4"/>
+      <c r="E2143" s="4"/>
+      <c r="F2143" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G2143" s="4"/>
+      <c r="H2143" s="4"/>
+      <c r="I2143" s="4"/>
+    </row>
+    <row r="2144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2144" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2144" s="5">
+        <v>8134</v>
+      </c>
+      <c r="D2144" s="4"/>
+      <c r="E2144" s="4"/>
+      <c r="F2144" s="4"/>
+      <c r="G2144" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2144" s="4"/>
+      <c r="I2144" s="4"/>
+    </row>
+    <row r="2145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2145" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2145" s="5">
+        <v>8135</v>
+      </c>
+      <c r="D2145" s="4"/>
+      <c r="E2145" s="4"/>
+      <c r="F2145" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2145" s="4"/>
+      <c r="H2145" s="4"/>
+      <c r="I2145" s="4"/>
+    </row>
+    <row r="2146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2146" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2146" s="5">
+        <v>8136</v>
+      </c>
+      <c r="D2146" s="4"/>
+      <c r="E2146" s="4"/>
+      <c r="F2146" s="4">
+        <v>7</v>
+      </c>
+      <c r="G2146" s="4"/>
+      <c r="H2146" s="4"/>
+      <c r="I2146" s="4"/>
+    </row>
+    <row r="2147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2147" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2147" s="5">
+        <v>8137</v>
+      </c>
+      <c r="D2147" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2147" s="4"/>
+      <c r="F2147" s="4"/>
+      <c r="G2147" s="4"/>
+      <c r="H2147" s="4"/>
+      <c r="I2147" s="4"/>
+    </row>
+    <row r="2148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2148" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2148" s="5">
+        <v>8138</v>
+      </c>
+      <c r="D2148" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2148" s="4"/>
+      <c r="F2148" s="4"/>
+      <c r="G2148" s="4"/>
+      <c r="H2148" s="4"/>
+      <c r="I2148" s="4"/>
+    </row>
+    <row r="2149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2149" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2149" s="5">
+        <v>8139</v>
+      </c>
+      <c r="D2149" s="4"/>
+      <c r="E2149" s="4"/>
+      <c r="F2149" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2149" s="4"/>
+      <c r="H2149" s="4"/>
+      <c r="I2149" s="4"/>
+    </row>
+    <row r="2150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2150" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2150" s="5">
+        <v>8140</v>
+      </c>
+      <c r="D2150" s="4"/>
+      <c r="E2150" s="4"/>
+      <c r="F2150" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2150" s="4"/>
+      <c r="H2150" s="4"/>
+      <c r="I2150" s="4"/>
+    </row>
+    <row r="2151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2151" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2151" s="5">
+        <v>8141</v>
+      </c>
+      <c r="D2151" s="4">
+        <v>6</v>
+      </c>
+      <c r="E2151" s="4"/>
+      <c r="F2151" s="4"/>
+      <c r="G2151" s="4"/>
+      <c r="H2151" s="4"/>
+      <c r="I2151" s="4"/>
+    </row>
+    <row r="2152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2152" s="4">
+        <v>11</v>
+      </c>
+      <c r="C2152" s="5">
+        <v>8142</v>
+      </c>
+      <c r="D2152" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2152" s="4"/>
+      <c r="F2152" s="4"/>
+      <c r="G2152" s="4"/>
+      <c r="H2152" s="4"/>
+      <c r="I2152" s="4"/>
+    </row>
+    <row r="2153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2153" s="4">
+        <v>12</v>
+      </c>
+      <c r="C2153" s="5">
+        <v>8143</v>
+      </c>
+      <c r="D2153" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2153" s="4"/>
+      <c r="F2153" s="4"/>
+      <c r="G2153" s="4"/>
+      <c r="H2153" s="4"/>
+      <c r="I2153" s="4"/>
+    </row>
+    <row r="2154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2154" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2154" s="5">
+        <v>8144</v>
+      </c>
+      <c r="D2154" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2154" s="4"/>
+      <c r="F2154" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2154" s="4"/>
+      <c r="H2154" s="4"/>
+      <c r="I2154" s="4"/>
+    </row>
+    <row r="2155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2155" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2155" s="14">
+        <f>SUM(D2142:D2154)</f>
+        <v>42</v>
+      </c>
+      <c r="E2155" s="14">
+        <f>SUM(E2142:E2154)</f>
+        <v>0</v>
+      </c>
+      <c r="F2155" s="14">
+        <f>SUM(F2142:F2154)</f>
+        <v>33</v>
+      </c>
+      <c r="G2155" s="14">
+        <f>SUM(G2142:G2154)</f>
+        <v>5</v>
+      </c>
+      <c r="H2155" s="14">
+        <f>SUM(H2142:H2154)</f>
+        <v>0</v>
+      </c>
+      <c r="I2155" s="14">
+        <f>SUM(I2142:I2154)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2157" s="16">
+        <v>43693</v>
+      </c>
+      <c r="B2157" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2157" s="5">
+        <v>8145</v>
+      </c>
+      <c r="D2157" s="4"/>
+      <c r="E2157" s="4"/>
+      <c r="F2157" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2157" s="4"/>
+      <c r="H2157" s="4"/>
+      <c r="I2157" s="4"/>
+    </row>
+    <row r="2158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2158" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2158" s="5">
+        <v>8146</v>
+      </c>
+      <c r="D2158" s="4"/>
+      <c r="E2158" s="4"/>
+      <c r="F2158" s="4">
+        <v>5</v>
+      </c>
+      <c r="G2158" s="4"/>
+      <c r="H2158" s="4"/>
+      <c r="I2158" s="4"/>
+    </row>
+    <row r="2159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2159" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2159" s="5">
+        <v>8147</v>
+      </c>
+      <c r="D2159" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2159" s="4"/>
+      <c r="F2159" s="4"/>
+      <c r="G2159" s="4"/>
+      <c r="H2159" s="4"/>
+      <c r="I2159" s="4"/>
+    </row>
+    <row r="2160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2160" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2160" s="5">
+        <v>8148</v>
+      </c>
+      <c r="D2160" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2160" s="4"/>
+      <c r="F2160" s="4"/>
+      <c r="G2160" s="4"/>
+      <c r="H2160" s="4"/>
+      <c r="I2160" s="4"/>
+    </row>
+    <row r="2161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2161" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2161" s="5">
+        <v>8149</v>
+      </c>
+      <c r="D2161" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2161" s="4"/>
+      <c r="F2161" s="4"/>
+      <c r="G2161" s="4"/>
+      <c r="H2161" s="4"/>
+      <c r="I2161" s="4"/>
+    </row>
+    <row r="2162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2162" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2162" s="5">
+        <v>8150</v>
+      </c>
+      <c r="D2162" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2162" s="4"/>
+      <c r="F2162" s="4"/>
+      <c r="G2162" s="4"/>
+      <c r="H2162" s="4"/>
+      <c r="I2162" s="4"/>
+    </row>
+    <row r="2163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2163" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2163" s="5">
+        <v>8001</v>
+      </c>
+      <c r="D2163" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2163" s="4"/>
+      <c r="F2163" s="4"/>
+      <c r="G2163" s="4"/>
+      <c r="H2163" s="4"/>
+      <c r="I2163" s="4"/>
+    </row>
+    <row r="2164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2164" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2164" s="5">
+        <v>8002</v>
+      </c>
+      <c r="D2164" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2164" s="4"/>
+      <c r="F2164" s="4"/>
+      <c r="G2164" s="4"/>
+      <c r="H2164" s="4"/>
+      <c r="I2164" s="4"/>
+    </row>
+    <row r="2165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2165" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2165" s="5">
+        <v>8003</v>
+      </c>
+      <c r="D2165" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2165" s="4"/>
+      <c r="F2165" s="4"/>
+      <c r="G2165" s="4"/>
+      <c r="H2165" s="4"/>
+      <c r="I2165" s="4"/>
+    </row>
+    <row r="2166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2166" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2166" s="5">
+        <v>8004</v>
+      </c>
+      <c r="D2166" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2166" s="4"/>
+      <c r="F2166" s="4"/>
+      <c r="G2166" s="4"/>
+      <c r="H2166" s="4"/>
+      <c r="I2166" s="4"/>
+    </row>
+    <row r="2167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2167" s="4">
+        <v>11</v>
+      </c>
+      <c r="C2167" s="5">
+        <v>8005</v>
+      </c>
+      <c r="D2167" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2167" s="4"/>
+      <c r="F2167" s="4"/>
+      <c r="G2167" s="4"/>
+      <c r="H2167" s="4"/>
+      <c r="I2167" s="4"/>
+    </row>
+    <row r="2168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2168" s="4">
+        <v>12</v>
+      </c>
+      <c r="C2168" s="5">
+        <v>8006</v>
+      </c>
+      <c r="D2168" s="4"/>
+      <c r="E2168" s="4"/>
+      <c r="F2168" s="4"/>
+      <c r="G2168" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="H2168" s="4"/>
+      <c r="I2168" s="4"/>
+    </row>
+    <row r="2169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2169" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2169" s="5">
+        <v>8007</v>
+      </c>
+      <c r="D2169" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2169" s="4"/>
+      <c r="F2169" s="4"/>
+      <c r="G2169" s="4"/>
+      <c r="H2169" s="4"/>
+      <c r="I2169" s="4"/>
+    </row>
+    <row r="2170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2170" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2170" s="5">
+        <v>8008</v>
+      </c>
+      <c r="D2170" s="4"/>
+      <c r="E2170" s="4"/>
+      <c r="F2170" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G2170" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2170" s="4"/>
+      <c r="I2170" s="4"/>
+    </row>
+    <row r="2171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2171" s="4">
+        <v>15</v>
+      </c>
+      <c r="C2171" s="5">
+        <v>8009</v>
+      </c>
+      <c r="D2171" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2171" s="4"/>
+      <c r="F2171" s="4"/>
+      <c r="G2171" s="4"/>
+      <c r="H2171" s="4"/>
+      <c r="I2171" s="4"/>
+    </row>
+    <row r="2172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2172" s="4">
+        <v>16</v>
+      </c>
+      <c r="C2172" s="5">
+        <v>8010</v>
+      </c>
+      <c r="D2172" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2172" s="4"/>
+      <c r="F2172" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G2172" s="4"/>
+      <c r="H2172" s="4"/>
+      <c r="I2172" s="4"/>
+    </row>
+    <row r="2173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2173" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2173" s="14">
+        <f>SUM(D2157:D2172)</f>
+        <v>90</v>
+      </c>
+      <c r="E2173" s="14">
+        <f t="shared" ref="E2173:I2173" si="195">SUM(E2157:E2172)</f>
+        <v>0</v>
+      </c>
+      <c r="F2173" s="14">
+        <f t="shared" si="195"/>
+        <v>17</v>
+      </c>
+      <c r="G2173" s="14">
+        <f t="shared" si="195"/>
+        <v>7.5</v>
+      </c>
+      <c r="H2173" s="14">
+        <f t="shared" si="195"/>
+        <v>0</v>
+      </c>
+      <c r="I2173" s="14">
+        <f t="shared" si="195"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2175" s="16">
+        <v>43696</v>
+      </c>
+      <c r="B2175" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2175" s="5">
+        <v>8011</v>
+      </c>
+      <c r="D2175" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2175" s="4"/>
+      <c r="F2175" s="4"/>
+      <c r="G2175" s="4"/>
+      <c r="H2175" s="4"/>
+      <c r="I2175" s="4"/>
+    </row>
+    <row r="2176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2176" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2176" s="5">
+        <v>8012</v>
+      </c>
+      <c r="D2176" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2176" s="4"/>
+      <c r="F2176" s="4"/>
+      <c r="G2176" s="4"/>
+      <c r="H2176" s="4"/>
+      <c r="I2176" s="4"/>
+    </row>
+    <row r="2177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2177" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2177" s="5">
+        <v>8013</v>
+      </c>
+      <c r="D2177" s="4"/>
+      <c r="E2177" s="4"/>
+      <c r="F2177" s="4">
+        <v>5</v>
+      </c>
+      <c r="G2177" s="4"/>
+      <c r="H2177" s="4"/>
+      <c r="I2177" s="4"/>
+    </row>
+    <row r="2178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2178" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2178" s="5">
+        <v>8014</v>
+      </c>
+      <c r="D2178" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="E2178" s="4"/>
+      <c r="F2178" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2178" s="4"/>
+      <c r="H2178" s="4"/>
+      <c r="I2178" s="4"/>
+    </row>
+    <row r="2179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2179" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2179" s="5">
+        <v>8015</v>
+      </c>
+      <c r="D2179" s="4"/>
+      <c r="E2179" s="4"/>
+      <c r="F2179" s="4"/>
+      <c r="G2179" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="H2179" s="4"/>
+      <c r="I2179" s="4"/>
+    </row>
+    <row r="2180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2180" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2180" s="5">
+        <v>8016</v>
+      </c>
+      <c r="D2180" s="4"/>
+      <c r="E2180" s="4"/>
+      <c r="F2180" s="4">
+        <v>5</v>
+      </c>
+      <c r="G2180" s="4"/>
+      <c r="H2180" s="4"/>
+      <c r="I2180" s="4"/>
+    </row>
+    <row r="2181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2181" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2181" s="5">
+        <v>8017</v>
+      </c>
+      <c r="D2181" s="4"/>
+      <c r="E2181" s="4"/>
+      <c r="F2181" s="4"/>
+      <c r="G2181" s="4"/>
+      <c r="H2181" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="I2181" s="4"/>
+    </row>
+    <row r="2182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2182" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2182" s="14">
+        <f>SUM(D2175:D2181)</f>
+        <v>18.5</v>
+      </c>
+      <c r="E2182" s="14">
+        <f>SUM(E2175:E2181)</f>
+        <v>0</v>
+      </c>
+      <c r="F2182" s="14">
+        <f>SUM(F2175:F2181)</f>
+        <v>14</v>
+      </c>
+      <c r="G2182" s="14">
+        <f>SUM(G2175:G2181)</f>
+        <v>3.5</v>
+      </c>
+      <c r="H2182" s="14">
+        <f>SUM(H2175:H2181)</f>
+        <v>6.5</v>
+      </c>
+      <c r="I2182" s="14">
+        <f>SUM(I2175:I2181)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2184" s="16">
+        <v>43697</v>
+      </c>
+      <c r="B2184" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2184" s="5">
+        <v>8018</v>
+      </c>
+      <c r="D2184" s="4"/>
+      <c r="E2184" s="4"/>
+      <c r="F2184" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2184" s="4"/>
+      <c r="H2184" s="4"/>
+      <c r="I2184" s="4"/>
+    </row>
+    <row r="2185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2185" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2185" s="5">
+        <v>8019</v>
+      </c>
+      <c r="D2185" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2185" s="4"/>
+      <c r="F2185" s="4"/>
+      <c r="G2185" s="4"/>
+      <c r="H2185" s="4"/>
+      <c r="I2185" s="4"/>
+    </row>
+    <row r="2186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2186" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2186" s="5">
+        <v>8020</v>
+      </c>
+      <c r="D2186" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2186" s="4"/>
+      <c r="F2186" s="4"/>
+      <c r="G2186" s="4"/>
+      <c r="H2186" s="4"/>
+      <c r="I2186" s="4"/>
+    </row>
+    <row r="2187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2187" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2187" s="5">
+        <v>8021</v>
+      </c>
+      <c r="D2187" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2187" s="4"/>
+      <c r="F2187" s="4"/>
+      <c r="G2187" s="4"/>
+      <c r="H2187" s="4"/>
+      <c r="I2187" s="4"/>
+    </row>
+    <row r="2188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2188" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2188" s="5">
+        <v>8022</v>
+      </c>
+      <c r="D2188" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2188" s="4"/>
+      <c r="F2188" s="4"/>
+      <c r="G2188" s="4"/>
+      <c r="H2188" s="4"/>
+      <c r="I2188" s="4"/>
+    </row>
+    <row r="2189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2189" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2189" s="5">
+        <v>8023</v>
+      </c>
+      <c r="D2189" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2189" s="4"/>
+      <c r="F2189" s="4"/>
+      <c r="G2189" s="4"/>
+      <c r="H2189" s="4"/>
+      <c r="I2189" s="4"/>
+    </row>
+    <row r="2190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2190" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2190" s="5">
+        <v>8024</v>
+      </c>
+      <c r="D2190" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2190" s="4"/>
+      <c r="F2190" s="4"/>
+      <c r="G2190" s="4"/>
+      <c r="H2190" s="4"/>
+      <c r="I2190" s="4"/>
+    </row>
+    <row r="2191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2191" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2191" s="5">
+        <v>8025</v>
+      </c>
+      <c r="D2191" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2191" s="4"/>
+      <c r="F2191" s="4"/>
+      <c r="G2191" s="4"/>
+      <c r="H2191" s="4"/>
+      <c r="I2191" s="4"/>
+    </row>
+    <row r="2192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2192" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2192" s="5">
+        <v>8026</v>
+      </c>
+      <c r="D2192" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2192" s="4"/>
+      <c r="F2192" s="4"/>
+      <c r="G2192" s="4"/>
+      <c r="H2192" s="4"/>
+      <c r="I2192" s="4"/>
+    </row>
+    <row r="2193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2193" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2193" s="5">
+        <v>8027</v>
+      </c>
+      <c r="D2193" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2193" s="4"/>
+      <c r="F2193" s="4"/>
+      <c r="G2193" s="4"/>
+      <c r="H2193" s="4"/>
+      <c r="I2193" s="4"/>
+    </row>
+    <row r="2194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2194" s="4">
+        <v>11</v>
+      </c>
+      <c r="C2194" s="5">
+        <v>8028</v>
+      </c>
+      <c r="D2194" s="4"/>
+      <c r="E2194" s="4"/>
+      <c r="F2194" s="4"/>
+      <c r="G2194" s="4">
+        <v>10</v>
+      </c>
+      <c r="H2194" s="4"/>
+      <c r="I2194" s="4"/>
+    </row>
+    <row r="2195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2195" s="4">
+        <v>12</v>
+      </c>
+      <c r="C2195" s="5">
+        <v>8029</v>
+      </c>
+      <c r="D2195" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2195" s="4"/>
+      <c r="F2195" s="4"/>
+      <c r="G2195" s="4"/>
+      <c r="H2195" s="4"/>
+      <c r="I2195" s="4"/>
+    </row>
+    <row r="2196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2196" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2196" s="5">
+        <v>8030</v>
+      </c>
+      <c r="D2196" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2196" s="4"/>
+      <c r="F2196" s="4"/>
+      <c r="G2196" s="4"/>
+      <c r="H2196" s="4"/>
+      <c r="I2196" s="4"/>
+    </row>
+    <row r="2197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2197" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2197" s="5">
+        <v>8031</v>
+      </c>
+      <c r="D2197" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2197" s="4"/>
+      <c r="F2197" s="4"/>
+      <c r="G2197" s="4"/>
+      <c r="H2197" s="4"/>
+      <c r="I2197" s="4"/>
+    </row>
+    <row r="2198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2198" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2198" s="14">
+        <f>SUM(D2184:D2197)</f>
+        <v>96</v>
+      </c>
+      <c r="E2198" s="14">
+        <f>SUM(E2184:E2197)</f>
+        <v>0</v>
+      </c>
+      <c r="F2198" s="14">
+        <f>SUM(F2184:F2197)</f>
+        <v>6</v>
+      </c>
+      <c r="G2198" s="14">
+        <f>SUM(G2184:G2197)</f>
+        <v>10</v>
+      </c>
+      <c r="H2198" s="14">
+        <f>SUM(H2184:H2197)</f>
+        <v>0</v>
+      </c>
+      <c r="I2198" s="14">
+        <f>SUM(I2184:I2197)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2200" s="16">
+        <v>43698</v>
+      </c>
+      <c r="B2200" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2200" s="5">
+        <v>8032</v>
+      </c>
+      <c r="D2200" s="4"/>
+      <c r="E2200" s="4"/>
+      <c r="F2200" s="4">
+        <v>8</v>
+      </c>
+      <c r="G2200" s="4"/>
+      <c r="H2200" s="4"/>
+      <c r="I2200" s="4"/>
+    </row>
+    <row r="2201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2201" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2201" s="5">
+        <v>8033</v>
+      </c>
+      <c r="D2201" s="4"/>
+      <c r="E2201" s="4"/>
+      <c r="F2201" s="4"/>
+      <c r="G2201" s="4">
+        <v>6</v>
+      </c>
+      <c r="H2201" s="4"/>
+      <c r="I2201" s="4"/>
+    </row>
+    <row r="2202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2202" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2202" s="5">
+        <v>8034</v>
+      </c>
+      <c r="D2202" s="4"/>
+      <c r="E2202" s="4"/>
+      <c r="F2202" s="4"/>
+      <c r="G2202" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="H2202" s="4"/>
+      <c r="I2202" s="4"/>
+    </row>
+    <row r="2203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2203" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2203" s="5">
+        <v>8035</v>
+      </c>
+      <c r="D2203" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2203" s="4"/>
+      <c r="F2203" s="4"/>
+      <c r="G2203" s="4"/>
+      <c r="H2203" s="4"/>
+      <c r="I2203" s="4"/>
+    </row>
+    <row r="2204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2204" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2204" s="5">
+        <v>8036</v>
+      </c>
+      <c r="D2204" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2204" s="4"/>
+      <c r="F2204" s="4"/>
+      <c r="G2204" s="4"/>
+      <c r="H2204" s="4"/>
+      <c r="I2204" s="4"/>
+    </row>
+    <row r="2205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2205" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2205" s="5">
+        <v>8037</v>
+      </c>
+      <c r="D2205" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2205" s="4"/>
+      <c r="F2205" s="4"/>
+      <c r="G2205" s="4"/>
+      <c r="H2205" s="4"/>
+      <c r="I2205" s="4"/>
+    </row>
+    <row r="2206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2206" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2206" s="5">
+        <v>8038</v>
+      </c>
+      <c r="D2206" s="4"/>
+      <c r="E2206" s="4"/>
+      <c r="F2206" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G2206" s="4"/>
+      <c r="H2206" s="4"/>
+      <c r="I2206" s="4"/>
+    </row>
+    <row r="2207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2207" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2207" s="5">
+        <v>8039</v>
+      </c>
+      <c r="D2207" s="4"/>
+      <c r="E2207" s="4"/>
+      <c r="F2207" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G2207" s="4"/>
+      <c r="H2207" s="4"/>
+      <c r="I2207" s="4"/>
+    </row>
+    <row r="2208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2208" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2208" s="5">
+        <v>8040</v>
+      </c>
+      <c r="D2208" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2208" s="4"/>
+      <c r="F2208" s="4"/>
+      <c r="G2208" s="4"/>
+      <c r="H2208" s="4"/>
+      <c r="I2208" s="4"/>
+    </row>
+    <row r="2209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2209" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2209" s="5">
+        <v>8041</v>
+      </c>
+      <c r="D2209" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2209" s="4"/>
+      <c r="F2209" s="4"/>
+      <c r="G2209" s="4"/>
+      <c r="H2209" s="4"/>
+      <c r="I2209" s="4"/>
+    </row>
+    <row r="2210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2210" s="4">
+        <v>11</v>
+      </c>
+      <c r="C2210" s="5">
+        <v>8042</v>
+      </c>
+      <c r="D2210" s="4"/>
+      <c r="E2210" s="4"/>
+      <c r="F2210" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2210" s="4"/>
+      <c r="H2210" s="4"/>
+      <c r="I2210" s="4"/>
+    </row>
+    <row r="2211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2211" s="4">
+        <v>12</v>
+      </c>
+      <c r="C2211" s="5">
+        <v>8043</v>
+      </c>
+      <c r="D2211" s="4"/>
+      <c r="E2211" s="4"/>
+      <c r="F2211" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2211" s="4"/>
+      <c r="H2211" s="4"/>
+      <c r="I2211" s="4"/>
+    </row>
+    <row r="2212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2212" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2212" s="5">
+        <v>8044</v>
+      </c>
+      <c r="D2212" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2212" s="4"/>
+      <c r="F2212" s="4"/>
+      <c r="G2212" s="4"/>
+      <c r="H2212" s="4"/>
+      <c r="I2212" s="4"/>
+    </row>
+    <row r="2213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2213" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2213" s="5">
+        <v>8045</v>
+      </c>
+      <c r="D2213" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2213" s="4"/>
+      <c r="F2213" s="4"/>
+      <c r="G2213" s="4"/>
+      <c r="H2213" s="4"/>
+      <c r="I2213" s="4"/>
+    </row>
+    <row r="2214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2214" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2214" s="14">
+        <f>SUM(D2200:D2213)</f>
+        <v>56</v>
+      </c>
+      <c r="E2214" s="14">
+        <f>SUM(E2200:E2213)</f>
+        <v>0</v>
+      </c>
+      <c r="F2214" s="14">
+        <f>SUM(F2200:F2213)</f>
+        <v>29</v>
+      </c>
+      <c r="G2214" s="14">
+        <f>SUM(G2200:G2213)</f>
+        <v>10.5</v>
+      </c>
+      <c r="H2214" s="14">
+        <f>SUM(H2200:H2213)</f>
+        <v>0</v>
+      </c>
+      <c r="I2214" s="14">
+        <f>SUM(I2200:I2213)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2216" s="16">
+        <v>43699</v>
+      </c>
+      <c r="B2216" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2216" s="5">
+        <v>8046</v>
+      </c>
+      <c r="D2216" s="4"/>
+      <c r="E2216" s="4"/>
+      <c r="F2216" s="4">
+        <v>16</v>
+      </c>
+      <c r="G2216" s="4"/>
+      <c r="H2216" s="4"/>
+      <c r="I2216" s="4"/>
+    </row>
+    <row r="2217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2217" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2217" s="5">
+        <v>8047</v>
+      </c>
+      <c r="D2217" s="4"/>
+      <c r="E2217" s="4"/>
+      <c r="F2217" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2217" s="4"/>
+      <c r="H2217" s="4"/>
+      <c r="I2217" s="4"/>
+    </row>
+    <row r="2218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2218" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2218" s="5">
+        <v>8048</v>
+      </c>
+      <c r="D2218" s="4"/>
+      <c r="E2218" s="4"/>
+      <c r="F2218" s="4"/>
+      <c r="G2218" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2218" s="4"/>
+      <c r="I2218" s="4"/>
+    </row>
+    <row r="2219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2219" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2219" s="5">
+        <v>8049</v>
+      </c>
+      <c r="D2219" s="4"/>
+      <c r="E2219" s="4"/>
+      <c r="F2219" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2219" s="4"/>
+      <c r="H2219" s="4"/>
+      <c r="I2219" s="4"/>
+    </row>
+    <row r="2220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2220" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2220" s="5">
+        <v>8050</v>
+      </c>
+      <c r="D2220" s="4">
+        <v>24</v>
+      </c>
+      <c r="E2220" s="4"/>
+      <c r="F2220" s="4"/>
+      <c r="G2220" s="4"/>
+      <c r="H2220" s="4"/>
+      <c r="I2220" s="4"/>
+    </row>
+    <row r="2221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2221" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2221" s="5">
+        <v>8051</v>
+      </c>
+      <c r="D2221" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2221" s="4"/>
+      <c r="F2221" s="4"/>
+      <c r="G2221" s="4"/>
+      <c r="H2221" s="4"/>
+      <c r="I2221" s="4"/>
+    </row>
+    <row r="2222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2222" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2222" s="5">
+        <v>8052</v>
+      </c>
+      <c r="D2222" s="4"/>
+      <c r="E2222" s="4"/>
+      <c r="F2222" s="4"/>
+      <c r="G2222" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2222" s="4"/>
+      <c r="I2222" s="4"/>
+    </row>
+    <row r="2223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2223" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2223" s="5">
+        <v>8053</v>
+      </c>
+      <c r="D2223" s="4"/>
+      <c r="E2223" s="4"/>
+      <c r="F2223" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2223" s="4"/>
+      <c r="H2223" s="4"/>
+      <c r="I2223" s="4"/>
+    </row>
+    <row r="2224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2224" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2224" s="5">
+        <v>8055</v>
+      </c>
+      <c r="D2224" s="4"/>
+      <c r="E2224" s="4"/>
+      <c r="F2224" s="4">
+        <v>8</v>
+      </c>
+      <c r="G2224" s="4"/>
+      <c r="H2224" s="4"/>
+      <c r="I2224" s="4"/>
+    </row>
+    <row r="2225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2225" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2225" s="5">
+        <v>8056</v>
+      </c>
+      <c r="D2225" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2225" s="4"/>
+      <c r="F2225" s="4"/>
+      <c r="G2225" s="4"/>
+      <c r="H2225" s="4"/>
+      <c r="I2225" s="4"/>
+    </row>
+    <row r="2226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2226" s="4">
+        <v>11</v>
+      </c>
+      <c r="C2226" s="5">
+        <v>8057</v>
+      </c>
+      <c r="D2226" s="4"/>
+      <c r="E2226" s="4"/>
+      <c r="F2226" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2226" s="4"/>
+      <c r="H2226" s="4"/>
+      <c r="I2226" s="4"/>
+    </row>
+    <row r="2227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2227" s="4">
+        <v>12</v>
+      </c>
+      <c r="C2227" s="5">
+        <v>8058</v>
+      </c>
+      <c r="D2227" s="4"/>
+      <c r="E2227" s="4"/>
+      <c r="F2227" s="4"/>
+      <c r="G2227" s="4">
+        <v>7</v>
+      </c>
+      <c r="H2227" s="4"/>
+      <c r="I2227" s="4"/>
+    </row>
+    <row r="2228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2228" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2228" s="5">
+        <v>8054</v>
+      </c>
+      <c r="D2228" s="4"/>
+      <c r="E2228" s="4"/>
+      <c r="F2228" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2228" s="4"/>
+      <c r="H2228" s="4"/>
+      <c r="I2228" s="4"/>
+    </row>
+    <row r="2229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2229" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2229" s="5">
+        <v>8059</v>
+      </c>
+      <c r="D2229" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2229" s="4"/>
+      <c r="F2229" s="4"/>
+      <c r="G2229" s="4"/>
+      <c r="H2229" s="4"/>
+      <c r="I2229" s="4"/>
+    </row>
+    <row r="2230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2230" s="4">
+        <v>15</v>
+      </c>
+      <c r="C2230" s="5">
+        <v>8060</v>
+      </c>
+      <c r="D2230" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2230" s="4"/>
+      <c r="F2230" s="4"/>
+      <c r="G2230" s="4"/>
+      <c r="H2230" s="4"/>
+      <c r="I2230" s="4"/>
+    </row>
+    <row r="2231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2231" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2231" s="14">
+        <f>SUM(D2216:D2230)</f>
+        <v>56</v>
+      </c>
+      <c r="E2231" s="14">
+        <f t="shared" ref="E2231:I2231" si="196">SUM(E2216:E2230)</f>
+        <v>0</v>
+      </c>
+      <c r="F2231" s="14">
+        <f t="shared" si="196"/>
+        <v>49</v>
+      </c>
+      <c r="G2231" s="14">
+        <f t="shared" si="196"/>
+        <v>17</v>
+      </c>
+      <c r="H2231" s="14">
+        <f t="shared" si="196"/>
+        <v>0</v>
+      </c>
+      <c r="I2231" s="14">
+        <f t="shared" si="196"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2233" s="16">
+        <v>43700</v>
+      </c>
+      <c r="B2233" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2233" s="5">
+        <v>8061</v>
+      </c>
+      <c r="D2233" s="4"/>
+      <c r="E2233" s="4"/>
+      <c r="F2233" s="4"/>
+      <c r="G2233" s="4"/>
+      <c r="H2233" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2233" s="4"/>
+    </row>
+    <row r="2234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2234" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2234" s="5">
+        <v>8062</v>
+      </c>
+      <c r="D2234" s="4"/>
+      <c r="E2234" s="4"/>
+      <c r="F2234" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2234" s="4"/>
+      <c r="H2234" s="4"/>
+      <c r="I2234" s="4"/>
+    </row>
+    <row r="2235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2235" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2235" s="5">
+        <v>8063</v>
+      </c>
+      <c r="D2235" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2235" s="4"/>
+      <c r="F2235" s="4"/>
+      <c r="G2235" s="4"/>
+      <c r="H2235" s="4"/>
+      <c r="I2235" s="4"/>
+    </row>
+    <row r="2236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2236" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2236" s="5">
+        <v>8064</v>
+      </c>
+      <c r="D2236" s="4">
+        <v>16</v>
+      </c>
+      <c r="E2236" s="4"/>
+      <c r="F2236" s="4"/>
+      <c r="G2236" s="4"/>
+      <c r="H2236" s="4"/>
+      <c r="I2236" s="4"/>
+    </row>
+    <row r="2237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2237" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2237" s="5">
+        <v>8065</v>
+      </c>
+      <c r="D2237" s="4"/>
+      <c r="E2237" s="4"/>
+      <c r="F2237" s="4">
+        <v>7</v>
+      </c>
+      <c r="G2237" s="4"/>
+      <c r="H2237" s="4"/>
+      <c r="I2237" s="4"/>
+    </row>
+    <row r="2238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2238" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2238" s="5">
+        <v>8066</v>
+      </c>
+      <c r="D2238" s="4"/>
+      <c r="E2238" s="4"/>
+      <c r="F2238" s="4"/>
+      <c r="G2238" s="4"/>
+      <c r="H2238" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="I2238" s="4"/>
+    </row>
+    <row r="2239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2239" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2239" s="5">
+        <v>8067</v>
+      </c>
+      <c r="D2239" s="4"/>
+      <c r="E2239" s="4"/>
+      <c r="F2239" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G2239" s="4"/>
+      <c r="H2239" s="4"/>
+      <c r="I2239" s="4"/>
+    </row>
+    <row r="2240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2240" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2240" s="5">
+        <v>8068</v>
+      </c>
+      <c r="D2240" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2240" s="4"/>
+      <c r="F2240" s="4"/>
+      <c r="G2240" s="4"/>
+      <c r="H2240" s="4"/>
+      <c r="I2240" s="4"/>
+    </row>
+    <row r="2241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2241" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2241" s="5">
+        <v>8069</v>
+      </c>
+      <c r="D2241" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2241" s="4"/>
+      <c r="F2241" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2241" s="4"/>
+      <c r="H2241" s="4"/>
+      <c r="I2241" s="4"/>
+    </row>
+    <row r="2242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2242" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2242" s="5">
+        <v>8070</v>
+      </c>
+      <c r="D2242" s="4"/>
+      <c r="E2242" s="4"/>
+      <c r="F2242" s="4"/>
+      <c r="G2242" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="H2242" s="4"/>
+      <c r="I2242" s="4"/>
+    </row>
+    <row r="2243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2243" s="4">
+        <v>11</v>
+      </c>
+      <c r="C2243" s="5">
+        <v>8072</v>
+      </c>
+      <c r="D2243" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2243" s="4"/>
+      <c r="F2243" s="4"/>
+      <c r="G2243" s="4"/>
+      <c r="H2243" s="4"/>
+      <c r="I2243" s="4"/>
+    </row>
+    <row r="2244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2244" s="4">
+        <v>12</v>
+      </c>
+      <c r="C2244" s="5">
+        <v>8073</v>
+      </c>
+      <c r="D2244" s="4">
+        <v>40</v>
+      </c>
+      <c r="E2244" s="4"/>
+      <c r="F2244" s="4"/>
+      <c r="G2244" s="4"/>
+      <c r="H2244" s="4"/>
+      <c r="I2244" s="4"/>
+    </row>
+    <row r="2245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2245" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2245" s="5">
+        <v>8074</v>
+      </c>
+      <c r="D2245" s="4"/>
+      <c r="E2245" s="4"/>
+      <c r="F2245" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2245" s="4"/>
+      <c r="H2245" s="4"/>
+      <c r="I2245" s="4"/>
+    </row>
+    <row r="2246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2246" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2246" s="5">
+        <v>8075</v>
+      </c>
+      <c r="D2246" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2246" s="4"/>
+      <c r="F2246" s="4"/>
+      <c r="G2246" s="4"/>
+      <c r="H2246" s="4"/>
+      <c r="I2246" s="4"/>
+    </row>
+    <row r="2247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2247" s="4">
+        <v>15</v>
+      </c>
+      <c r="C2247" s="5">
+        <v>8076</v>
+      </c>
+      <c r="D2247" s="4"/>
+      <c r="E2247" s="4"/>
+      <c r="F2247" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2247" s="4"/>
+      <c r="H2247" s="4"/>
+      <c r="I2247" s="4"/>
+    </row>
+    <row r="2248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2248" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2248" s="14">
+        <f>SUM(D2233:D2247)</f>
+        <v>88</v>
+      </c>
+      <c r="E2248" s="14">
+        <f t="shared" ref="E2248" si="197">SUM(E2233:E2247)</f>
+        <v>0</v>
+      </c>
+      <c r="F2248" s="14">
+        <f t="shared" ref="F2248" si="198">SUM(F2233:F2247)</f>
+        <v>32.5</v>
+      </c>
+      <c r="G2248" s="14">
+        <f t="shared" ref="G2248" si="199">SUM(G2233:G2247)</f>
+        <v>6.5</v>
+      </c>
+      <c r="H2248" s="14">
+        <f t="shared" ref="H2248" si="200">SUM(H2233:H2247)</f>
+        <v>7.5</v>
+      </c>
+      <c r="I2248" s="14">
+        <f t="shared" ref="I2248" si="201">SUM(I2233:I2247)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2250" s="16">
+        <v>43701</v>
+      </c>
+      <c r="B2250" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2250" s="5">
+        <v>8077</v>
+      </c>
+      <c r="D2250" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2250" s="4"/>
+      <c r="F2250" s="4"/>
+      <c r="G2250" s="4"/>
+      <c r="H2250" s="4"/>
+      <c r="I2250" s="4"/>
+    </row>
+    <row r="2251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2251" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2251" s="5">
+        <v>8078</v>
+      </c>
+      <c r="D2251" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2251" s="4"/>
+      <c r="F2251" s="4"/>
+      <c r="G2251" s="4"/>
+      <c r="H2251" s="4"/>
+      <c r="I2251" s="4"/>
+    </row>
+    <row r="2252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2252" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2252" s="5">
+        <v>8079</v>
+      </c>
+      <c r="D2252" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2252" s="4"/>
+      <c r="F2252" s="4"/>
+      <c r="G2252" s="4"/>
+      <c r="H2252" s="4"/>
+      <c r="I2252" s="4"/>
+    </row>
+    <row r="2253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2253" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2253" s="5">
+        <v>8080</v>
+      </c>
+      <c r="D2253" s="4"/>
+      <c r="E2253" s="4"/>
+      <c r="F2253" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2253" s="4"/>
+      <c r="H2253" s="4"/>
+      <c r="I2253" s="4"/>
+    </row>
+    <row r="2254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2254" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2254" s="5">
+        <v>8081</v>
+      </c>
+      <c r="D2254" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2254" s="4"/>
+      <c r="F2254" s="4"/>
+      <c r="G2254" s="4"/>
+      <c r="H2254" s="4"/>
+      <c r="I2254" s="4"/>
+    </row>
+    <row r="2255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2255" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2255" s="5">
+        <v>8082</v>
+      </c>
+      <c r="D2255" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2255" s="4"/>
+      <c r="F2255" s="4"/>
+      <c r="G2255" s="4"/>
+      <c r="H2255" s="4"/>
+      <c r="I2255" s="4"/>
+    </row>
+    <row r="2256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2256" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2256" s="5">
+        <v>8083</v>
+      </c>
+      <c r="D2256" s="4">
+        <v>16</v>
+      </c>
+      <c r="E2256" s="4"/>
+      <c r="F2256" s="4"/>
+      <c r="G2256" s="4"/>
+      <c r="H2256" s="4"/>
+      <c r="I2256" s="4"/>
+    </row>
+    <row r="2257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2257" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2257" s="5">
+        <v>8084</v>
+      </c>
+      <c r="D2257" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2257" s="4"/>
+      <c r="F2257" s="4"/>
+      <c r="G2257" s="4"/>
+      <c r="H2257" s="4"/>
+      <c r="I2257" s="4"/>
+    </row>
+    <row r="2258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2258" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2258" s="5">
+        <v>8085</v>
+      </c>
+      <c r="D2258" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2258" s="4"/>
+      <c r="F2258" s="4"/>
+      <c r="G2258" s="4"/>
+      <c r="H2258" s="4"/>
+      <c r="I2258" s="4"/>
+    </row>
+    <row r="2259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2259" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2259" s="5">
+        <v>8086</v>
+      </c>
+      <c r="D2259" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2259" s="4"/>
+      <c r="F2259" s="4"/>
+      <c r="G2259" s="4"/>
+      <c r="H2259" s="4"/>
+      <c r="I2259" s="4"/>
+    </row>
+    <row r="2260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2260" s="4">
+        <v>11</v>
+      </c>
+      <c r="C2260" s="5">
+        <v>8087</v>
+      </c>
+      <c r="D2260" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2260" s="4"/>
+      <c r="F2260" s="4"/>
+      <c r="G2260" s="4"/>
+      <c r="H2260" s="4"/>
+      <c r="I2260" s="4"/>
+    </row>
+    <row r="2261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2261" s="4">
+        <v>12</v>
+      </c>
+      <c r="C2261" s="5">
+        <v>8092</v>
+      </c>
+      <c r="D2261" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2261" s="4"/>
+      <c r="F2261" s="4"/>
+      <c r="G2261" s="4"/>
+      <c r="H2261" s="4"/>
+      <c r="I2261" s="4"/>
+    </row>
+    <row r="2262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2262" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2262" s="14">
+        <f>SUM(D2250:D2261)</f>
+        <v>93</v>
+      </c>
+      <c r="E2262" s="14">
+        <f>SUM(E2250:E2261)</f>
+        <v>0</v>
+      </c>
+      <c r="F2262" s="14">
+        <f>SUM(F2250:F2261)</f>
+        <v>4</v>
+      </c>
+      <c r="G2262" s="14">
+        <f>SUM(G2250:G2261)</f>
+        <v>0</v>
+      </c>
+      <c r="H2262" s="14">
+        <f>SUM(H2250:H2261)</f>
+        <v>0</v>
+      </c>
+      <c r="I2262" s="14">
+        <f>SUM(I2250:I2261)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2264" s="16">
+        <v>43703</v>
+      </c>
+      <c r="B2264" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2264" s="5">
+        <v>8551</v>
+      </c>
+      <c r="D2264" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2264" s="4"/>
+      <c r="F2264" s="4"/>
+      <c r="G2264" s="4"/>
+      <c r="H2264" s="4"/>
+      <c r="I2264" s="4"/>
+    </row>
+    <row r="2265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2265" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2265" s="5">
+        <v>8552</v>
+      </c>
+      <c r="D2265" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2265" s="4"/>
+      <c r="F2265" s="4"/>
+      <c r="G2265" s="4"/>
+      <c r="H2265" s="4"/>
+      <c r="I2265" s="4"/>
+    </row>
+    <row r="2266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2266" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2266" s="5">
+        <v>8553</v>
+      </c>
+      <c r="D2266" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2266" s="4"/>
+      <c r="F2266" s="4"/>
+      <c r="G2266" s="4"/>
+      <c r="H2266" s="4"/>
+      <c r="I2266" s="4"/>
+    </row>
+    <row r="2267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2267" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2267" s="5">
+        <v>8554</v>
+      </c>
+      <c r="D2267" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2267" s="4"/>
+      <c r="F2267" s="4"/>
+      <c r="G2267" s="4"/>
+      <c r="H2267" s="4"/>
+      <c r="I2267" s="4"/>
+    </row>
+    <row r="2268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2268" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2268" s="5">
+        <v>8555</v>
+      </c>
+      <c r="D2268" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2268" s="4"/>
+      <c r="F2268" s="4"/>
+      <c r="G2268" s="4"/>
+      <c r="H2268" s="4"/>
+      <c r="I2268" s="4"/>
+    </row>
+    <row r="2269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2269" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2269" s="5">
+        <v>8556</v>
+      </c>
+      <c r="D2269" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2269" s="4"/>
+      <c r="F2269" s="4"/>
+      <c r="G2269" s="4"/>
+      <c r="H2269" s="4"/>
+      <c r="I2269" s="4"/>
+    </row>
+    <row r="2270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2270" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2270" s="5">
+        <v>3295</v>
+      </c>
+      <c r="D2270" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2270" s="4"/>
+      <c r="F2270" s="4"/>
+      <c r="G2270" s="4"/>
+      <c r="H2270" s="4"/>
+      <c r="I2270" s="4"/>
+    </row>
+    <row r="2271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2271" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2271" s="5">
+        <v>3296</v>
+      </c>
+      <c r="D2271" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2271" s="4"/>
+      <c r="F2271" s="4"/>
+      <c r="G2271" s="4"/>
+      <c r="H2271" s="4"/>
+      <c r="I2271" s="4"/>
+    </row>
+    <row r="2272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2272" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2272" s="5">
+        <v>8088</v>
+      </c>
+      <c r="D2272" s="4"/>
+      <c r="E2272" s="4"/>
+      <c r="F2272" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2272" s="4"/>
+      <c r="H2272" s="4"/>
+      <c r="I2272" s="4"/>
+    </row>
+    <row r="2273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2273" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2273" s="5">
+        <v>8089</v>
+      </c>
+      <c r="D2273" s="4"/>
+      <c r="E2273" s="4"/>
+      <c r="F2273" s="4">
+        <v>5</v>
+      </c>
+      <c r="G2273" s="4"/>
+      <c r="H2273" s="4"/>
+      <c r="I2273" s="4"/>
+    </row>
+    <row r="2274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2274" s="4">
+        <v>11</v>
+      </c>
+      <c r="C2274" s="5">
+        <v>8090</v>
+      </c>
+      <c r="D2274" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2274" s="4"/>
+      <c r="F2274" s="4"/>
+      <c r="G2274" s="4"/>
+      <c r="H2274" s="4"/>
+      <c r="I2274" s="4"/>
+    </row>
+    <row r="2275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2275" s="4">
+        <v>12</v>
+      </c>
+      <c r="C2275" s="5">
+        <v>8091</v>
+      </c>
+      <c r="D2275" s="4"/>
+      <c r="E2275" s="4"/>
+      <c r="F2275" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2275" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2275" s="4"/>
+      <c r="I2275" s="4"/>
+    </row>
+    <row r="2276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2276" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2276" s="5">
+        <v>8093</v>
+      </c>
+      <c r="D2276" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2276" s="4"/>
+      <c r="F2276" s="4">
+        <v>8</v>
+      </c>
+      <c r="G2276" s="4"/>
+      <c r="H2276" s="4"/>
+      <c r="I2276" s="4"/>
+    </row>
+    <row r="2277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2277" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2277" s="5">
+        <v>8094</v>
+      </c>
+      <c r="D2277" s="4"/>
+      <c r="E2277" s="4"/>
+      <c r="F2277" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2277" s="4"/>
+      <c r="H2277" s="4"/>
+      <c r="I2277" s="4"/>
+    </row>
+    <row r="2278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2278" s="4">
+        <v>15</v>
+      </c>
+      <c r="C2278" s="5">
+        <v>8095</v>
+      </c>
+      <c r="D2278" s="4">
+        <v>24</v>
+      </c>
+      <c r="E2278" s="4"/>
+      <c r="F2278" s="4"/>
+      <c r="G2278" s="4"/>
+      <c r="H2278" s="4"/>
+      <c r="I2278" s="4"/>
+    </row>
+    <row r="2279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2279" s="4">
+        <v>16</v>
+      </c>
+      <c r="C2279" s="5">
+        <v>8096</v>
+      </c>
+      <c r="D2279" s="4"/>
+      <c r="E2279" s="4"/>
+      <c r="F2279" s="4">
+        <v>8</v>
+      </c>
+      <c r="G2279" s="4"/>
+      <c r="H2279" s="4"/>
+      <c r="I2279" s="4"/>
+    </row>
+    <row r="2280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2280" s="4">
+        <v>17</v>
+      </c>
+      <c r="C2280" s="5">
+        <v>8097</v>
+      </c>
+      <c r="D2280" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2280" s="4"/>
+      <c r="F2280" s="4"/>
+      <c r="G2280" s="4"/>
+      <c r="H2280" s="4"/>
+      <c r="I2280" s="4"/>
+    </row>
+    <row r="2281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2281" s="4">
+        <v>18</v>
+      </c>
+      <c r="C2281" s="5">
+        <v>8098</v>
+      </c>
+      <c r="D2281" s="4"/>
+      <c r="E2281" s="4"/>
+      <c r="F2281" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="G2281" s="4"/>
+      <c r="H2281" s="4"/>
+      <c r="I2281" s="4"/>
+    </row>
+    <row r="2282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2282" s="4">
+        <v>19</v>
+      </c>
+      <c r="C2282" s="5">
+        <v>8099</v>
+      </c>
+      <c r="D2282" s="4"/>
+      <c r="E2282" s="4"/>
+      <c r="F2282" s="4"/>
+      <c r="G2282" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="H2282" s="4"/>
+      <c r="I2282" s="4"/>
+    </row>
+    <row r="2283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2283" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2283" s="14">
+        <f>SUM(D2264:D2282)</f>
+        <v>112</v>
+      </c>
+      <c r="E2283" s="14">
+        <f t="shared" ref="E2283:I2283" si="202">SUM(E2264:E2282)</f>
+        <v>0</v>
+      </c>
+      <c r="F2283" s="14">
+        <f t="shared" si="202"/>
+        <v>36.5</v>
+      </c>
+      <c r="G2283" s="14">
+        <f t="shared" si="202"/>
+        <v>5.5</v>
+      </c>
+      <c r="H2283" s="14">
+        <f t="shared" si="202"/>
+        <v>0</v>
+      </c>
+      <c r="I2283" s="14">
+        <f t="shared" si="202"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2285" s="16">
+        <v>43704</v>
+      </c>
+      <c r="B2285" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2285" s="5">
+        <v>8100</v>
+      </c>
+      <c r="D2285" s="4"/>
+      <c r="E2285" s="4"/>
+      <c r="F2285" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G2285" s="4"/>
+      <c r="H2285" s="4"/>
+      <c r="I2285" s="4"/>
+    </row>
+    <row r="2286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2286" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2286" s="5">
+        <v>9401</v>
+      </c>
+      <c r="D2286" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2286" s="4"/>
+      <c r="F2286" s="4"/>
+      <c r="G2286" s="4"/>
+      <c r="H2286" s="4"/>
+      <c r="I2286" s="4"/>
+    </row>
+    <row r="2287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2287" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2287" s="5">
+        <v>9402</v>
+      </c>
+      <c r="D2287" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2287" s="4"/>
+      <c r="F2287" s="4"/>
+      <c r="G2287" s="4"/>
+      <c r="H2287" s="4"/>
+      <c r="I2287" s="4"/>
+    </row>
+    <row r="2288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2288" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2288" s="5">
+        <v>9403</v>
+      </c>
+      <c r="D2288" s="4"/>
+      <c r="E2288" s="4"/>
+      <c r="F2288" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2288" s="4"/>
+      <c r="H2288" s="4"/>
+      <c r="I2288" s="4"/>
+    </row>
+    <row r="2289" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2289" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2289" s="5">
+        <v>9404</v>
+      </c>
+      <c r="D2289" s="4">
+        <v>40</v>
+      </c>
+      <c r="E2289" s="4"/>
+      <c r="F2289" s="4"/>
+      <c r="G2289" s="4"/>
+      <c r="H2289" s="4"/>
+      <c r="I2289" s="4"/>
+    </row>
+    <row r="2290" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2290" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2290" s="5">
+        <v>9405</v>
+      </c>
+      <c r="D2290" s="4"/>
+      <c r="E2290" s="4"/>
+      <c r="F2290" s="4">
+        <v>7</v>
+      </c>
+      <c r="G2290" s="4"/>
+      <c r="H2290" s="4"/>
+      <c r="I2290" s="4"/>
+    </row>
+    <row r="2291" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2291" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2291" s="5">
+        <v>9406</v>
+      </c>
+      <c r="D2291" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2291" s="4"/>
+      <c r="F2291" s="4"/>
+      <c r="G2291" s="4"/>
+      <c r="H2291" s="4"/>
+      <c r="I2291" s="4"/>
+    </row>
+    <row r="2292" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2292" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2292" s="5">
+        <v>9407</v>
+      </c>
+      <c r="D2292" s="4"/>
+      <c r="E2292" s="4"/>
+      <c r="F2292" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2292" s="4"/>
+      <c r="H2292" s="4"/>
+      <c r="I2292" s="4"/>
+    </row>
+    <row r="2293" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2293" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2293" s="5">
+        <v>9408</v>
+      </c>
+      <c r="D2293" s="4"/>
+      <c r="E2293" s="4"/>
+      <c r="F2293" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2293" s="4"/>
+      <c r="H2293" s="4"/>
+      <c r="I2293" s="4"/>
+    </row>
+    <row r="2294" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2294" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2294" s="5">
+        <v>9409</v>
+      </c>
+      <c r="D2294" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2294" s="4"/>
+      <c r="F2294" s="4"/>
+      <c r="G2294" s="4"/>
+      <c r="H2294" s="4"/>
+      <c r="I2294" s="4"/>
+    </row>
+    <row r="2295" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2295" s="4">
+        <v>11</v>
+      </c>
+      <c r="C2295" s="5">
+        <v>9410</v>
+      </c>
+      <c r="D2295" s="4"/>
+      <c r="E2295" s="4"/>
+      <c r="F2295" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2295" s="4"/>
+      <c r="H2295" s="4"/>
+      <c r="I2295" s="4"/>
+    </row>
+    <row r="2296" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2296" s="4">
+        <v>12</v>
+      </c>
+      <c r="C2296" s="5">
+        <v>9411</v>
+      </c>
+      <c r="D2296" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2296" s="4"/>
+      <c r="F2296" s="4"/>
+      <c r="G2296" s="4"/>
+      <c r="H2296" s="4"/>
+      <c r="I2296" s="4"/>
+    </row>
+    <row r="2297" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2297" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2297" s="5">
+        <v>9412</v>
+      </c>
+      <c r="D2297" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2297" s="4"/>
+      <c r="F2297" s="4"/>
+      <c r="G2297" s="4"/>
+      <c r="H2297" s="4"/>
+      <c r="I2297" s="4"/>
+    </row>
+    <row r="2298" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2298" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2298" s="5">
+        <v>9413</v>
+      </c>
+      <c r="D2298" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2298" s="4"/>
+      <c r="F2298" s="4"/>
+      <c r="G2298" s="4"/>
+      <c r="H2298" s="4"/>
+      <c r="I2298" s="4"/>
+    </row>
+    <row r="2299" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2299" s="4">
+        <v>15</v>
+      </c>
+      <c r="C2299" s="5">
+        <v>9414</v>
+      </c>
+      <c r="D2299" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2299" s="4"/>
+      <c r="F2299" s="4"/>
+      <c r="G2299" s="4"/>
+      <c r="H2299" s="4"/>
+      <c r="I2299" s="4"/>
+    </row>
+    <row r="2300" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2300" s="4">
+        <v>16</v>
+      </c>
+      <c r="C2300" s="5">
+        <v>9415</v>
+      </c>
+      <c r="D2300" s="4"/>
+      <c r="E2300" s="4"/>
+      <c r="F2300" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G2300" s="4"/>
+      <c r="H2300" s="4"/>
+      <c r="I2300" s="4"/>
+    </row>
+    <row r="2301" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2301" s="4">
+        <v>17</v>
+      </c>
+      <c r="C2301" s="5">
+        <v>9416</v>
+      </c>
+      <c r="D2301" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2301" s="4"/>
+      <c r="F2301" s="4"/>
+      <c r="G2301" s="4"/>
+      <c r="H2301" s="4"/>
+      <c r="I2301" s="4"/>
+    </row>
+    <row r="2302" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2302" s="4">
+        <v>18</v>
+      </c>
+      <c r="C2302" s="5">
+        <v>9417</v>
+      </c>
+      <c r="D2302" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2302" s="4"/>
+      <c r="F2302" s="4"/>
+      <c r="G2302" s="4"/>
+      <c r="H2302" s="4"/>
+      <c r="I2302" s="4"/>
+    </row>
+    <row r="2303" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2303" s="4">
+        <v>19</v>
+      </c>
+      <c r="C2303" s="5">
+        <v>9418</v>
+      </c>
+      <c r="D2303" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2303" s="4"/>
+      <c r="F2303" s="4"/>
+      <c r="G2303" s="4"/>
+      <c r="H2303" s="4"/>
+      <c r="I2303" s="4"/>
+    </row>
+    <row r="2304" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2304" s="4">
+        <v>20</v>
+      </c>
+      <c r="C2304" s="5">
+        <v>9419</v>
+      </c>
+      <c r="D2304" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2304" s="4"/>
+      <c r="F2304" s="4"/>
+      <c r="G2304" s="4"/>
+      <c r="H2304" s="4"/>
+      <c r="I2304" s="4"/>
+    </row>
+    <row r="2305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2305" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2305" s="14">
+        <f>SUM(D2285:D2304)</f>
+        <v>136</v>
+      </c>
+      <c r="E2305" s="14">
+        <f t="shared" ref="E2305:I2305" si="203">SUM(E2285:E2304)</f>
+        <v>0</v>
+      </c>
+      <c r="F2305" s="14">
+        <f t="shared" si="203"/>
+        <v>42</v>
+      </c>
+      <c r="G2305" s="14">
+        <f t="shared" si="203"/>
+        <v>0</v>
+      </c>
+      <c r="H2305" s="14">
+        <f t="shared" si="203"/>
+        <v>0</v>
+      </c>
+      <c r="I2305" s="14">
+        <f t="shared" si="203"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2307" s="16">
+        <v>43705</v>
+      </c>
+      <c r="B2307" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2307" s="5">
+        <v>9420</v>
+      </c>
+      <c r="D2307" s="4"/>
+      <c r="E2307" s="4"/>
+      <c r="F2307" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2307" s="4"/>
+      <c r="H2307" s="4"/>
+      <c r="I2307" s="4"/>
+    </row>
+    <row r="2308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2308" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2308" s="5">
+        <v>9421</v>
+      </c>
+      <c r="D2308" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2308" s="4"/>
+      <c r="F2308" s="4"/>
+      <c r="G2308" s="4"/>
+      <c r="H2308" s="4"/>
+      <c r="I2308" s="4"/>
+    </row>
+    <row r="2309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2309" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2309" s="5">
+        <v>9422</v>
+      </c>
+      <c r="D2309" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2309" s="4"/>
+      <c r="F2309" s="4"/>
+      <c r="G2309" s="4"/>
+      <c r="H2309" s="4"/>
+      <c r="I2309" s="4"/>
+    </row>
+    <row r="2310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2310" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2310" s="5">
+        <v>9423</v>
+      </c>
+      <c r="D2310" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="E2310" s="4"/>
+      <c r="F2310" s="4"/>
+      <c r="G2310" s="4"/>
+      <c r="H2310" s="4"/>
+      <c r="I2310" s="4"/>
+    </row>
+    <row r="2311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2311" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2311" s="5">
+        <v>9424</v>
+      </c>
+      <c r="D2311" s="4"/>
+      <c r="E2311" s="4"/>
+      <c r="F2311" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2311" s="4"/>
+      <c r="H2311" s="4"/>
+      <c r="I2311" s="4"/>
+    </row>
+    <row r="2312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2312" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2312" s="5">
+        <v>9425</v>
+      </c>
+      <c r="D2312" s="4"/>
+      <c r="E2312" s="4"/>
+      <c r="F2312" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2312" s="4"/>
+      <c r="H2312" s="4"/>
+      <c r="I2312" s="4"/>
+    </row>
+    <row r="2313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2313" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2313" s="5">
+        <v>9426</v>
+      </c>
+      <c r="D2313" s="4"/>
+      <c r="E2313" s="4"/>
+      <c r="F2313" s="4"/>
+      <c r="G2313" s="4"/>
+      <c r="H2313" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="I2313" s="4"/>
+    </row>
+    <row r="2314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2314" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2314" s="5">
+        <v>9427</v>
+      </c>
+      <c r="D2314" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2314" s="4"/>
+      <c r="F2314" s="4"/>
+      <c r="G2314" s="4"/>
+      <c r="H2314" s="4"/>
+      <c r="I2314" s="4"/>
+    </row>
+    <row r="2315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2315" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2315" s="5">
+        <v>9427</v>
+      </c>
+      <c r="D2315" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2315" s="4"/>
+      <c r="F2315" s="4"/>
+      <c r="G2315" s="4"/>
+      <c r="H2315" s="4"/>
+      <c r="I2315" s="4"/>
+    </row>
+    <row r="2316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2316" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2316" s="5">
+        <v>9459</v>
+      </c>
+      <c r="D2316" s="4"/>
+      <c r="E2316" s="4"/>
+      <c r="F2316" s="4"/>
+      <c r="G2316" s="4"/>
+      <c r="H2316" s="4"/>
+      <c r="I2316" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2317" s="4">
+        <v>11</v>
+      </c>
+      <c r="C2317" s="5">
+        <v>9460</v>
+      </c>
+      <c r="D2317" s="4"/>
+      <c r="E2317" s="4"/>
+      <c r="F2317" s="4"/>
+      <c r="G2317" s="4"/>
+      <c r="H2317" s="4"/>
+      <c r="I2317" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2318" s="4">
+        <v>12</v>
+      </c>
+      <c r="C2318" s="5">
+        <v>9461</v>
+      </c>
+      <c r="D2318" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2318" s="4"/>
+      <c r="F2318" s="4"/>
+      <c r="G2318" s="4"/>
+      <c r="H2318" s="4"/>
+      <c r="I2318" s="4"/>
+    </row>
+    <row r="2319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2319" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2319" s="5">
+        <v>9461</v>
+      </c>
+      <c r="D2319" s="4"/>
+      <c r="E2319" s="4"/>
+      <c r="F2319" s="4">
+        <v>8</v>
+      </c>
+      <c r="G2319" s="4"/>
+      <c r="H2319" s="4"/>
+      <c r="I2319" s="4"/>
+    </row>
+    <row r="2320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2320" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2320" s="5">
+        <v>9462</v>
+      </c>
+      <c r="D2320" s="4"/>
+      <c r="E2320" s="4"/>
+      <c r="F2320" s="4">
+        <v>40</v>
+      </c>
+      <c r="G2320" s="4"/>
+      <c r="H2320" s="4"/>
+      <c r="I2320" s="4"/>
+    </row>
+    <row r="2321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2321" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2321" s="14">
+        <f>SUM(D2307:D2320)</f>
+        <v>45.5</v>
+      </c>
+      <c r="E2321" s="14">
+        <f>SUM(E2307:E2320)</f>
+        <v>0</v>
+      </c>
+      <c r="F2321" s="14">
+        <f>SUM(F2307:F2320)</f>
+        <v>66</v>
+      </c>
+      <c r="G2321" s="14">
+        <f>SUM(G2307:G2320)</f>
+        <v>0</v>
+      </c>
+      <c r="H2321" s="14">
+        <f>SUM(H2307:H2320)</f>
+        <v>9.5</v>
+      </c>
+      <c r="I2321" s="14">
+        <f>SUM(I2307:I2320)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2323" s="16">
+        <v>43706</v>
+      </c>
+      <c r="B2323" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2323" s="5">
+        <v>9432</v>
+      </c>
+      <c r="D2323" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2323" s="4"/>
+      <c r="F2323" s="4"/>
+      <c r="G2323" s="4"/>
+      <c r="H2323" s="4"/>
+      <c r="I2323" s="4"/>
+    </row>
+    <row r="2324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2324" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2324" s="5">
+        <v>9433</v>
+      </c>
+      <c r="D2324" s="4"/>
+      <c r="E2324" s="4"/>
+      <c r="F2324" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2324" s="4"/>
+      <c r="H2324" s="4"/>
+      <c r="I2324" s="4"/>
+    </row>
+    <row r="2325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2325" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2325" s="5">
+        <v>9434</v>
+      </c>
+      <c r="D2325" s="4"/>
+      <c r="E2325" s="4"/>
+      <c r="F2325" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G2325" s="4"/>
+      <c r="H2325" s="4"/>
+      <c r="I2325" s="4"/>
+    </row>
+    <row r="2326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2326" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2326" s="5">
+        <v>9435</v>
+      </c>
+      <c r="D2326" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2326" s="4"/>
+      <c r="F2326" s="4"/>
+      <c r="G2326" s="4"/>
+      <c r="H2326" s="4"/>
+      <c r="I2326" s="4"/>
+    </row>
+    <row r="2327" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2327" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2327" s="5">
+        <v>9436</v>
+      </c>
+      <c r="D2327" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2327" s="4"/>
+      <c r="F2327" s="4"/>
+      <c r="G2327" s="4"/>
+      <c r="H2327" s="4"/>
+      <c r="I2327" s="4"/>
+    </row>
+    <row r="2328" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2328" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2328" s="5">
+        <v>9437</v>
+      </c>
+      <c r="D2328" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2328" s="4"/>
+      <c r="F2328" s="4"/>
+      <c r="G2328" s="4"/>
+      <c r="H2328" s="4"/>
+      <c r="I2328" s="4"/>
+    </row>
+    <row r="2329" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2329" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2329" s="5">
+        <v>9438</v>
+      </c>
+      <c r="D2329" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2329" s="4"/>
+      <c r="F2329" s="4"/>
+      <c r="G2329" s="4"/>
+      <c r="H2329" s="4"/>
+      <c r="I2329" s="4"/>
+    </row>
+    <row r="2330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2330" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2330" s="5">
+        <v>9439</v>
+      </c>
+      <c r="D2330" s="4"/>
+      <c r="E2330" s="4"/>
+      <c r="F2330" s="4">
+        <v>7</v>
+      </c>
+      <c r="G2330" s="4"/>
+      <c r="H2330" s="4"/>
+      <c r="I2330" s="4"/>
+    </row>
+    <row r="2331" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2331" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2331" s="5">
+        <v>9440</v>
+      </c>
+      <c r="D2331" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2331" s="4"/>
+      <c r="F2331" s="4"/>
+      <c r="G2331" s="4"/>
+      <c r="H2331" s="4"/>
+      <c r="I2331" s="4"/>
+    </row>
+    <row r="2332" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2332" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2332" s="5">
+        <v>9441</v>
+      </c>
+      <c r="D2332" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2332" s="4"/>
+      <c r="F2332" s="4"/>
+      <c r="G2332" s="4"/>
+      <c r="H2332" s="4"/>
+      <c r="I2332" s="4"/>
+    </row>
+    <row r="2333" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2333" s="4">
+        <v>11</v>
+      </c>
+      <c r="C2333" s="5">
+        <v>9442</v>
+      </c>
+      <c r="D2333" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2333" s="4"/>
+      <c r="F2333" s="4"/>
+      <c r="G2333" s="4"/>
+      <c r="H2333" s="4"/>
+      <c r="I2333" s="4"/>
+    </row>
+    <row r="2334" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2334" s="4">
+        <v>12</v>
+      </c>
+      <c r="C2334" s="5">
+        <v>9443</v>
+      </c>
+      <c r="D2334" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2334" s="4"/>
+      <c r="F2334" s="4"/>
+      <c r="G2334" s="4"/>
+      <c r="H2334" s="4"/>
+      <c r="I2334" s="4"/>
+    </row>
+    <row r="2335" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2335" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2335" s="14">
+        <f>SUM(D2323:D2334)</f>
+        <v>72</v>
+      </c>
+      <c r="E2335" s="14">
+        <f>SUM(E2323:E2334)</f>
+        <v>0</v>
+      </c>
+      <c r="F2335" s="14">
+        <f>SUM(F2323:F2334)</f>
+        <v>19.5</v>
+      </c>
+      <c r="G2335" s="14">
+        <f>SUM(G2323:G2334)</f>
+        <v>0</v>
+      </c>
+      <c r="H2335" s="14">
+        <f>SUM(H2323:H2334)</f>
+        <v>0</v>
+      </c>
+      <c r="I2335" s="14">
+        <f>SUM(I2323:I2334)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2337" s="16">
+        <v>43707</v>
+      </c>
+      <c r="B2337" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2337" s="5">
+        <v>9444</v>
+      </c>
+      <c r="D2337" s="4"/>
+      <c r="E2337" s="4"/>
+      <c r="F2337" s="4">
+        <v>8</v>
+      </c>
+      <c r="G2337" s="4"/>
+      <c r="H2337" s="4"/>
+      <c r="I2337" s="4"/>
+    </row>
+    <row r="2338" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2338" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2338" s="5">
+        <v>9445</v>
+      </c>
+      <c r="D2338" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2338" s="4"/>
+      <c r="F2338" s="4"/>
+      <c r="G2338" s="4"/>
+      <c r="H2338" s="4"/>
+      <c r="I2338" s="4"/>
+    </row>
+    <row r="2339" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2339" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2339" s="5">
+        <v>9446</v>
+      </c>
+      <c r="D2339" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2339" s="4"/>
+      <c r="F2339" s="4"/>
+      <c r="G2339" s="4"/>
+      <c r="H2339" s="4"/>
+      <c r="I2339" s="4"/>
+    </row>
+    <row r="2340" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2340" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2340" s="5">
+        <v>9447</v>
+      </c>
+      <c r="D2340" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2340" s="4"/>
+      <c r="F2340" s="4"/>
+      <c r="G2340" s="4"/>
+      <c r="H2340" s="4"/>
+      <c r="I2340" s="4"/>
+    </row>
+    <row r="2341" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2341" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2341" s="5">
+        <v>9448</v>
+      </c>
+      <c r="D2341" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2341" s="4"/>
+      <c r="F2341" s="4"/>
+      <c r="G2341" s="4"/>
+      <c r="H2341" s="4"/>
+      <c r="I2341" s="4"/>
+    </row>
+    <row r="2342" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2342" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2342" s="5">
+        <v>9449</v>
+      </c>
+      <c r="D2342" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2342" s="4"/>
+      <c r="F2342" s="4"/>
+      <c r="G2342" s="4"/>
+      <c r="H2342" s="4"/>
+      <c r="I2342" s="4"/>
+    </row>
+    <row r="2343" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2343" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2343" s="5">
+        <v>9450</v>
+      </c>
+      <c r="D2343" s="4"/>
+      <c r="E2343" s="4"/>
+      <c r="F2343" s="4"/>
+      <c r="G2343" s="4"/>
+      <c r="H2343" s="4">
+        <v>6</v>
+      </c>
+      <c r="I2343" s="4"/>
+    </row>
+    <row r="2344" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2344" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2344" s="5">
+        <v>9301</v>
+      </c>
+      <c r="D2344" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2344" s="4"/>
+      <c r="F2344" s="4"/>
+      <c r="G2344" s="4"/>
+      <c r="H2344" s="4"/>
+      <c r="I2344" s="4"/>
+    </row>
+    <row r="2345" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2345" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2345" s="5">
+        <v>9302</v>
+      </c>
+      <c r="D2345" s="4"/>
+      <c r="E2345" s="4"/>
+      <c r="F2345" s="4"/>
+      <c r="G2345" s="4"/>
+      <c r="H2345" s="4">
+        <v>8</v>
+      </c>
+      <c r="I2345" s="4"/>
+    </row>
+    <row r="2346" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2346" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2346" s="5">
+        <v>9303</v>
+      </c>
+      <c r="D2346" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2346" s="4"/>
+      <c r="F2346" s="4"/>
+      <c r="G2346" s="4"/>
+      <c r="H2346" s="4"/>
+      <c r="I2346" s="4"/>
+    </row>
+    <row r="2347" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2347" s="4">
+        <v>11</v>
+      </c>
+      <c r="C2347" s="5">
+        <v>9304</v>
+      </c>
+      <c r="D2347" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2347" s="4"/>
+      <c r="F2347" s="4"/>
+      <c r="G2347" s="4"/>
+      <c r="H2347" s="4"/>
+      <c r="I2347" s="4"/>
+    </row>
+    <row r="2348" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2348" s="4">
+        <v>12</v>
+      </c>
+      <c r="C2348" s="5">
+        <v>9305</v>
+      </c>
+      <c r="D2348" s="4"/>
+      <c r="E2348" s="4"/>
+      <c r="F2348" s="4"/>
+      <c r="G2348" s="4"/>
+      <c r="H2348" s="4">
+        <v>7</v>
+      </c>
+      <c r="I2348" s="4"/>
+    </row>
+    <row r="2349" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2349" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2349" s="5">
+        <v>9306</v>
+      </c>
+      <c r="D2349" s="4"/>
+      <c r="E2349" s="4"/>
+      <c r="F2349" s="4"/>
+      <c r="G2349" s="4"/>
+      <c r="H2349" s="4">
+        <v>6</v>
+      </c>
+      <c r="I2349" s="4"/>
+    </row>
+    <row r="2350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2350" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2350" s="5">
+        <v>9307</v>
+      </c>
+      <c r="D2350" s="4">
+        <v>24</v>
+      </c>
+      <c r="E2350" s="4"/>
+      <c r="F2350" s="4"/>
+      <c r="G2350" s="4"/>
+      <c r="H2350" s="4"/>
+      <c r="I2350" s="4"/>
+    </row>
+    <row r="2351" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2351" s="4">
+        <v>15</v>
+      </c>
+      <c r="C2351" s="5">
+        <v>9308</v>
+      </c>
+      <c r="D2351" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2351" s="4"/>
+      <c r="F2351" s="4"/>
+      <c r="G2351" s="4"/>
+      <c r="H2351" s="4"/>
+      <c r="I2351" s="4"/>
+    </row>
+    <row r="2352" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2352" s="4">
+        <v>16</v>
+      </c>
+      <c r="C2352" s="5">
+        <v>9309</v>
+      </c>
+      <c r="D2352" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2352" s="4"/>
+      <c r="F2352" s="4"/>
+      <c r="G2352" s="4"/>
+      <c r="H2352" s="4"/>
+      <c r="I2352" s="4"/>
+    </row>
+    <row r="2353" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2353" s="4">
+        <v>17</v>
+      </c>
+      <c r="C2353" s="5">
+        <v>9461</v>
+      </c>
+      <c r="D2353" s="4"/>
+      <c r="E2353" s="4"/>
+      <c r="F2353" s="4"/>
+      <c r="G2353" s="4"/>
+      <c r="H2353" s="4"/>
+      <c r="I2353" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2354" s="4">
+        <v>18</v>
+      </c>
+      <c r="C2354" s="5">
+        <v>9462</v>
+      </c>
+      <c r="D2354" s="4"/>
+      <c r="E2354" s="4"/>
+      <c r="F2354" s="4"/>
+      <c r="G2354" s="4"/>
+      <c r="H2354" s="4"/>
+      <c r="I2354" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2355" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2355" s="14">
+        <f>SUM(D2337:D2354)</f>
+        <v>104</v>
+      </c>
+      <c r="E2355" s="14">
+        <f t="shared" ref="E2355:I2355" si="204">SUM(E2337:E2354)</f>
+        <v>0</v>
+      </c>
+      <c r="F2355" s="14">
+        <f t="shared" si="204"/>
+        <v>8</v>
+      </c>
+      <c r="G2355" s="14">
+        <f t="shared" si="204"/>
+        <v>0</v>
+      </c>
+      <c r="H2355" s="14">
+        <f t="shared" si="204"/>
+        <v>27</v>
+      </c>
+      <c r="I2355" s="14">
+        <f t="shared" si="204"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2357" s="16">
+        <v>43708</v>
+      </c>
+      <c r="B2357" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2357" s="5">
+        <v>9310</v>
+      </c>
+      <c r="D2357" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2357" s="4"/>
+      <c r="F2357" s="4"/>
+      <c r="G2357" s="4"/>
+      <c r="H2357" s="4"/>
+      <c r="I2357" s="4"/>
+    </row>
+    <row r="2358" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2358" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2358" s="5">
+        <v>9311</v>
+      </c>
+      <c r="D2358" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2358" s="4"/>
+      <c r="F2358" s="4"/>
+      <c r="G2358" s="4"/>
+      <c r="H2358" s="4"/>
+      <c r="I2358" s="4"/>
+    </row>
+    <row r="2359" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2359" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2359" s="5">
+        <v>9312</v>
+      </c>
+      <c r="D2359" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2359" s="4"/>
+      <c r="F2359" s="4"/>
+      <c r="G2359" s="4"/>
+      <c r="H2359" s="4"/>
+      <c r="I2359" s="4"/>
+    </row>
+    <row r="2360" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2360" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2360" s="5">
+        <v>9313</v>
+      </c>
+      <c r="D2360" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2360" s="4"/>
+      <c r="F2360" s="4"/>
+      <c r="G2360" s="4"/>
+      <c r="H2360" s="4"/>
+      <c r="I2360" s="4"/>
+    </row>
+    <row r="2361" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2361" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2361" s="5">
+        <v>9314</v>
+      </c>
+      <c r="D2361" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2361" s="4"/>
+      <c r="F2361" s="4"/>
+      <c r="G2361" s="4"/>
+      <c r="H2361" s="4"/>
+      <c r="I2361" s="4"/>
+    </row>
+    <row r="2362" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2362" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2362" s="5">
+        <v>9315</v>
+      </c>
+      <c r="D2362" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2362" s="4"/>
+      <c r="F2362" s="4"/>
+      <c r="G2362" s="4"/>
+      <c r="H2362" s="4"/>
+      <c r="I2362" s="4"/>
+    </row>
+    <row r="2363" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2363" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2363" s="5">
+        <v>9316</v>
+      </c>
+      <c r="D2363" s="4">
+        <v>16</v>
+      </c>
+      <c r="E2363" s="4"/>
+      <c r="F2363" s="4"/>
+      <c r="G2363" s="4"/>
+      <c r="H2363" s="4"/>
+      <c r="I2363" s="4"/>
+    </row>
+    <row r="2364" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2364" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2364" s="5">
+        <v>9317</v>
+      </c>
+      <c r="D2364" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2364" s="4"/>
+      <c r="F2364" s="4"/>
+      <c r="G2364" s="4"/>
+      <c r="H2364" s="4"/>
+      <c r="I2364" s="4"/>
+    </row>
+    <row r="2365" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2365" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2365" s="5">
+        <v>9318</v>
+      </c>
+      <c r="D2365" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2365" s="4"/>
+      <c r="F2365" s="4"/>
+      <c r="G2365" s="4"/>
+      <c r="H2365" s="4"/>
+      <c r="I2365" s="4"/>
+    </row>
+    <row r="2366" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2366" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2366" s="5">
+        <v>9319</v>
+      </c>
+      <c r="D2366" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2366" s="4"/>
+      <c r="F2366" s="4"/>
+      <c r="G2366" s="4"/>
+      <c r="H2366" s="4"/>
+      <c r="I2366" s="4"/>
+    </row>
+    <row r="2367" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2367" s="4">
+        <v>11</v>
+      </c>
+      <c r="C2367" s="5">
+        <v>9320</v>
+      </c>
+      <c r="D2367" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2367" s="4"/>
+      <c r="F2367" s="4"/>
+      <c r="G2367" s="4"/>
+      <c r="H2367" s="4"/>
+      <c r="I2367" s="4"/>
+    </row>
+    <row r="2368" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2368" s="4">
+        <v>12</v>
+      </c>
+      <c r="C2368" s="5">
+        <v>9321</v>
+      </c>
+      <c r="D2368" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2368" s="4"/>
+      <c r="F2368" s="4"/>
+      <c r="G2368" s="4"/>
+      <c r="H2368" s="4"/>
+      <c r="I2368" s="4"/>
+    </row>
+    <row r="2369" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2369" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2369" s="5">
+        <v>9322</v>
+      </c>
+      <c r="D2369" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2369" s="4"/>
+      <c r="F2369" s="4"/>
+      <c r="G2369" s="4"/>
+      <c r="H2369" s="4"/>
+      <c r="I2369" s="4"/>
+    </row>
+    <row r="2370" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2370" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2370" s="5">
+        <v>9323</v>
+      </c>
+      <c r="D2370" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2370" s="4"/>
+      <c r="F2370" s="4"/>
+      <c r="G2370" s="4"/>
+      <c r="H2370" s="4"/>
+      <c r="I2370" s="4"/>
+    </row>
+    <row r="2371" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2371" s="4">
+        <v>15</v>
+      </c>
+      <c r="C2371" s="5">
+        <v>9324</v>
+      </c>
+      <c r="D2371" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2371" s="4"/>
+      <c r="F2371" s="4"/>
+      <c r="G2371" s="4"/>
+      <c r="H2371" s="4"/>
+      <c r="I2371" s="4"/>
+    </row>
+    <row r="2372" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2372" s="4">
+        <v>16</v>
+      </c>
+      <c r="C2372" s="5">
+        <v>9325</v>
+      </c>
+      <c r="D2372" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2372" s="4"/>
+      <c r="F2372" s="4"/>
+      <c r="G2372" s="4"/>
+      <c r="H2372" s="4"/>
+      <c r="I2372" s="4"/>
+    </row>
+    <row r="2373" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2373" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2373" s="14">
+        <f>SUM(D2357:D2372)</f>
+        <v>133</v>
+      </c>
+      <c r="E2373" s="14">
+        <f>SUM(E2357:E2372)</f>
+        <v>0</v>
+      </c>
+      <c r="F2373" s="14">
+        <f>SUM(F2357:F2372)</f>
+        <v>0</v>
+      </c>
+      <c r="G2373" s="14">
+        <f>SUM(G2357:G2372)</f>
+        <v>0</v>
+      </c>
+      <c r="H2373" s="14">
+        <f>SUM(H2357:H2372)</f>
+        <v>0</v>
+      </c>
+      <c r="I2373" s="14">
+        <f>SUM(I2357:I2372)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2375" s="16">
+        <v>43710</v>
+      </c>
+      <c r="B2375" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2375" s="5">
+        <v>9326</v>
+      </c>
+      <c r="D2375" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2375" s="4"/>
+      <c r="F2375" s="4"/>
+      <c r="G2375" s="4"/>
+      <c r="H2375" s="4"/>
+      <c r="I2375" s="4"/>
+    </row>
+    <row r="2376" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2376" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2376" s="5">
+        <v>9327</v>
+      </c>
+      <c r="D2376" s="4"/>
+      <c r="E2376" s="4"/>
+      <c r="F2376" s="4"/>
+      <c r="G2376" s="4"/>
+      <c r="H2376" s="4"/>
+      <c r="I2376" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2377" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2377" s="5">
+        <v>9329</v>
+      </c>
+      <c r="D2377" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2377" s="4"/>
+      <c r="F2377" s="4"/>
+      <c r="G2377" s="4"/>
+      <c r="H2377" s="4"/>
+      <c r="I2377" s="4"/>
+    </row>
+    <row r="2378" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2378" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2378" s="5">
+        <v>9330</v>
+      </c>
+      <c r="D2378" s="4"/>
+      <c r="E2378" s="4"/>
+      <c r="F2378" s="4"/>
+      <c r="G2378" s="4"/>
+      <c r="H2378" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="I2378" s="4"/>
+    </row>
+    <row r="2379" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2379" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2379" s="5">
+        <v>9332</v>
+      </c>
+      <c r="D2379" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2379" s="4"/>
+      <c r="F2379" s="4"/>
+      <c r="G2379" s="4"/>
+      <c r="H2379" s="4"/>
+      <c r="I2379" s="4"/>
+    </row>
+    <row r="2380" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2380" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2380" s="5">
+        <v>9333</v>
+      </c>
+      <c r="D2380" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2380" s="4"/>
+      <c r="F2380" s="4"/>
+      <c r="G2380" s="4"/>
+      <c r="H2380" s="4"/>
+      <c r="I2380" s="4"/>
+    </row>
+    <row r="2381" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2381" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2381" s="5">
+        <v>9334</v>
+      </c>
+      <c r="D2381" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2381" s="4"/>
+      <c r="F2381" s="4"/>
+      <c r="G2381" s="4"/>
+      <c r="H2381" s="4"/>
+      <c r="I2381" s="4"/>
+    </row>
+    <row r="2382" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2382" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2382" s="5">
+        <v>9335</v>
+      </c>
+      <c r="D2382" s="4"/>
+      <c r="E2382" s="4"/>
+      <c r="F2382" s="4"/>
+      <c r="G2382" s="4"/>
+      <c r="H2382" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2382" s="4"/>
+    </row>
+    <row r="2383" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2383" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2383" s="14">
+        <f>SUM(D2375:D2382)</f>
+        <v>36</v>
+      </c>
+      <c r="E2383" s="14">
+        <f>SUM(E2375:E2382)</f>
+        <v>0</v>
+      </c>
+      <c r="F2383" s="14">
+        <f>SUM(F2375:F2382)</f>
+        <v>0</v>
+      </c>
+      <c r="G2383" s="14">
+        <f>SUM(G2375:G2382)</f>
+        <v>0</v>
+      </c>
+      <c r="H2383" s="14">
+        <f>SUM(H2375:H2382)</f>
+        <v>2.5</v>
+      </c>
+      <c r="I2383" s="14">
+        <f>SUM(I2375:I2382)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2385" s="16">
+        <v>43711</v>
+      </c>
+      <c r="B2385" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2385" s="5">
+        <v>9336</v>
+      </c>
+      <c r="D2385" s="4"/>
+      <c r="E2385" s="4"/>
+      <c r="F2385" s="4"/>
+      <c r="G2385" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="H2385" s="4"/>
+      <c r="I2385" s="4"/>
+    </row>
+    <row r="2386" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2386" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2386" s="5">
+        <v>9337</v>
+      </c>
+      <c r="D2386" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2386" s="4"/>
+      <c r="F2386" s="4"/>
+      <c r="G2386" s="4"/>
+      <c r="H2386" s="4"/>
+      <c r="I2386" s="4"/>
+    </row>
+    <row r="2387" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2387" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2387" s="5">
+        <v>9338</v>
+      </c>
+      <c r="D2387" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="E2387" s="4"/>
+      <c r="F2387" s="4"/>
+      <c r="G2387" s="4"/>
+      <c r="H2387" s="4"/>
+      <c r="I2387" s="4"/>
+    </row>
+    <row r="2388" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2388" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2388" s="5">
+        <v>9339</v>
+      </c>
+      <c r="D2388" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2388" s="4"/>
+      <c r="F2388" s="4"/>
+      <c r="G2388" s="4"/>
+      <c r="H2388" s="4"/>
+      <c r="I2388" s="4"/>
+    </row>
+    <row r="2389" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2389" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2389" s="5">
+        <v>9340</v>
+      </c>
+      <c r="D2389" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2389" s="4"/>
+      <c r="F2389" s="4"/>
+      <c r="G2389" s="4"/>
+      <c r="H2389" s="4"/>
+      <c r="I2389" s="4"/>
+    </row>
+    <row r="2390" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2390" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2390" s="5">
+        <v>9341</v>
+      </c>
+      <c r="D2390" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2390" s="4"/>
+      <c r="F2390" s="4"/>
+      <c r="G2390" s="4"/>
+      <c r="H2390" s="4"/>
+      <c r="I2390" s="4"/>
+    </row>
+    <row r="2391" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2391" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2391" s="5">
+        <v>9342</v>
+      </c>
+      <c r="D2391" s="4">
+        <v>16</v>
+      </c>
+      <c r="E2391" s="4"/>
+      <c r="F2391" s="4"/>
+      <c r="G2391" s="4"/>
+      <c r="H2391" s="4"/>
+      <c r="I2391" s="4"/>
+    </row>
+    <row r="2392" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2392" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2392" s="5">
+        <v>9343</v>
+      </c>
+      <c r="D2392" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2392" s="4"/>
+      <c r="F2392" s="4"/>
+      <c r="G2392" s="4"/>
+      <c r="H2392" s="4"/>
+      <c r="I2392" s="4"/>
+    </row>
+    <row r="2393" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2393" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2393" s="5">
+        <v>9344</v>
+      </c>
+      <c r="D2393" s="4">
+        <v>16</v>
+      </c>
+      <c r="E2393" s="4"/>
+      <c r="F2393" s="4"/>
+      <c r="G2393" s="4"/>
+      <c r="H2393" s="4"/>
+      <c r="I2393" s="4"/>
+    </row>
+    <row r="2394" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2394" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2394" s="5">
+        <v>9345</v>
+      </c>
+      <c r="D2394" s="4"/>
+      <c r="E2394" s="4"/>
+      <c r="F2394" s="4"/>
+      <c r="G2394" s="4"/>
+      <c r="H2394" s="4">
+        <v>8</v>
+      </c>
+      <c r="I2394" s="4"/>
+    </row>
+    <row r="2395" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2395" s="4">
+        <v>11</v>
+      </c>
+      <c r="C2395" s="5">
+        <v>9346</v>
+      </c>
+      <c r="D2395" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2395" s="4"/>
+      <c r="F2395" s="4"/>
+      <c r="G2395" s="4"/>
+      <c r="H2395" s="4"/>
+      <c r="I2395" s="4"/>
+    </row>
+    <row r="2396" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2396" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2396" s="14">
+        <f>SUM(D2385:D2395)</f>
+        <v>85.5</v>
+      </c>
+      <c r="E2396" s="14">
+        <f>SUM(E2385:E2395)</f>
+        <v>0</v>
+      </c>
+      <c r="F2396" s="14">
+        <f>SUM(F2385:F2395)</f>
+        <v>0</v>
+      </c>
+      <c r="G2396" s="14">
+        <f>SUM(G2385:G2395)</f>
+        <v>5.5</v>
+      </c>
+      <c r="H2396" s="14">
+        <f>SUM(H2385:H2395)</f>
+        <v>8</v>
+      </c>
+      <c r="I2396" s="14">
+        <f>SUM(I2385:I2395)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2398" s="16">
+        <v>43712</v>
+      </c>
+      <c r="B2398" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2398" s="5">
+        <v>9347</v>
+      </c>
+      <c r="D2398" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2398" s="4"/>
+      <c r="F2398" s="4"/>
+      <c r="G2398" s="4"/>
+      <c r="H2398" s="4"/>
+      <c r="I2398" s="4"/>
+    </row>
+    <row r="2399" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2399" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2399" s="5">
+        <v>9348</v>
+      </c>
+      <c r="D2399" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2399" s="4"/>
+      <c r="F2399" s="4"/>
+      <c r="G2399" s="4"/>
+      <c r="H2399" s="4"/>
+      <c r="I2399" s="4"/>
+    </row>
+    <row r="2400" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2400" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2400" s="5">
+        <v>9349</v>
+      </c>
+      <c r="D2400" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2400" s="4"/>
+      <c r="F2400" s="4"/>
+      <c r="G2400" s="4"/>
+      <c r="H2400" s="4"/>
+      <c r="I2400" s="4"/>
+    </row>
+    <row r="2401" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2401" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2401" s="5">
+        <v>9350</v>
+      </c>
+      <c r="D2401" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2401" s="4"/>
+      <c r="F2401" s="4"/>
+      <c r="G2401" s="4"/>
+      <c r="H2401" s="4"/>
+      <c r="I2401" s="4"/>
+    </row>
+    <row r="2402" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2402" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2402" s="5">
+        <v>9351</v>
+      </c>
+      <c r="D2402" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2402" s="4"/>
+      <c r="F2402" s="4"/>
+      <c r="G2402" s="4"/>
+      <c r="H2402" s="4"/>
+      <c r="I2402" s="4"/>
+    </row>
+    <row r="2403" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2403" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2403" s="5">
+        <v>9352</v>
+      </c>
+      <c r="D2403" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2403" s="4"/>
+      <c r="F2403" s="4"/>
+      <c r="G2403" s="4"/>
+      <c r="H2403" s="4"/>
+      <c r="I2403" s="4"/>
+    </row>
+    <row r="2404" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2404" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2404" s="5">
+        <v>9353</v>
+      </c>
+      <c r="D2404" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2404" s="4"/>
+      <c r="F2404" s="4"/>
+      <c r="G2404" s="4"/>
+      <c r="H2404" s="4"/>
+      <c r="I2404" s="4"/>
+    </row>
+    <row r="2405" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2405" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2405" s="5">
+        <v>9354</v>
+      </c>
+      <c r="D2405" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2405" s="4"/>
+      <c r="F2405" s="4"/>
+      <c r="G2405" s="4"/>
+      <c r="H2405" s="4"/>
+      <c r="I2405" s="4"/>
+    </row>
+    <row r="2406" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2406" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2406" s="5">
+        <v>9355</v>
+      </c>
+      <c r="D2406" s="4">
+        <v>40</v>
+      </c>
+      <c r="E2406" s="4"/>
+      <c r="F2406" s="4"/>
+      <c r="G2406" s="4"/>
+      <c r="H2406" s="4"/>
+      <c r="I2406" s="4"/>
+    </row>
+    <row r="2407" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2407" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2407" s="5">
+        <v>9356</v>
+      </c>
+      <c r="D2407" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2407" s="4"/>
+      <c r="F2407" s="4"/>
+      <c r="G2407" s="4"/>
+      <c r="H2407" s="4"/>
+      <c r="I2407" s="4"/>
+    </row>
+    <row r="2408" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2408" s="4">
+        <v>11</v>
+      </c>
+      <c r="C2408" s="5">
+        <v>9357</v>
+      </c>
+      <c r="D2408" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2408" s="4"/>
+      <c r="F2408" s="4"/>
+      <c r="G2408" s="4"/>
+      <c r="H2408" s="4"/>
+      <c r="I2408" s="4"/>
+    </row>
+    <row r="2409" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2409" s="4">
+        <v>12</v>
+      </c>
+      <c r="C2409" s="5">
+        <v>9358</v>
+      </c>
+      <c r="D2409" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2409" s="4"/>
+      <c r="F2409" s="4"/>
+      <c r="G2409" s="4"/>
+      <c r="H2409" s="4"/>
+      <c r="I2409" s="4"/>
+    </row>
+    <row r="2410" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2410" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2410" s="5">
+        <v>9359</v>
+      </c>
+      <c r="D2410" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2410" s="4"/>
+      <c r="F2410" s="4"/>
+      <c r="G2410" s="4"/>
+      <c r="H2410" s="4"/>
+      <c r="I2410" s="4"/>
+    </row>
+    <row r="2411" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2411" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2411" s="5">
+        <v>9360</v>
+      </c>
+      <c r="D2411" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2411" s="4"/>
+      <c r="F2411" s="4"/>
+      <c r="G2411" s="4"/>
+      <c r="H2411" s="4"/>
+      <c r="I2411" s="4"/>
+    </row>
+    <row r="2412" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2412" s="4">
+        <v>15</v>
+      </c>
+      <c r="C2412" s="5">
+        <v>9361</v>
+      </c>
+      <c r="D2412" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2412" s="4"/>
+      <c r="F2412" s="4"/>
+      <c r="G2412" s="4"/>
+      <c r="H2412" s="4"/>
+      <c r="I2412" s="4"/>
+    </row>
+    <row r="2413" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2413" s="4">
+        <v>16</v>
+      </c>
+      <c r="C2413" s="5">
+        <v>9362</v>
+      </c>
+      <c r="D2413" s="4">
+        <v>24</v>
+      </c>
+      <c r="E2413" s="4"/>
+      <c r="F2413" s="4"/>
+      <c r="G2413" s="4"/>
+      <c r="H2413" s="4"/>
+      <c r="I2413" s="4"/>
+    </row>
+    <row r="2414" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2414" s="4">
+        <v>17</v>
+      </c>
+      <c r="C2414" s="5">
+        <v>9363</v>
+      </c>
+      <c r="D2414" s="4"/>
+      <c r="E2414" s="4"/>
+      <c r="F2414" s="4"/>
+      <c r="G2414" s="4"/>
+      <c r="H2414" s="4"/>
+      <c r="I2414" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2415" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2415" s="4">
+        <v>18</v>
+      </c>
+      <c r="C2415" s="5">
+        <v>9364</v>
+      </c>
+      <c r="D2415" s="4"/>
+      <c r="E2415" s="4"/>
+      <c r="F2415" s="4"/>
+      <c r="G2415" s="4"/>
+      <c r="H2415" s="4"/>
+      <c r="I2415" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="2416" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2416" s="4">
+        <v>19</v>
+      </c>
+      <c r="C2416" s="5">
+        <v>9365</v>
+      </c>
+      <c r="D2416" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2416" s="4"/>
+      <c r="F2416" s="4"/>
+      <c r="G2416" s="4"/>
+      <c r="H2416" s="4"/>
+      <c r="I2416" s="4"/>
+    </row>
+    <row r="2417" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2417" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2417" s="14">
+        <f>SUM(D2398:D2416)</f>
+        <v>181</v>
+      </c>
+      <c r="E2417" s="14">
+        <f t="shared" ref="E2417:I2417" si="205">SUM(E2398:E2416)</f>
+        <v>0</v>
+      </c>
+      <c r="F2417" s="14">
+        <f t="shared" si="205"/>
+        <v>0</v>
+      </c>
+      <c r="G2417" s="14">
+        <f t="shared" si="205"/>
+        <v>0</v>
+      </c>
+      <c r="H2417" s="14">
+        <f t="shared" si="205"/>
+        <v>0</v>
+      </c>
+      <c r="I2417" s="14">
+        <f t="shared" si="205"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2419" s="16">
+        <v>43713</v>
+      </c>
+      <c r="B2419" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2419" s="5">
+        <v>9370</v>
+      </c>
+      <c r="D2419" s="4">
+        <v>16</v>
+      </c>
+      <c r="E2419" s="4"/>
+      <c r="F2419" s="4"/>
+      <c r="G2419" s="4"/>
+      <c r="H2419" s="4"/>
+      <c r="I2419" s="4"/>
+    </row>
+    <row r="2420" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2420" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2420" s="5">
+        <v>9371</v>
+      </c>
+      <c r="D2420" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2420" s="4"/>
+      <c r="F2420" s="4"/>
+      <c r="G2420" s="4"/>
+      <c r="H2420" s="4"/>
+      <c r="I2420" s="4"/>
+    </row>
+    <row r="2421" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2421" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2421" s="5">
+        <v>9372</v>
+      </c>
+      <c r="D2421" s="4">
+        <v>32</v>
+      </c>
+      <c r="E2421" s="4"/>
+      <c r="F2421" s="4"/>
+      <c r="G2421" s="4"/>
+      <c r="H2421" s="4"/>
+      <c r="I2421" s="4"/>
+    </row>
+    <row r="2422" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2422" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2422" s="5">
+        <v>9373</v>
+      </c>
+      <c r="D2422" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2422" s="4"/>
+      <c r="F2422" s="4"/>
+      <c r="G2422" s="4"/>
+      <c r="H2422" s="4"/>
+      <c r="I2422" s="4"/>
+    </row>
+    <row r="2423" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2423" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2423" s="5">
+        <v>9374</v>
+      </c>
+      <c r="D2423" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2423" s="4"/>
+      <c r="F2423" s="4"/>
+      <c r="G2423" s="4"/>
+      <c r="H2423" s="4"/>
+      <c r="I2423" s="4"/>
+    </row>
+    <row r="2424" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2424" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2424" s="5">
+        <v>9375</v>
+      </c>
+      <c r="D2424" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2424" s="4"/>
+      <c r="F2424" s="4"/>
+      <c r="G2424" s="4"/>
+      <c r="H2424" s="4"/>
+      <c r="I2424" s="4"/>
+    </row>
+    <row r="2425" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2425" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2425" s="5">
+        <v>9376</v>
+      </c>
+      <c r="D2425" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2425" s="4"/>
+      <c r="F2425" s="4"/>
+      <c r="G2425" s="4"/>
+      <c r="H2425" s="4"/>
+      <c r="I2425" s="4"/>
+    </row>
+    <row r="2426" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2426" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2426" s="5">
+        <v>9377</v>
+      </c>
+      <c r="D2426" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2426" s="4"/>
+      <c r="F2426" s="4"/>
+      <c r="G2426" s="4"/>
+      <c r="H2426" s="4"/>
+      <c r="I2426" s="4"/>
+    </row>
+    <row r="2427" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2427" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2427" s="5">
+        <v>9378</v>
+      </c>
+      <c r="D2427" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2427" s="4"/>
+      <c r="F2427" s="4"/>
+      <c r="G2427" s="4"/>
+      <c r="H2427" s="4"/>
+      <c r="I2427" s="4"/>
+    </row>
+    <row r="2428" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2428" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2428" s="5">
+        <v>9379</v>
+      </c>
+      <c r="D2428" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2428" s="4"/>
+      <c r="F2428" s="4"/>
+      <c r="G2428" s="4"/>
+      <c r="H2428" s="4"/>
+      <c r="I2428" s="4"/>
+    </row>
+    <row r="2429" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2429" s="4">
+        <v>11</v>
+      </c>
+      <c r="C2429" s="5">
+        <v>9380</v>
+      </c>
+      <c r="D2429" s="4"/>
+      <c r="E2429" s="4"/>
+      <c r="F2429" s="4"/>
+      <c r="G2429" s="4"/>
+      <c r="H2429" s="4">
+        <v>6</v>
+      </c>
+      <c r="I2429" s="4"/>
+    </row>
+    <row r="2430" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2430" s="4">
+        <v>12</v>
+      </c>
+      <c r="C2430" s="5">
+        <v>9381</v>
+      </c>
+      <c r="D2430" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2430" s="4"/>
+      <c r="F2430" s="4"/>
+      <c r="G2430" s="4"/>
+      <c r="H2430" s="4"/>
+      <c r="I2430" s="4"/>
+    </row>
+    <row r="2431" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2431" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2431" s="5">
+        <v>9382</v>
+      </c>
+      <c r="D2431" s="4">
+        <v>6</v>
+      </c>
+      <c r="E2431" s="4"/>
+      <c r="F2431" s="4"/>
+      <c r="G2431" s="4"/>
+      <c r="H2431" s="4"/>
+      <c r="I2431" s="4"/>
+    </row>
+    <row r="2432" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2432" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2432" s="5">
+        <v>9383</v>
+      </c>
+      <c r="D2432" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2432" s="4"/>
+      <c r="F2432" s="4"/>
+      <c r="G2432" s="4"/>
+      <c r="H2432" s="4"/>
+      <c r="I2432" s="4"/>
+    </row>
+    <row r="2433" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2433" s="4">
+        <v>15</v>
+      </c>
+      <c r="C2433" s="5">
+        <v>9384</v>
+      </c>
+      <c r="D2433" s="4"/>
+      <c r="E2433" s="4"/>
+      <c r="F2433" s="4"/>
+      <c r="G2433" s="4"/>
+      <c r="H2433" s="4"/>
+      <c r="I2433" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2434" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2434" s="14">
+        <f>SUM(D2419:D2433)</f>
+        <v>134</v>
+      </c>
+      <c r="E2434" s="14">
+        <f>SUM(E2419:E2433)</f>
+        <v>0</v>
+      </c>
+      <c r="F2434" s="14">
+        <f>SUM(F2419:F2433)</f>
+        <v>0</v>
+      </c>
+      <c r="G2434" s="14">
+        <f>SUM(G2419:G2433)</f>
+        <v>0</v>
+      </c>
+      <c r="H2434" s="14">
+        <f>SUM(H2419:H2433)</f>
+        <v>6</v>
+      </c>
+      <c r="I2434" s="14">
+        <f>SUM(I2419:I2433)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2436" s="16">
+        <v>43714</v>
+      </c>
+      <c r="B2436" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2436" s="5">
+        <v>9385</v>
+      </c>
+      <c r="D2436" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2436" s="4"/>
+      <c r="F2436" s="4"/>
+      <c r="G2436" s="4"/>
+      <c r="H2436" s="4"/>
+      <c r="I2436" s="4"/>
+    </row>
+    <row r="2437" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2437" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2437" s="5">
+        <v>9386</v>
+      </c>
+      <c r="D2437" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2437" s="4"/>
+      <c r="F2437" s="4"/>
+      <c r="G2437" s="4"/>
+      <c r="H2437" s="4"/>
+      <c r="I2437" s="4"/>
+    </row>
+    <row r="2438" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2438" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2438" s="5">
+        <v>9387</v>
+      </c>
+      <c r="D2438" s="4">
+        <v>24</v>
+      </c>
+      <c r="E2438" s="4"/>
+      <c r="F2438" s="4"/>
+      <c r="G2438" s="4"/>
+      <c r="H2438" s="4"/>
+      <c r="I2438" s="4"/>
+    </row>
+    <row r="2439" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2439" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2439" s="5">
+        <v>9388</v>
+      </c>
+      <c r="D2439" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2439" s="4"/>
+      <c r="F2439" s="4"/>
+      <c r="G2439" s="4"/>
+      <c r="H2439" s="4"/>
+      <c r="I2439" s="4"/>
+    </row>
+    <row r="2440" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2440" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2440" s="5">
+        <v>9389</v>
+      </c>
+      <c r="D2440" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2440" s="4"/>
+      <c r="F2440" s="4"/>
+      <c r="G2440" s="4"/>
+      <c r="H2440" s="4"/>
+      <c r="I2440" s="4"/>
+    </row>
+    <row r="2441" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2441" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2441" s="5">
+        <v>9390</v>
+      </c>
+      <c r="D2441" s="4"/>
+      <c r="E2441" s="4"/>
+      <c r="F2441" s="4"/>
+      <c r="G2441" s="4">
+        <v>6</v>
+      </c>
+      <c r="H2441" s="4"/>
+      <c r="I2441" s="4"/>
+    </row>
+    <row r="2442" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2442" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2442" s="5">
+        <v>9391</v>
+      </c>
+      <c r="D2442" s="4"/>
+      <c r="E2442" s="4"/>
+      <c r="F2442" s="4"/>
+      <c r="G2442" s="4"/>
+      <c r="H2442" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="I2442" s="4"/>
+    </row>
+    <row r="2443" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2443" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2443" s="5">
+        <v>9392</v>
+      </c>
+      <c r="D2443" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2443" s="4"/>
+      <c r="F2443" s="4"/>
+      <c r="G2443" s="4"/>
+      <c r="H2443" s="4"/>
+      <c r="I2443" s="4"/>
+    </row>
+    <row r="2444" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2444" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2444" s="5">
+        <v>9393</v>
+      </c>
+      <c r="D2444" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2444" s="4"/>
+      <c r="F2444" s="4"/>
+      <c r="G2444" s="4"/>
+      <c r="H2444" s="4"/>
+      <c r="I2444" s="4"/>
+    </row>
+    <row r="2445" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2445" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2445" s="5">
+        <v>9394</v>
+      </c>
+      <c r="D2445" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2445" s="4"/>
+      <c r="F2445" s="4"/>
+      <c r="G2445" s="4"/>
+      <c r="H2445" s="4"/>
+      <c r="I2445" s="4"/>
+    </row>
+    <row r="2446" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2446" s="4">
+        <v>11</v>
+      </c>
+      <c r="C2446" s="5">
+        <v>9395</v>
+      </c>
+      <c r="D2446" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2446" s="4"/>
+      <c r="F2446" s="4"/>
+      <c r="G2446" s="4"/>
+      <c r="H2446" s="4"/>
+      <c r="I2446" s="4"/>
+    </row>
+    <row r="2447" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2447" s="4">
+        <v>12</v>
+      </c>
+      <c r="C2447" s="5">
+        <v>9396</v>
+      </c>
+      <c r="D2447" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2447" s="4"/>
+      <c r="F2447" s="4"/>
+      <c r="G2447" s="4"/>
+      <c r="H2447" s="4"/>
+      <c r="I2447" s="4"/>
+    </row>
+    <row r="2448" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2448" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2448" s="5">
+        <v>9397</v>
+      </c>
+      <c r="D2448" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2448" s="4"/>
+      <c r="F2448" s="4"/>
+      <c r="G2448" s="4"/>
+      <c r="H2448" s="4"/>
+      <c r="I2448" s="4"/>
+    </row>
+    <row r="2449" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2449" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2449" s="5">
+        <v>9398</v>
+      </c>
+      <c r="D2449" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2449" s="4"/>
+      <c r="F2449" s="4"/>
+      <c r="G2449" s="4"/>
+      <c r="H2449" s="4"/>
+      <c r="I2449" s="4"/>
+    </row>
+    <row r="2450" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2450" s="4">
+        <v>15</v>
+      </c>
+      <c r="C2450" s="5">
+        <v>9399</v>
+      </c>
+      <c r="D2450" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2450" s="4">
+        <v>8</v>
+      </c>
+      <c r="F2450" s="4"/>
+      <c r="G2450" s="4"/>
+      <c r="H2450" s="4"/>
+      <c r="I2450" s="4"/>
+    </row>
+    <row r="2451" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2451" s="4">
+        <v>16</v>
+      </c>
+      <c r="C2451" s="5">
+        <v>9400</v>
+      </c>
+      <c r="D2451" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2451" s="4"/>
+      <c r="F2451" s="4"/>
+      <c r="G2451" s="4"/>
+      <c r="H2451" s="4"/>
+      <c r="I2451" s="4"/>
+    </row>
+    <row r="2452" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2452" s="4">
+        <v>17</v>
+      </c>
+      <c r="C2452" s="5">
+        <v>6151</v>
+      </c>
+      <c r="D2452" s="4">
+        <v>40</v>
+      </c>
+      <c r="E2452" s="4"/>
+      <c r="F2452" s="4"/>
+      <c r="G2452" s="4"/>
+      <c r="H2452" s="4"/>
+      <c r="I2452" s="4"/>
+    </row>
+    <row r="2453" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2453" s="4">
+        <v>18</v>
+      </c>
+      <c r="C2453" s="5">
+        <v>6152</v>
+      </c>
+      <c r="D2453" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E2453" s="4"/>
+      <c r="F2453" s="4"/>
+      <c r="G2453" s="4"/>
+      <c r="H2453" s="4"/>
+      <c r="I2453" s="4"/>
+    </row>
+    <row r="2454" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2454" s="4">
+        <v>19</v>
+      </c>
+      <c r="C2454" s="5">
+        <v>6153</v>
+      </c>
+      <c r="D2454" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2454" s="4"/>
+      <c r="F2454" s="4"/>
+      <c r="G2454" s="4"/>
+      <c r="H2454" s="4"/>
+      <c r="I2454" s="4"/>
+    </row>
+    <row r="2455" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2455" s="4">
+        <v>20</v>
+      </c>
+      <c r="C2455" s="5">
+        <v>9467</v>
+      </c>
+      <c r="D2455" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2455" s="4"/>
+      <c r="F2455" s="4"/>
+      <c r="G2455" s="4"/>
+      <c r="H2455" s="4"/>
+      <c r="I2455" s="4"/>
+    </row>
+    <row r="2456" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2456" s="4">
+        <v>21</v>
+      </c>
+      <c r="C2456" s="5">
+        <v>6154</v>
+      </c>
+      <c r="D2456" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2456" s="4"/>
+      <c r="F2456" s="4"/>
+      <c r="G2456" s="4"/>
+      <c r="H2456" s="4"/>
+      <c r="I2456" s="4"/>
+    </row>
+    <row r="2457" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2457" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2457" s="14">
+        <f>SUM(D2436:D2456)</f>
+        <v>192.5</v>
+      </c>
+      <c r="E2457" s="14">
+        <f t="shared" ref="E2457:I2457" si="206">SUM(E2436:E2456)</f>
+        <v>8</v>
+      </c>
+      <c r="F2457" s="14">
+        <f t="shared" si="206"/>
+        <v>0</v>
+      </c>
+      <c r="G2457" s="14">
+        <f t="shared" si="206"/>
+        <v>6</v>
+      </c>
+      <c r="H2457" s="14">
+        <f t="shared" si="206"/>
+        <v>6.5</v>
+      </c>
+      <c r="I2457" s="14">
+        <f t="shared" si="206"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2459" s="16">
+        <v>43715</v>
+      </c>
+      <c r="B2459" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2459" s="5">
+        <v>6155</v>
+      </c>
+      <c r="D2459" s="4">
+        <v>32</v>
+      </c>
+      <c r="E2459" s="4"/>
+      <c r="F2459" s="4"/>
+      <c r="G2459" s="4"/>
+      <c r="H2459" s="4"/>
+      <c r="I2459" s="4"/>
+    </row>
+    <row r="2460" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2460" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2460" s="5">
+        <v>6156</v>
+      </c>
+      <c r="D2460" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2460" s="4"/>
+      <c r="F2460" s="4"/>
+      <c r="G2460" s="4"/>
+      <c r="H2460" s="4"/>
+      <c r="I2460" s="4"/>
+    </row>
+    <row r="2461" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2461" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2461" s="5">
+        <v>6157</v>
+      </c>
+      <c r="D2461" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2461" s="4"/>
+      <c r="F2461" s="4"/>
+      <c r="G2461" s="4"/>
+      <c r="H2461" s="4"/>
+      <c r="I2461" s="4"/>
+    </row>
+    <row r="2462" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2462" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2462" s="5">
+        <v>6158</v>
+      </c>
+      <c r="D2462" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2462" s="4"/>
+      <c r="F2462" s="4"/>
+      <c r="G2462" s="4"/>
+      <c r="H2462" s="4"/>
+      <c r="I2462" s="4"/>
+    </row>
+    <row r="2463" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2463" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2463" s="5">
+        <v>6159</v>
+      </c>
+      <c r="D2463" s="4"/>
+      <c r="E2463" s="4"/>
+      <c r="F2463" s="4"/>
+      <c r="G2463" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="H2463" s="4"/>
+      <c r="I2463" s="4"/>
+    </row>
+    <row r="2464" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2464" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2464" s="5">
+        <v>6160</v>
+      </c>
+      <c r="D2464" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2464" s="4"/>
+      <c r="F2464" s="4"/>
+      <c r="G2464" s="4"/>
+      <c r="H2464" s="4"/>
+      <c r="I2464" s="4"/>
+    </row>
+    <row r="2465" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2465" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2465" s="5">
+        <v>6161</v>
+      </c>
+      <c r="D2465" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2465" s="4"/>
+      <c r="F2465" s="4"/>
+      <c r="G2465" s="4"/>
+      <c r="H2465" s="4"/>
+      <c r="I2465" s="4"/>
+    </row>
+    <row r="2466" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2466" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2466" s="5">
+        <v>6162</v>
+      </c>
+      <c r="D2466" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2466" s="4"/>
+      <c r="F2466" s="4"/>
+      <c r="G2466" s="4"/>
+      <c r="H2466" s="4"/>
+      <c r="I2466" s="4"/>
+    </row>
+    <row r="2467" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2467" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2467" s="5">
+        <v>6163</v>
+      </c>
+      <c r="D2467" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2467" s="4"/>
+      <c r="F2467" s="4"/>
+      <c r="G2467" s="4"/>
+      <c r="H2467" s="4"/>
+      <c r="I2467" s="4"/>
+    </row>
+    <row r="2468" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2468" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2468" s="5">
+        <v>9468</v>
+      </c>
+      <c r="D2468" s="4"/>
+      <c r="E2468" s="4"/>
+      <c r="F2468" s="4"/>
+      <c r="G2468" s="4"/>
+      <c r="H2468" s="4"/>
+      <c r="I2468" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2469" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2469" s="14">
+        <f>SUM(D2459:D2468)</f>
+        <v>85</v>
+      </c>
+      <c r="E2469" s="14">
+        <f>SUM(E2459:E2468)</f>
+        <v>0</v>
+      </c>
+      <c r="F2469" s="14">
+        <f>SUM(F2459:F2468)</f>
+        <v>0</v>
+      </c>
+      <c r="G2469" s="14">
+        <f>SUM(G2459:G2468)</f>
+        <v>5.5</v>
+      </c>
+      <c r="H2469" s="14">
+        <f>SUM(H2459:H2468)</f>
+        <v>0</v>
+      </c>
+      <c r="I2469" s="14">
+        <f>SUM(I2459:I2468)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2471" s="16">
+        <v>43717</v>
+      </c>
+      <c r="B2471" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2471" s="5">
+        <v>6164</v>
+      </c>
+      <c r="D2471" s="4"/>
+      <c r="E2471" s="4"/>
+      <c r="F2471" s="4"/>
+      <c r="G2471" s="4">
+        <v>3</v>
+      </c>
+      <c r="H2471" s="4"/>
+      <c r="I2471" s="4"/>
+    </row>
+    <row r="2472" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2472" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2472" s="5">
+        <v>6165</v>
+      </c>
+      <c r="D2472" s="4"/>
+      <c r="E2472" s="4"/>
+      <c r="F2472" s="4"/>
+      <c r="G2472" s="4">
+        <v>8</v>
+      </c>
+      <c r="H2472" s="4"/>
+      <c r="I2472" s="4"/>
+    </row>
+    <row r="2473" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2473" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2473" s="5">
+        <v>6166</v>
+      </c>
+      <c r="D2473" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2473" s="4"/>
+      <c r="F2473" s="4"/>
+      <c r="G2473" s="4"/>
+      <c r="H2473" s="4"/>
+      <c r="I2473" s="4"/>
+    </row>
+    <row r="2474" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2474" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2474" s="5">
+        <v>6167</v>
+      </c>
+      <c r="D2474" s="4">
+        <v>24</v>
+      </c>
+      <c r="E2474" s="4"/>
+      <c r="F2474" s="4"/>
+      <c r="G2474" s="4"/>
+      <c r="H2474" s="4"/>
+      <c r="I2474" s="4"/>
+    </row>
+    <row r="2475" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2475" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2475" s="5">
+        <v>6168</v>
+      </c>
+      <c r="D2475" s="4"/>
+      <c r="E2475" s="4"/>
+      <c r="F2475" s="4"/>
+      <c r="G2475" s="4">
+        <v>8</v>
+      </c>
+      <c r="H2475" s="4"/>
+      <c r="I2475" s="4"/>
+    </row>
+    <row r="2476" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2476" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2476" s="5">
+        <v>6169</v>
+      </c>
+      <c r="D2476" s="4">
+        <v>16</v>
+      </c>
+      <c r="E2476" s="4"/>
+      <c r="F2476" s="4"/>
+      <c r="G2476" s="4"/>
+      <c r="H2476" s="4"/>
+      <c r="I2476" s="4"/>
+    </row>
+    <row r="2477" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2477" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2477" s="5">
+        <v>6170</v>
+      </c>
+      <c r="D2477" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E2477" s="4"/>
+      <c r="F2477" s="4"/>
+      <c r="G2477" s="4"/>
+      <c r="H2477" s="4"/>
+      <c r="I2477" s="4"/>
+    </row>
+    <row r="2478" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2478" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2478" s="5">
+        <v>9469</v>
+      </c>
+      <c r="D2478" s="4"/>
+      <c r="E2478" s="4"/>
+      <c r="F2478" s="4"/>
+      <c r="G2478" s="4"/>
+      <c r="H2478" s="4"/>
+      <c r="I2478" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2479" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2479" s="5">
+        <v>9470</v>
+      </c>
+      <c r="D2479" s="4"/>
+      <c r="E2479" s="4"/>
+      <c r="F2479" s="4"/>
+      <c r="G2479" s="4"/>
+      <c r="H2479" s="4"/>
+      <c r="I2479" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2480" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2480" s="5">
+        <v>9471</v>
+      </c>
+      <c r="D2480" s="4"/>
+      <c r="E2480" s="4"/>
+      <c r="F2480" s="4"/>
+      <c r="G2480" s="4"/>
+      <c r="H2480" s="4"/>
+      <c r="I2480" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2481" s="4">
+        <v>11</v>
+      </c>
+      <c r="C2481" s="5">
+        <v>9472</v>
+      </c>
+      <c r="D2481" s="4"/>
+      <c r="E2481" s="4"/>
+      <c r="F2481" s="4"/>
+      <c r="G2481" s="4"/>
+      <c r="H2481" s="4"/>
+      <c r="I2481" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2482" s="4">
+        <v>12</v>
+      </c>
+      <c r="C2482" s="5">
+        <v>9473</v>
+      </c>
+      <c r="D2482" s="4"/>
+      <c r="E2482" s="4"/>
+      <c r="F2482" s="4"/>
+      <c r="G2482" s="4"/>
+      <c r="H2482" s="4"/>
+      <c r="I2482" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2483" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2483" s="14">
+        <f>SUM(D2471:D2482)</f>
+        <v>52.5</v>
+      </c>
+      <c r="E2483" s="14">
+        <f>SUM(E2471:E2482)</f>
+        <v>0</v>
+      </c>
+      <c r="F2483" s="14">
+        <f>SUM(F2471:F2482)</f>
+        <v>0</v>
+      </c>
+      <c r="G2483" s="14">
+        <f>SUM(G2471:G2482)</f>
+        <v>19</v>
+      </c>
+      <c r="H2483" s="14">
+        <f>SUM(H2471:H2482)</f>
+        <v>0</v>
+      </c>
+      <c r="I2483" s="14">
+        <f>SUM(I2471:I2482)</f>
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2485" s="16">
+        <v>43718</v>
+      </c>
+      <c r="B2485" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2485" s="5">
+        <v>6171</v>
+      </c>
+      <c r="D2485" s="4"/>
+      <c r="E2485" s="4"/>
+      <c r="F2485" s="4"/>
+      <c r="G2485" s="4">
+        <v>8</v>
+      </c>
+      <c r="H2485" s="4"/>
+      <c r="I2485" s="4"/>
+    </row>
+    <row r="2486" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2486" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2486" s="5">
+        <v>6172</v>
+      </c>
+      <c r="D2486" s="4"/>
+      <c r="E2486" s="4"/>
+      <c r="F2486" s="4"/>
+      <c r="G2486" s="4">
+        <v>16</v>
+      </c>
+      <c r="H2486" s="4"/>
+      <c r="I2486" s="4"/>
+    </row>
+    <row r="2487" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2487" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2487" s="5">
+        <v>6174</v>
+      </c>
+      <c r="D2487" s="4"/>
+      <c r="E2487" s="4"/>
+      <c r="F2487" s="4"/>
+      <c r="G2487" s="4"/>
+      <c r="H2487" s="4"/>
+      <c r="I2487" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2488" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2488" s="5">
+        <v>6175</v>
+      </c>
+      <c r="D2488" s="4"/>
+      <c r="E2488" s="4"/>
+      <c r="F2488" s="4"/>
+      <c r="G2488" s="4"/>
+      <c r="H2488" s="4"/>
+      <c r="I2488" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2489" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2489" s="5">
+        <v>6176</v>
+      </c>
+      <c r="D2489" s="4"/>
+      <c r="E2489" s="4"/>
+      <c r="F2489" s="4"/>
+      <c r="G2489" s="4"/>
+      <c r="H2489" s="4"/>
+      <c r="I2489" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2490" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2490" s="5">
+        <v>6177</v>
+      </c>
+      <c r="D2490" s="4"/>
+      <c r="E2490" s="4"/>
+      <c r="F2490" s="4"/>
+      <c r="G2490" s="4"/>
+      <c r="H2490" s="4"/>
+      <c r="I2490" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2491" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2491" s="5">
+        <v>6178</v>
+      </c>
+      <c r="D2491" s="4"/>
+      <c r="E2491" s="4"/>
+      <c r="F2491" s="4"/>
+      <c r="G2491" s="4"/>
+      <c r="H2491" s="4"/>
+      <c r="I2491" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2492" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2492" s="14">
+        <f>SUM(D2485:D2491)</f>
+        <v>0</v>
+      </c>
+      <c r="E2492" s="14">
+        <f>SUM(E2485:E2491)</f>
+        <v>0</v>
+      </c>
+      <c r="F2492" s="14">
+        <f>SUM(F2485:F2491)</f>
+        <v>0</v>
+      </c>
+      <c r="G2492" s="14">
+        <f>SUM(G2485:G2491)</f>
+        <v>24</v>
+      </c>
+      <c r="H2492" s="14">
+        <f>SUM(H2485:H2491)</f>
+        <v>0</v>
+      </c>
+      <c r="I2492" s="14">
+        <f>SUM(I2485:I2491)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2494" s="16">
+        <v>43719</v>
+      </c>
+      <c r="B2494" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2494" s="5">
+        <v>6173</v>
+      </c>
+      <c r="D2494" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2494" s="4"/>
+      <c r="F2494" s="4"/>
+      <c r="G2494" s="4"/>
+      <c r="H2494" s="4"/>
+      <c r="I2494" s="4"/>
+    </row>
+    <row r="2495" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2495" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2495" s="5">
+        <v>6174</v>
+      </c>
+      <c r="D2495" s="4"/>
+      <c r="E2495" s="4"/>
+      <c r="F2495" s="4"/>
+      <c r="G2495" s="4"/>
+      <c r="H2495" s="4">
+        <v>6</v>
+      </c>
+      <c r="I2495" s="4"/>
+    </row>
+    <row r="2496" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2496" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2496" s="5">
+        <v>6175</v>
+      </c>
+      <c r="D2496" s="4"/>
+      <c r="E2496" s="4"/>
+      <c r="F2496" s="4"/>
+      <c r="G2496" s="4"/>
+      <c r="H2496" s="4">
+        <v>6</v>
+      </c>
+      <c r="I2496" s="4"/>
+    </row>
+    <row r="2497" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2497" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2497" s="14">
+        <f>SUM(D2494:D2496)</f>
+        <v>8</v>
+      </c>
+      <c r="E2497" s="14">
+        <f>SUM(E2494:E2496)</f>
+        <v>0</v>
+      </c>
+      <c r="F2497" s="14">
+        <f>SUM(F2494:F2496)</f>
+        <v>0</v>
+      </c>
+      <c r="G2497" s="14">
+        <f>SUM(G2494:G2496)</f>
+        <v>0</v>
+      </c>
+      <c r="H2497" s="14">
+        <f>SUM(H2494:H2496)</f>
+        <v>12</v>
+      </c>
+      <c r="I2497" s="14">
+        <f>SUM(I2494:I2496)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2499" s="16">
+        <v>43721</v>
+      </c>
+      <c r="B2499" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2499" s="5">
+        <v>6176</v>
+      </c>
+      <c r="D2499" s="4"/>
+      <c r="E2499" s="4"/>
+      <c r="F2499" s="4"/>
+      <c r="G2499" s="4">
+        <v>8</v>
+      </c>
+      <c r="H2499" s="4"/>
+      <c r="I2499" s="4"/>
+    </row>
+    <row r="2500" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2500" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2500" s="5">
+        <v>6177</v>
+      </c>
+      <c r="D2500" s="4"/>
+      <c r="E2500" s="4"/>
+      <c r="F2500" s="4"/>
+      <c r="G2500" s="4">
+        <v>8</v>
+      </c>
+      <c r="H2500" s="4"/>
+      <c r="I2500" s="4"/>
+    </row>
+    <row r="2501" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2501" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2501" s="5">
+        <v>9479</v>
+      </c>
+      <c r="D2501" s="4"/>
+      <c r="E2501" s="4"/>
+      <c r="F2501" s="4"/>
+      <c r="G2501" s="4"/>
+      <c r="H2501" s="4"/>
+      <c r="I2501" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2502" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2502" s="5">
+        <v>9480</v>
+      </c>
+      <c r="D2502" s="4"/>
+      <c r="E2502" s="4"/>
+      <c r="F2502" s="4"/>
+      <c r="G2502" s="4"/>
+      <c r="H2502" s="4"/>
+      <c r="I2502" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2503" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2503" s="5">
+        <v>9481</v>
+      </c>
+      <c r="D2503" s="4"/>
+      <c r="E2503" s="4"/>
+      <c r="F2503" s="4"/>
+      <c r="G2503" s="4"/>
+      <c r="H2503" s="4"/>
+      <c r="I2503" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2504" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2504" s="5">
+        <v>9482</v>
+      </c>
+      <c r="D2504" s="4"/>
+      <c r="E2504" s="4"/>
+      <c r="F2504" s="4"/>
+      <c r="G2504" s="4"/>
+      <c r="H2504" s="4"/>
+      <c r="I2504" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2505" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2505" s="5">
+        <v>9483</v>
+      </c>
+      <c r="D2505" s="4"/>
+      <c r="E2505" s="4"/>
+      <c r="F2505" s="4"/>
+      <c r="G2505" s="4"/>
+      <c r="H2505" s="4"/>
+      <c r="I2505" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2506" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2506" s="5">
+        <v>9484</v>
+      </c>
+      <c r="D2506" s="4"/>
+      <c r="E2506" s="4"/>
+      <c r="F2506" s="4"/>
+      <c r="G2506" s="4"/>
+      <c r="H2506" s="4"/>
+      <c r="I2506" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2507" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2507" s="5">
+        <v>9485</v>
+      </c>
+      <c r="D2507" s="4"/>
+      <c r="E2507" s="4"/>
+      <c r="F2507" s="4"/>
+      <c r="G2507" s="4"/>
+      <c r="H2507" s="4"/>
+      <c r="I2507" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2508" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2508" s="5">
+        <v>9486</v>
+      </c>
+      <c r="D2508" s="4"/>
+      <c r="E2508" s="4"/>
+      <c r="F2508" s="4"/>
+      <c r="G2508" s="4"/>
+      <c r="H2508" s="4"/>
+      <c r="I2508" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2509" s="4">
+        <v>11</v>
+      </c>
+      <c r="C2509" s="5">
+        <v>9487</v>
+      </c>
+      <c r="D2509" s="4"/>
+      <c r="E2509" s="4"/>
+      <c r="F2509" s="4"/>
+      <c r="G2509" s="4"/>
+      <c r="H2509" s="4"/>
+      <c r="I2509" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2510" s="4">
+        <v>12</v>
+      </c>
+      <c r="C2510" s="5">
+        <v>9488</v>
+      </c>
+      <c r="D2510" s="4"/>
+      <c r="E2510" s="4"/>
+      <c r="F2510" s="4"/>
+      <c r="G2510" s="4"/>
+      <c r="H2510" s="4"/>
+      <c r="I2510" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2511" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2511" s="5">
+        <v>9489</v>
+      </c>
+      <c r="D2511" s="4"/>
+      <c r="E2511" s="4"/>
+      <c r="F2511" s="4"/>
+      <c r="G2511" s="4"/>
+      <c r="H2511" s="4"/>
+      <c r="I2511" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2512" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2512" s="14">
+        <f>SUM(D2499:D2511)</f>
+        <v>0</v>
+      </c>
+      <c r="E2512" s="14">
+        <f t="shared" ref="E2512:I2512" si="207">SUM(E2499:E2511)</f>
+        <v>0</v>
+      </c>
+      <c r="F2512" s="14">
+        <f t="shared" si="207"/>
+        <v>0</v>
+      </c>
+      <c r="G2512" s="14">
+        <f t="shared" si="207"/>
+        <v>16</v>
+      </c>
+      <c r="H2512" s="14">
+        <f t="shared" si="207"/>
+        <v>0</v>
+      </c>
+      <c r="I2512" s="14">
+        <f t="shared" si="207"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2514" s="16">
+        <v>43722</v>
+      </c>
+      <c r="B2514" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2514" s="5">
+        <v>6178</v>
+      </c>
+      <c r="D2514" s="4"/>
+      <c r="E2514" s="4"/>
+      <c r="F2514" s="4"/>
+      <c r="G2514" s="4">
+        <v>32</v>
+      </c>
+      <c r="H2514" s="4"/>
+      <c r="I2514" s="4"/>
+    </row>
+    <row r="2515" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2515" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2515" s="14">
+        <f>SUM(D2514:D2514)</f>
+        <v>0</v>
+      </c>
+      <c r="E2515" s="14">
+        <f>SUM(E2514:E2514)</f>
+        <v>0</v>
+      </c>
+      <c r="F2515" s="14">
+        <f>SUM(F2514:F2514)</f>
+        <v>0</v>
+      </c>
+      <c r="G2515" s="14">
+        <f>SUM(G2514:G2514)</f>
+        <v>32</v>
+      </c>
+      <c r="H2515" s="14">
+        <f>SUM(H2514:H2514)</f>
+        <v>0</v>
+      </c>
+      <c r="I2515" s="14">
+        <f>SUM(I2514:I2514)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2517" s="16">
+        <v>43725</v>
+      </c>
+      <c r="B2517" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2517" s="5">
+        <v>6179</v>
+      </c>
+      <c r="D2517" s="4"/>
+      <c r="E2517" s="4"/>
+      <c r="F2517" s="4"/>
+      <c r="G2517" s="4"/>
+      <c r="H2517" s="4">
+        <v>6</v>
+      </c>
+      <c r="I2517" s="4"/>
+    </row>
+    <row r="2518" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2518" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2518" s="14">
+        <f>SUM(D2517:D2517)</f>
+        <v>0</v>
+      </c>
+      <c r="E2518" s="14">
+        <f>SUM(E2517:E2517)</f>
+        <v>0</v>
+      </c>
+      <c r="F2518" s="14">
+        <f>SUM(F2517:F2517)</f>
+        <v>0</v>
+      </c>
+      <c r="G2518" s="14">
+        <f>SUM(G2517:G2517)</f>
+        <v>0</v>
+      </c>
+      <c r="H2518" s="14">
+        <f>SUM(H2517:H2517)</f>
+        <v>6</v>
+      </c>
+      <c r="I2518" s="14">
+        <f>SUM(I2517:I2517)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2520" s="16">
+        <v>43726</v>
+      </c>
+      <c r="B2520" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2520" s="5">
+        <v>6180</v>
+      </c>
+      <c r="D2520" s="4"/>
+      <c r="E2520" s="4"/>
+      <c r="F2520" s="4"/>
+      <c r="G2520" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="H2520" s="4"/>
+      <c r="I2520" s="4"/>
+    </row>
+    <row r="2521" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2521" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2521" s="14">
+        <f>SUM(D2520:D2520)</f>
+        <v>0</v>
+      </c>
+      <c r="E2521" s="14">
+        <f>SUM(E2520:E2520)</f>
+        <v>0</v>
+      </c>
+      <c r="F2521" s="14">
+        <f>SUM(F2520:F2520)</f>
+        <v>0</v>
+      </c>
+      <c r="G2521" s="14">
+        <f>SUM(G2520:G2520)</f>
+        <v>7.5</v>
+      </c>
+      <c r="H2521" s="14">
+        <f>SUM(H2520:H2520)</f>
+        <v>0</v>
+      </c>
+      <c r="I2521" s="14">
+        <f>SUM(I2520:I2520)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2523" s="16">
+        <v>43727</v>
+      </c>
+      <c r="B2523" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2523" s="5">
+        <v>6181</v>
+      </c>
+      <c r="D2523" s="4"/>
+      <c r="E2523" s="4"/>
+      <c r="F2523" s="4"/>
+      <c r="G2523" s="4">
+        <v>7</v>
+      </c>
+      <c r="H2523" s="4"/>
+      <c r="I2523" s="4"/>
+    </row>
+    <row r="2524" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2524" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2524" s="14">
+        <f>SUM(D2523:D2523)</f>
+        <v>0</v>
+      </c>
+      <c r="E2524" s="14">
+        <f>SUM(E2523:E2523)</f>
+        <v>0</v>
+      </c>
+      <c r="F2524" s="14">
+        <f>SUM(F2523:F2523)</f>
+        <v>0</v>
+      </c>
+      <c r="G2524" s="14">
+        <f>SUM(G2523:G2523)</f>
+        <v>7</v>
+      </c>
+      <c r="H2524" s="14">
+        <f>SUM(H2523:H2523)</f>
+        <v>0</v>
+      </c>
+      <c r="I2524" s="14">
+        <f>SUM(I2523:I2523)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2526" s="16">
+        <v>43728</v>
+      </c>
+      <c r="B2526" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2526" s="5">
+        <v>6182</v>
+      </c>
+      <c r="D2526" s="4"/>
+      <c r="E2526" s="4"/>
+      <c r="F2526" s="4"/>
+      <c r="G2526" s="4">
+        <v>6</v>
+      </c>
+      <c r="H2526" s="4"/>
+      <c r="I2526" s="4"/>
+    </row>
+    <row r="2527" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2527" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2527" s="5">
+        <v>6183</v>
+      </c>
+      <c r="D2527" s="4"/>
+      <c r="E2527" s="4"/>
+      <c r="F2527" s="4">
+        <v>8</v>
+      </c>
+      <c r="G2527" s="4"/>
+      <c r="H2527" s="4"/>
+      <c r="I2527" s="4"/>
+    </row>
+    <row r="2528" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2528" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2528" s="5">
+        <v>6184</v>
+      </c>
+      <c r="D2528" s="4"/>
+      <c r="E2528" s="4"/>
+      <c r="F2528" s="4"/>
+      <c r="G2528" s="4"/>
+      <c r="H2528" s="4">
+        <v>6</v>
+      </c>
+      <c r="I2528" s="4"/>
+    </row>
+    <row r="2529" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2529" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2529" s="5">
+        <v>6185</v>
+      </c>
+      <c r="D2529" s="4"/>
+      <c r="E2529" s="4"/>
+      <c r="F2529" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G2529" s="4"/>
+      <c r="H2529" s="4"/>
+      <c r="I2529" s="4"/>
+    </row>
+    <row r="2530" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2530" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2530" s="5">
+        <v>6186</v>
+      </c>
+      <c r="D2530" s="4"/>
+      <c r="E2530" s="4"/>
+      <c r="F2530" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G2530" s="4"/>
+      <c r="H2530" s="4"/>
+      <c r="I2530" s="4"/>
+    </row>
+    <row r="2531" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2531" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2531" s="14">
+        <f>SUM(D2526:D2530)</f>
+        <v>0</v>
+      </c>
+      <c r="E2531" s="14">
+        <f>SUM(E2526:E2530)</f>
+        <v>0</v>
+      </c>
+      <c r="F2531" s="14">
+        <f>SUM(F2526:F2530)</f>
+        <v>19</v>
+      </c>
+      <c r="G2531" s="14">
+        <f>SUM(G2526:G2530)</f>
+        <v>6</v>
+      </c>
+      <c r="H2531" s="14">
+        <f>SUM(H2526:H2530)</f>
+        <v>6</v>
+      </c>
+      <c r="I2531" s="14">
+        <f>SUM(I2526:I2530)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2533" s="16">
+        <v>43729</v>
+      </c>
+      <c r="B2533" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2533" s="5">
+        <v>6187</v>
+      </c>
+      <c r="D2533" s="4"/>
+      <c r="E2533" s="4"/>
+      <c r="F2533" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2533" s="4"/>
+      <c r="H2533" s="4"/>
+      <c r="I2533" s="4"/>
+    </row>
+    <row r="2534" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2534" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2534" s="5">
+        <v>6188</v>
+      </c>
+      <c r="D2534" s="4"/>
+      <c r="E2534" s="4"/>
+      <c r="F2534" s="4">
+        <v>7</v>
+      </c>
+      <c r="G2534" s="4"/>
+      <c r="H2534" s="4"/>
+      <c r="I2534" s="4"/>
+    </row>
+    <row r="2535" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2535" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2535" s="5">
+        <v>6189</v>
+      </c>
+      <c r="D2535" s="4"/>
+      <c r="E2535" s="4"/>
+      <c r="F2535" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G2535" s="4"/>
+      <c r="H2535" s="4"/>
+      <c r="I2535" s="4"/>
+    </row>
+    <row r="2536" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2536" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2536" s="5">
+        <v>6190</v>
+      </c>
+      <c r="D2536" s="4"/>
+      <c r="E2536" s="4"/>
+      <c r="F2536" s="4"/>
+      <c r="G2536" s="4"/>
+      <c r="H2536" s="4">
+        <v>7</v>
+      </c>
+      <c r="I2536" s="4"/>
+    </row>
+    <row r="2537" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2537" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2537" s="5">
+        <v>6191</v>
+      </c>
+      <c r="D2537" s="4"/>
+      <c r="E2537" s="4"/>
+      <c r="F2537" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2537" s="4"/>
+      <c r="H2537" s="4"/>
+      <c r="I2537" s="4"/>
+    </row>
+    <row r="2538" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2538" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2538" s="5">
+        <v>6192</v>
+      </c>
+      <c r="D2538" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2538" s="4"/>
+      <c r="F2538" s="4"/>
+      <c r="G2538" s="4"/>
+      <c r="H2538" s="4"/>
+      <c r="I2538" s="4"/>
+    </row>
+    <row r="2539" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2539" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2539" s="14">
+        <f>SUM(D2533:D2538)</f>
+        <v>8</v>
+      </c>
+      <c r="E2539" s="14">
+        <f t="shared" ref="E2539:I2539" si="208">SUM(E2533:E2538)</f>
+        <v>0</v>
+      </c>
+      <c r="F2539" s="14">
+        <f t="shared" si="208"/>
+        <v>23.5</v>
+      </c>
+      <c r="G2539" s="14">
+        <f t="shared" si="208"/>
+        <v>0</v>
+      </c>
+      <c r="H2539" s="14">
+        <f t="shared" si="208"/>
+        <v>7</v>
+      </c>
+      <c r="I2539" s="14">
+        <f t="shared" si="208"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2541" s="16">
+        <v>43731</v>
+      </c>
+      <c r="B2541" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2541" s="5">
+        <v>6193</v>
+      </c>
+      <c r="D2541" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2541" s="4"/>
+      <c r="F2541" s="4"/>
+      <c r="G2541" s="4"/>
+      <c r="H2541" s="4"/>
+      <c r="I2541" s="4"/>
+    </row>
+    <row r="2542" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2542" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2542" s="5">
+        <v>6194</v>
+      </c>
+      <c r="D2542" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2542" s="4"/>
+      <c r="F2542" s="4"/>
+      <c r="G2542" s="4"/>
+      <c r="H2542" s="4"/>
+      <c r="I2542" s="4"/>
+    </row>
+    <row r="2543" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2543" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2543" s="5">
+        <v>6195</v>
+      </c>
+      <c r="D2543" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2543" s="4"/>
+      <c r="F2543" s="4"/>
+      <c r="G2543" s="4"/>
+      <c r="H2543" s="4"/>
+      <c r="I2543" s="4"/>
+    </row>
+    <row r="2544" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2544" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2544" s="14">
+        <f>SUM(D2541:D2543)</f>
+        <v>21</v>
+      </c>
+      <c r="E2544" s="14">
+        <f>SUM(E2541:E2543)</f>
+        <v>0</v>
+      </c>
+      <c r="F2544" s="14">
+        <f>SUM(F2541:F2543)</f>
+        <v>0</v>
+      </c>
+      <c r="G2544" s="14">
+        <f>SUM(G2541:G2543)</f>
+        <v>0</v>
+      </c>
+      <c r="H2544" s="14">
+        <f>SUM(H2541:H2543)</f>
+        <v>0</v>
+      </c>
+      <c r="I2544" s="14">
+        <f>SUM(I2541:I2543)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2546" s="16">
+        <v>43732</v>
+      </c>
+      <c r="B2546" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2546" s="5">
+        <v>6196</v>
+      </c>
+      <c r="D2546" s="4"/>
+      <c r="E2546" s="4"/>
+      <c r="F2546" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G2546" s="4"/>
+      <c r="H2546" s="4"/>
+      <c r="I2546" s="4"/>
+    </row>
+    <row r="2547" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2547" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2547" s="5">
+        <v>6197</v>
+      </c>
+      <c r="D2547" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2547" s="4"/>
+      <c r="F2547" s="4"/>
+      <c r="G2547" s="4"/>
+      <c r="H2547" s="4"/>
+      <c r="I2547" s="4"/>
+    </row>
+    <row r="2548" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2548" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2548" s="5">
+        <v>6198</v>
+      </c>
+      <c r="D2548" s="4"/>
+      <c r="E2548" s="4"/>
+      <c r="F2548" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G2548" s="4"/>
+      <c r="H2548" s="4"/>
+      <c r="I2548" s="4"/>
+    </row>
+    <row r="2549" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2549" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2549" s="14">
+        <f>SUM(D2546:D2548)</f>
+        <v>8</v>
+      </c>
+      <c r="E2549" s="14">
+        <f>SUM(E2546:E2548)</f>
+        <v>0</v>
+      </c>
+      <c r="F2549" s="14">
+        <f>SUM(F2546:F2548)</f>
+        <v>10</v>
+      </c>
+      <c r="G2549" s="14">
+        <f>SUM(G2546:G2548)</f>
+        <v>0</v>
+      </c>
+      <c r="H2549" s="14">
+        <f>SUM(H2546:H2548)</f>
+        <v>0</v>
+      </c>
+      <c r="I2549" s="14">
+        <f>SUM(I2546:I2548)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2551" s="16">
+        <v>43733</v>
+      </c>
+      <c r="B2551" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2551" s="5">
+        <v>6199</v>
+      </c>
+      <c r="D2551" s="4"/>
+      <c r="E2551" s="4"/>
+      <c r="F2551" s="4"/>
+      <c r="G2551" s="4"/>
+      <c r="H2551" s="4"/>
+      <c r="I2551" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2552" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2552" s="5">
+        <v>6200</v>
+      </c>
+      <c r="D2552" s="4"/>
+      <c r="E2552" s="4"/>
+      <c r="F2552" s="4"/>
+      <c r="G2552" s="4"/>
+      <c r="H2552" s="4"/>
+      <c r="I2552" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2553" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2553" s="5">
+        <v>6112</v>
+      </c>
+      <c r="D2553" s="4"/>
+      <c r="E2553" s="4">
+        <v>18</v>
+      </c>
+      <c r="F2553" s="4"/>
+      <c r="G2553" s="4"/>
+      <c r="H2553" s="4"/>
+      <c r="I2553" s="4"/>
+    </row>
+    <row r="2554" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2554" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2554" s="5">
+        <v>6113</v>
+      </c>
+      <c r="D2554" s="4"/>
+      <c r="E2554" s="4"/>
+      <c r="F2554" s="4"/>
+      <c r="G2554" s="4"/>
+      <c r="H2554" s="4"/>
+      <c r="I2554" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2555" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2555" s="5">
+        <v>6114</v>
+      </c>
+      <c r="D2555" s="4"/>
+      <c r="E2555" s="4"/>
+      <c r="F2555" s="4"/>
+      <c r="G2555" s="4"/>
+      <c r="H2555" s="4"/>
+      <c r="I2555" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2556" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2556" s="5">
+        <v>6115</v>
+      </c>
+      <c r="D2556" s="4"/>
+      <c r="E2556" s="4"/>
+      <c r="F2556" s="4"/>
+      <c r="G2556" s="4"/>
+      <c r="H2556" s="4"/>
+      <c r="I2556" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2557" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2557" s="5">
+        <v>6116</v>
+      </c>
+      <c r="D2557" s="4">
+        <v>13</v>
+      </c>
+      <c r="E2557" s="4"/>
+      <c r="F2557" s="4"/>
+      <c r="G2557" s="4"/>
+      <c r="H2557" s="4"/>
+      <c r="I2557" s="4"/>
+    </row>
+    <row r="2558" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2558" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2558" s="5">
+        <v>6117</v>
+      </c>
+      <c r="D2558" s="4"/>
+      <c r="E2558" s="4"/>
+      <c r="F2558" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2558" s="4"/>
+      <c r="H2558" s="4"/>
+      <c r="I2558" s="4"/>
+    </row>
+    <row r="2559" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2559" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2559" s="5">
+        <v>6118</v>
+      </c>
+      <c r="D2559" s="4"/>
+      <c r="E2559" s="4"/>
+      <c r="F2559" s="4">
+        <v>7</v>
+      </c>
+      <c r="G2559" s="4"/>
+      <c r="H2559" s="4"/>
+      <c r="I2559" s="4"/>
+    </row>
+    <row r="2560" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2560" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2560" s="5">
+        <v>6119</v>
+      </c>
+      <c r="D2560" s="4"/>
+      <c r="E2560" s="4"/>
+      <c r="F2560" s="4"/>
+      <c r="G2560" s="4"/>
+      <c r="H2560" s="4"/>
+      <c r="I2560" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2561" s="4">
+        <v>11</v>
+      </c>
+      <c r="C2561" s="5">
+        <v>6120</v>
+      </c>
+      <c r="D2561" s="4"/>
+      <c r="E2561" s="4"/>
+      <c r="F2561" s="4"/>
+      <c r="G2561" s="4"/>
+      <c r="H2561" s="4"/>
+      <c r="I2561" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2562" s="4">
+        <v>12</v>
+      </c>
+      <c r="C2562" s="5">
+        <v>6121</v>
+      </c>
+      <c r="D2562" s="4"/>
+      <c r="E2562" s="4"/>
+      <c r="F2562" s="4"/>
+      <c r="G2562" s="4"/>
+      <c r="H2562" s="4"/>
+      <c r="I2562" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2563" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2563" s="5">
+        <v>6122</v>
+      </c>
+      <c r="D2563" s="4"/>
+      <c r="E2563" s="4"/>
+      <c r="F2563" s="4"/>
+      <c r="G2563" s="4"/>
+      <c r="H2563" s="4"/>
+      <c r="I2563" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2564" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2564" s="5">
+        <v>6123</v>
+      </c>
+      <c r="D2564" s="4"/>
+      <c r="E2564" s="4"/>
+      <c r="F2564" s="4"/>
+      <c r="G2564" s="4"/>
+      <c r="H2564" s="4"/>
+      <c r="I2564" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2565" s="4">
+        <v>15</v>
+      </c>
+      <c r="C2565" s="5">
+        <v>6124</v>
+      </c>
+      <c r="D2565" s="4"/>
+      <c r="E2565" s="4"/>
+      <c r="F2565" s="4">
+        <v>8</v>
+      </c>
+      <c r="G2565" s="4"/>
+      <c r="H2565" s="4"/>
+      <c r="I2565" s="4"/>
+    </row>
+    <row r="2566" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2566" s="4">
+        <v>16</v>
+      </c>
+      <c r="C2566" s="5">
+        <v>6125</v>
+      </c>
+      <c r="D2566" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2566" s="4"/>
+      <c r="F2566" s="4"/>
+      <c r="G2566" s="4"/>
+      <c r="H2566" s="4"/>
+      <c r="I2566" s="4"/>
+    </row>
+    <row r="2567" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2567" s="4">
+        <v>17</v>
+      </c>
+      <c r="C2567" s="5">
+        <v>6126</v>
+      </c>
+      <c r="D2567" s="4"/>
+      <c r="E2567" s="4"/>
+      <c r="F2567" s="4">
+        <v>7</v>
+      </c>
+      <c r="G2567" s="4"/>
+      <c r="H2567" s="4"/>
+      <c r="I2567" s="4"/>
+    </row>
+    <row r="2568" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2568" s="4">
+        <v>18</v>
+      </c>
+      <c r="C2568" s="5">
+        <v>6127</v>
+      </c>
+      <c r="D2568" s="4"/>
+      <c r="E2568" s="4"/>
+      <c r="F2568" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G2568" s="4"/>
+      <c r="H2568" s="4"/>
+      <c r="I2568" s="4"/>
+    </row>
+    <row r="2569" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2569" s="4">
+        <v>19</v>
+      </c>
+      <c r="C2569" s="5">
+        <v>6128</v>
+      </c>
+      <c r="D2569" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2569" s="4"/>
+      <c r="F2569" s="4"/>
+      <c r="G2569" s="4"/>
+      <c r="H2569" s="4"/>
+      <c r="I2569" s="4"/>
+    </row>
+    <row r="2570" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2570" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2570" s="14">
+        <f>SUM(D2551:D2569)</f>
+        <v>29</v>
+      </c>
+      <c r="E2570" s="14">
+        <f>SUM(E2551:E2569)</f>
+        <v>18</v>
+      </c>
+      <c r="F2570" s="14">
+        <f>SUM(F2551:F2569)</f>
+        <v>34.5</v>
+      </c>
+      <c r="G2570" s="14">
+        <f>SUM(G2551:G2569)</f>
+        <v>0</v>
+      </c>
+      <c r="H2570" s="14">
+        <f>SUM(H2551:H2569)</f>
+        <v>0</v>
+      </c>
+      <c r="I2570" s="14">
+        <f>SUM(I2551:I2569)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2572" s="16">
+        <v>43734</v>
+      </c>
+      <c r="B2572" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2572" s="5">
+        <v>6129</v>
+      </c>
+      <c r="D2572" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2572" s="4"/>
+      <c r="F2572" s="4"/>
+      <c r="G2572" s="4"/>
+      <c r="H2572" s="4"/>
+      <c r="I2572" s="4"/>
+    </row>
+    <row r="2573" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2573" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2573" s="5">
+        <v>6130</v>
+      </c>
+      <c r="D2573" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2573" s="4"/>
+      <c r="F2573" s="4"/>
+      <c r="G2573" s="4"/>
+      <c r="H2573" s="4"/>
+      <c r="I2573" s="4"/>
+    </row>
+    <row r="2574" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2574" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2574" s="5">
+        <v>6131</v>
+      </c>
+      <c r="D2574" s="4"/>
+      <c r="E2574" s="4"/>
+      <c r="F2574" s="4"/>
+      <c r="G2574" s="4"/>
+      <c r="H2574" s="4"/>
+      <c r="I2574" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2575" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2575" s="5">
+        <v>6132</v>
+      </c>
+      <c r="D2575" s="4"/>
+      <c r="E2575" s="4"/>
+      <c r="F2575" s="4"/>
+      <c r="G2575" s="4"/>
+      <c r="H2575" s="4"/>
+      <c r="I2575" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2576" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2576" s="5">
+        <v>6133</v>
+      </c>
+      <c r="D2576" s="4"/>
+      <c r="E2576" s="4"/>
+      <c r="F2576" s="4"/>
+      <c r="G2576" s="4"/>
+      <c r="H2576" s="4"/>
+      <c r="I2576" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2577" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2577" s="5">
+        <v>6134</v>
+      </c>
+      <c r="D2577" s="4"/>
+      <c r="E2577" s="4"/>
+      <c r="F2577" s="4"/>
+      <c r="G2577" s="4"/>
+      <c r="H2577" s="4"/>
+      <c r="I2577" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2578" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2578" s="14">
+        <f>SUM(D2572:D2577)</f>
+        <v>16</v>
+      </c>
+      <c r="E2578" s="14">
+        <f>SUM(E2572:E2577)</f>
+        <v>0</v>
+      </c>
+      <c r="F2578" s="14">
+        <f>SUM(F2572:F2577)</f>
+        <v>0</v>
+      </c>
+      <c r="G2578" s="14">
+        <f>SUM(G2572:G2577)</f>
+        <v>0</v>
+      </c>
+      <c r="H2578" s="14">
+        <f>SUM(H2572:H2577)</f>
+        <v>0</v>
+      </c>
+      <c r="I2578" s="14">
+        <f>SUM(I2572:I2577)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2580" s="16">
+        <v>43735</v>
+      </c>
+      <c r="B2580" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2580" s="5">
+        <v>6135</v>
+      </c>
+      <c r="D2580" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2580" s="4"/>
+      <c r="F2580" s="4"/>
+      <c r="G2580" s="4"/>
+      <c r="H2580" s="4"/>
+      <c r="I2580" s="4"/>
+    </row>
+    <row r="2581" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2581" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2581" s="5">
+        <v>6136</v>
+      </c>
+      <c r="D2581" s="4"/>
+      <c r="E2581" s="4"/>
+      <c r="F2581" s="4"/>
+      <c r="G2581" s="4">
+        <v>6</v>
+      </c>
+      <c r="H2581" s="4"/>
+      <c r="I2581" s="4"/>
+    </row>
+    <row r="2582" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2582" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2582" s="5">
+        <v>6137</v>
+      </c>
+      <c r="D2582" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2582" s="4"/>
+      <c r="F2582" s="4"/>
+      <c r="G2582" s="4"/>
+      <c r="H2582" s="4"/>
+      <c r="I2582" s="4"/>
+    </row>
+    <row r="2583" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2583" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2583" s="5">
+        <v>6138</v>
+      </c>
+      <c r="D2583" s="4"/>
+      <c r="E2583" s="4"/>
+      <c r="F2583" s="4">
+        <v>8</v>
+      </c>
+      <c r="G2583" s="4"/>
+      <c r="H2583" s="4"/>
+      <c r="I2583" s="4"/>
+    </row>
+    <row r="2584" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2584" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2584" s="5">
+        <v>6139</v>
+      </c>
+      <c r="D2584" s="4"/>
+      <c r="E2584" s="4"/>
+      <c r="F2584" s="4"/>
+      <c r="G2584" s="4"/>
+      <c r="H2584" s="4"/>
+      <c r="I2584" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2585" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2585" s="5">
+        <v>6140</v>
+      </c>
+      <c r="D2585" s="4"/>
+      <c r="E2585" s="4"/>
+      <c r="F2585" s="4"/>
+      <c r="G2585" s="4"/>
+      <c r="H2585" s="4"/>
+      <c r="I2585" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2586" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2586" s="5">
+        <v>6141</v>
+      </c>
+      <c r="D2586" s="4"/>
+      <c r="E2586" s="4"/>
+      <c r="F2586" s="4"/>
+      <c r="G2586" s="4"/>
+      <c r="H2586" s="4"/>
+      <c r="I2586" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2587" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2587" s="5">
+        <v>6142</v>
+      </c>
+      <c r="D2587" s="4"/>
+      <c r="E2587" s="4"/>
+      <c r="F2587" s="4"/>
+      <c r="G2587" s="4">
+        <v>6</v>
+      </c>
+      <c r="H2587" s="4"/>
+      <c r="I2587" s="4"/>
+    </row>
+    <row r="2588" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2588" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2588" s="5">
+        <v>6143</v>
+      </c>
+      <c r="D2588" s="4"/>
+      <c r="E2588" s="4"/>
+      <c r="F2588" s="4">
+        <v>12</v>
+      </c>
+      <c r="G2588" s="4"/>
+      <c r="H2588" s="4"/>
+      <c r="I2588" s="4"/>
+    </row>
+    <row r="2589" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2589" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2589" s="5">
+        <v>6144</v>
+      </c>
+      <c r="D2589" s="4"/>
+      <c r="E2589" s="4"/>
+      <c r="F2589" s="4">
+        <v>40</v>
+      </c>
+      <c r="G2589" s="4"/>
+      <c r="H2589" s="4"/>
+      <c r="I2589" s="4"/>
+    </row>
+    <row r="2590" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2590" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2590" s="14">
+        <f>SUM(D2580:D2589)</f>
+        <v>16</v>
+      </c>
+      <c r="E2590" s="14">
+        <f>SUM(E2580:E2589)</f>
+        <v>0</v>
+      </c>
+      <c r="F2590" s="14">
+        <f>SUM(F2580:F2589)</f>
+        <v>60</v>
+      </c>
+      <c r="G2590" s="14">
+        <f>SUM(G2580:G2589)</f>
+        <v>12</v>
+      </c>
+      <c r="H2590" s="14">
+        <f>SUM(H2580:H2589)</f>
+        <v>0</v>
+      </c>
+      <c r="I2590" s="14">
+        <f>SUM(I2580:I2589)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2592" s="16">
+        <v>43736</v>
+      </c>
+      <c r="B2592" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2592" s="5">
+        <v>6145</v>
+      </c>
+      <c r="D2592" s="4"/>
+      <c r="E2592" s="4"/>
+      <c r="F2592" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G2592" s="4"/>
+      <c r="H2592" s="4"/>
+      <c r="I2592" s="4"/>
+    </row>
+    <row r="2593" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2593" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2593" s="5">
+        <v>6146</v>
+      </c>
+      <c r="D2593" s="4"/>
+      <c r="E2593" s="4"/>
+      <c r="F2593" s="4">
+        <v>8</v>
+      </c>
+      <c r="G2593" s="4"/>
+      <c r="H2593" s="4"/>
+      <c r="I2593" s="4"/>
+    </row>
+    <row r="2594" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2594" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2594" s="5">
+        <v>6147</v>
+      </c>
+      <c r="D2594" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2594" s="4"/>
+      <c r="F2594" s="4"/>
+      <c r="G2594" s="4"/>
+      <c r="H2594" s="4"/>
+      <c r="I2594" s="4"/>
+    </row>
+    <row r="2595" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2595" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2595" s="14">
+        <f>SUM(D2592:D2594)</f>
+        <v>8</v>
+      </c>
+      <c r="E2595" s="14">
+        <f>SUM(E2592:E2594)</f>
+        <v>0</v>
+      </c>
+      <c r="F2595" s="14">
+        <f>SUM(F2592:F2594)</f>
+        <v>11.5</v>
+      </c>
+      <c r="G2595" s="14">
+        <f>SUM(G2592:G2594)</f>
+        <v>0</v>
+      </c>
+      <c r="H2595" s="14">
+        <f>SUM(H2592:H2594)</f>
+        <v>0</v>
+      </c>
+      <c r="I2595" s="14">
+        <f>SUM(I2592:I2594)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2597" s="16">
+        <v>43738</v>
+      </c>
+      <c r="B2597" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2597" s="5">
+        <v>6148</v>
+      </c>
+      <c r="D2597" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E2597" s="4"/>
+      <c r="F2597" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G2597" s="4"/>
+      <c r="H2597" s="4"/>
+      <c r="I2597" s="4"/>
+    </row>
+    <row r="2598" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2598" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2598" s="5">
+        <v>6149</v>
+      </c>
+      <c r="D2598" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2598" s="4"/>
+      <c r="F2598" s="4"/>
+      <c r="G2598" s="4"/>
+      <c r="H2598" s="4"/>
+      <c r="I2598" s="4"/>
+    </row>
+    <row r="2599" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2599" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2599" s="5">
+        <v>6150</v>
+      </c>
+      <c r="D2599" s="4"/>
+      <c r="E2599" s="4"/>
+      <c r="F2599" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2599" s="4"/>
+      <c r="H2599" s="4"/>
+      <c r="I2599" s="4"/>
+    </row>
+    <row r="2600" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2600" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2600" s="5">
+        <v>9201</v>
+      </c>
+      <c r="D2600" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2600" s="4"/>
+      <c r="F2600" s="4"/>
+      <c r="G2600" s="4"/>
+      <c r="H2600" s="4"/>
+      <c r="I2600" s="4"/>
+    </row>
+    <row r="2601" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2601" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2601" s="5">
+        <v>9202</v>
+      </c>
+      <c r="D2601" s="4"/>
+      <c r="E2601" s="4"/>
+      <c r="F2601" s="4">
+        <v>8</v>
+      </c>
+      <c r="G2601" s="4"/>
+      <c r="H2601" s="4"/>
+      <c r="I2601" s="4"/>
+    </row>
+    <row r="2602" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2602" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2602" s="5">
+        <v>9203</v>
+      </c>
+      <c r="D2602" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2602" s="4"/>
+      <c r="F2602" s="4"/>
+      <c r="G2602" s="4"/>
+      <c r="H2602" s="4"/>
+      <c r="I2602" s="4"/>
+    </row>
+    <row r="2603" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2603" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2603" s="5">
+        <v>9204</v>
+      </c>
+      <c r="D2603" s="4"/>
+      <c r="E2603" s="4"/>
+      <c r="F2603" s="4">
+        <v>7</v>
+      </c>
+      <c r="G2603" s="4"/>
+      <c r="H2603" s="4"/>
+      <c r="I2603" s="4"/>
+    </row>
+    <row r="2604" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2604" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2604" s="14">
+        <f>SUM(D2597:D2603)</f>
+        <v>27.5</v>
+      </c>
+      <c r="E2604" s="14">
+        <f>SUM(E2597:E2603)</f>
+        <v>0</v>
+      </c>
+      <c r="F2604" s="14">
+        <f>SUM(F2597:F2603)</f>
+        <v>24.5</v>
+      </c>
+      <c r="G2604" s="14">
+        <f>SUM(G2597:G2603)</f>
+        <v>0</v>
+      </c>
+      <c r="H2604" s="14">
+        <f>SUM(H2597:H2603)</f>
+        <v>0</v>
+      </c>
+      <c r="I2604" s="14">
+        <f>SUM(I2597:I2603)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2606" s="16">
+        <v>43739</v>
+      </c>
+      <c r="B2606" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2606" s="5">
+        <v>9205</v>
+      </c>
+      <c r="D2606" s="4">
+        <v>6</v>
+      </c>
+      <c r="E2606" s="4"/>
+      <c r="F2606" s="4"/>
+      <c r="G2606" s="4"/>
+      <c r="H2606" s="4"/>
+      <c r="I2606" s="4"/>
+    </row>
+    <row r="2607" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2607" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2607" s="5">
+        <v>9206</v>
+      </c>
+      <c r="D2607" s="4">
+        <v>32</v>
+      </c>
+      <c r="E2607" s="4"/>
+      <c r="F2607" s="4"/>
+      <c r="G2607" s="4"/>
+      <c r="H2607" s="4"/>
+      <c r="I2607" s="4"/>
+    </row>
+    <row r="2608" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2608" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2608" s="5">
+        <v>9207</v>
+      </c>
+      <c r="D2608" s="4"/>
+      <c r="E2608" s="4"/>
+      <c r="F2608" s="4"/>
+      <c r="G2608" s="4"/>
+      <c r="H2608" s="4">
+        <v>6</v>
+      </c>
+      <c r="I2608" s="4"/>
+    </row>
+    <row r="2609" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2609" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2609" s="5">
+        <v>9208</v>
+      </c>
+      <c r="D2609" s="4"/>
+      <c r="E2609" s="4"/>
+      <c r="F2609" s="4"/>
+      <c r="G2609" s="4"/>
+      <c r="H2609" s="4">
+        <v>6</v>
+      </c>
+      <c r="I2609" s="4"/>
+    </row>
+    <row r="2610" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2610" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2610" s="5">
+        <v>9209</v>
+      </c>
+      <c r="D2610" s="4"/>
+      <c r="E2610" s="4"/>
+      <c r="F2610" s="4">
+        <v>8</v>
+      </c>
+      <c r="G2610" s="4"/>
+      <c r="H2610" s="4"/>
+      <c r="I2610" s="4"/>
+    </row>
+    <row r="2611" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2611" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2611" s="5">
+        <v>9210</v>
+      </c>
+      <c r="D2611" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2611" s="4"/>
+      <c r="F2611" s="4"/>
+      <c r="G2611" s="4"/>
+      <c r="H2611" s="4"/>
+      <c r="I2611" s="4"/>
+    </row>
+    <row r="2612" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2612" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2612" s="5">
+        <v>9211</v>
+      </c>
+      <c r="D2612" s="4"/>
+      <c r="E2612" s="4"/>
+      <c r="F2612" s="4">
+        <v>8</v>
+      </c>
+      <c r="G2612" s="4"/>
+      <c r="H2612" s="4"/>
+      <c r="I2612" s="4"/>
+    </row>
+    <row r="2613" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2613" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2613" s="14">
+        <f>SUM(D2606:D2612)</f>
+        <v>46</v>
+      </c>
+      <c r="E2613" s="14">
+        <f>SUM(E2606:E2612)</f>
+        <v>0</v>
+      </c>
+      <c r="F2613" s="14">
+        <f>SUM(F2606:F2612)</f>
+        <v>16</v>
+      </c>
+      <c r="G2613" s="14">
+        <f>SUM(G2606:G2612)</f>
+        <v>0</v>
+      </c>
+      <c r="H2613" s="14">
+        <f>SUM(H2606:H2612)</f>
+        <v>12</v>
+      </c>
+      <c r="I2613" s="14">
+        <f>SUM(I2606:I2612)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2615" s="16">
+        <v>43740</v>
+      </c>
+      <c r="B2615" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2615" s="5">
+        <v>9212</v>
+      </c>
+      <c r="D2615" s="4"/>
+      <c r="E2615" s="4"/>
+      <c r="F2615" s="4"/>
+      <c r="G2615" s="4"/>
+      <c r="H2615" s="4">
+        <v>8</v>
+      </c>
+      <c r="I2615" s="4"/>
+    </row>
+    <row r="2616" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2616" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2616" s="5">
+        <v>9213</v>
+      </c>
+      <c r="D2616" s="4"/>
+      <c r="E2616" s="4"/>
+      <c r="F2616" s="4">
+        <v>8</v>
+      </c>
+      <c r="G2616" s="4"/>
+      <c r="H2616" s="4"/>
+      <c r="I2616" s="4"/>
+    </row>
+    <row r="2617" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2617" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2617" s="5">
+        <v>9214</v>
+      </c>
+      <c r="D2617" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2617" s="4"/>
+      <c r="F2617" s="4"/>
+      <c r="G2617" s="4"/>
+      <c r="H2617" s="4"/>
+      <c r="I2617" s="4"/>
+    </row>
+    <row r="2618" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2618" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2618" s="5">
+        <v>9215</v>
+      </c>
+      <c r="D2618" s="4"/>
+      <c r="E2618" s="4"/>
+      <c r="F2618" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G2618" s="4"/>
+      <c r="H2618" s="4"/>
+      <c r="I2618" s="4"/>
+    </row>
+    <row r="2619" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2619" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2619" s="5">
+        <v>9216</v>
+      </c>
+      <c r="D2619" s="4"/>
+      <c r="E2619" s="4"/>
+      <c r="F2619" s="4"/>
+      <c r="G2619" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="H2619" s="4"/>
+      <c r="I2619" s="4"/>
+    </row>
+    <row r="2620" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2620" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2620" s="5">
+        <v>9217</v>
+      </c>
+      <c r="D2620" s="4"/>
+      <c r="E2620" s="4"/>
+      <c r="F2620" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G2620" s="4"/>
+      <c r="H2620" s="4"/>
+      <c r="I2620" s="4"/>
+    </row>
+    <row r="2621" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2621" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2621" s="5">
+        <v>9218</v>
+      </c>
+      <c r="D2621" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2621" s="4"/>
+      <c r="F2621" s="4"/>
+      <c r="G2621" s="4"/>
+      <c r="H2621" s="4"/>
+      <c r="I2621" s="4"/>
+    </row>
+    <row r="2622" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2622" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2622" s="5">
+        <v>9219</v>
+      </c>
+      <c r="D2622" s="4"/>
+      <c r="E2622" s="4"/>
+      <c r="F2622" s="4"/>
+      <c r="G2622" s="4"/>
+      <c r="H2622" s="4">
+        <v>6</v>
+      </c>
+      <c r="I2622" s="4"/>
+    </row>
+    <row r="2623" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2623" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2623" s="5">
+        <v>9220</v>
+      </c>
+      <c r="D2623" s="4"/>
+      <c r="E2623" s="4"/>
+      <c r="F2623" s="4"/>
+      <c r="G2623" s="4"/>
+      <c r="H2623" s="4">
+        <v>6</v>
+      </c>
+      <c r="I2623" s="4"/>
+    </row>
+    <row r="2624" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2624" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2624" s="5">
+        <v>9221</v>
+      </c>
+      <c r="D2624" s="4">
+        <v>16</v>
+      </c>
+      <c r="E2624" s="4"/>
+      <c r="F2624" s="4"/>
+      <c r="G2624" s="4"/>
+      <c r="H2624" s="4"/>
+      <c r="I2624" s="4"/>
+    </row>
+    <row r="2625" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2625" s="4">
+        <v>11</v>
+      </c>
+      <c r="C2625" s="5">
+        <v>9222</v>
+      </c>
+      <c r="D2625" s="4"/>
+      <c r="E2625" s="4"/>
+      <c r="F2625" s="4">
+        <v>8</v>
+      </c>
+      <c r="G2625" s="4"/>
+      <c r="H2625" s="4"/>
+      <c r="I2625" s="4"/>
+    </row>
+    <row r="2626" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2626" s="4">
+        <v>12</v>
+      </c>
+      <c r="C2626" s="5">
+        <v>9223</v>
+      </c>
+      <c r="D2626" s="4"/>
+      <c r="E2626" s="4"/>
+      <c r="F2626" s="4"/>
+      <c r="G2626" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2626" s="4"/>
+      <c r="I2626" s="4"/>
+    </row>
+    <row r="2627" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2627" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2627" s="5">
+        <v>9224</v>
+      </c>
+      <c r="D2627" s="4"/>
+      <c r="E2627" s="4"/>
+      <c r="F2627" s="4"/>
+      <c r="G2627" s="4"/>
+      <c r="H2627" s="4">
+        <v>6</v>
+      </c>
+      <c r="I2627" s="4"/>
+    </row>
+    <row r="2628" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2628" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2628" s="5">
+        <v>9225</v>
+      </c>
+      <c r="D2628" s="4"/>
+      <c r="E2628" s="4"/>
+      <c r="F2628" s="4"/>
+      <c r="G2628" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2628" s="4"/>
+      <c r="I2628" s="4"/>
+    </row>
+    <row r="2629" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2629" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2629" s="14">
+        <f>SUM(D2615:D2628)</f>
+        <v>32</v>
+      </c>
+      <c r="E2629" s="14">
+        <f>SUM(E2615:E2628)</f>
+        <v>0</v>
+      </c>
+      <c r="F2629" s="14">
+        <f>SUM(F2615:F2628)</f>
+        <v>29</v>
+      </c>
+      <c r="G2629" s="14">
+        <f>SUM(G2615:G2628)</f>
+        <v>15.5</v>
+      </c>
+      <c r="H2629" s="14">
+        <f>SUM(H2615:H2628)</f>
+        <v>26</v>
+      </c>
+      <c r="I2629" s="14">
+        <f>SUM(I2615:I2628)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2631" s="16">
+        <v>43741</v>
+      </c>
+      <c r="B2631" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2631" s="5">
+        <v>9226</v>
+      </c>
+      <c r="D2631" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2631" s="4"/>
+      <c r="F2631" s="4"/>
+      <c r="G2631" s="4"/>
+      <c r="H2631" s="4"/>
+      <c r="I2631" s="4"/>
+    </row>
+    <row r="2632" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2632" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2632" s="5">
+        <v>9227</v>
+      </c>
+      <c r="D2632" s="4"/>
+      <c r="E2632" s="4"/>
+      <c r="F2632" s="4"/>
+      <c r="G2632" s="4"/>
+      <c r="H2632" s="4">
+        <v>6</v>
+      </c>
+      <c r="I2632" s="4"/>
+    </row>
+    <row r="2633" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2633" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2633" s="5">
+        <v>9228</v>
+      </c>
+      <c r="D2633" s="4"/>
+      <c r="E2633" s="4"/>
+      <c r="F2633" s="4"/>
+      <c r="G2633" s="4"/>
+      <c r="H2633" s="4">
+        <v>6</v>
+      </c>
+      <c r="I2633" s="4"/>
+    </row>
+    <row r="2634" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2634" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2634" s="5">
+        <v>9229</v>
+      </c>
+      <c r="D2634" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2634" s="4"/>
+      <c r="F2634" s="4"/>
+      <c r="G2634" s="4"/>
+      <c r="H2634" s="4"/>
+      <c r="I2634" s="4"/>
+    </row>
+    <row r="2635" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2635" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2635" s="5">
+        <v>9230</v>
+      </c>
+      <c r="D2635" s="4"/>
+      <c r="E2635" s="4"/>
+      <c r="F2635" s="4"/>
+      <c r="G2635" s="4"/>
+      <c r="H2635" s="4">
+        <v>6</v>
+      </c>
+      <c r="I2635" s="4"/>
+    </row>
+    <row r="2636" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2636" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2636" s="5">
+        <v>9231</v>
+      </c>
+      <c r="D2636" s="4"/>
+      <c r="E2636" s="4"/>
+      <c r="F2636" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G2636" s="4"/>
+      <c r="H2636" s="4"/>
+      <c r="I2636" s="4"/>
+    </row>
+    <row r="2637" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2637" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2637" s="5">
+        <v>9232</v>
+      </c>
+      <c r="D2637" s="4"/>
+      <c r="E2637" s="4"/>
+      <c r="F2637" s="4"/>
+      <c r="G2637" s="4"/>
+      <c r="H2637" s="4">
+        <v>6</v>
+      </c>
+      <c r="I2637" s="4"/>
+    </row>
+    <row r="2638" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2638" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2638" s="5">
+        <v>9233</v>
+      </c>
+      <c r="D2638" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2638" s="4"/>
+      <c r="F2638" s="4"/>
+      <c r="G2638" s="4"/>
+      <c r="H2638" s="4"/>
+      <c r="I2638" s="4"/>
+    </row>
+    <row r="2639" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2639" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2639" s="5">
+        <v>9234</v>
+      </c>
+      <c r="D2639" s="4"/>
+      <c r="E2639" s="4"/>
+      <c r="F2639" s="4">
+        <v>5</v>
+      </c>
+      <c r="G2639" s="4"/>
+      <c r="H2639" s="4"/>
+      <c r="I2639" s="4"/>
+    </row>
+    <row r="2640" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2640" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2640" s="5">
+        <v>9235</v>
+      </c>
+      <c r="D2640" s="4"/>
+      <c r="E2640" s="4"/>
+      <c r="F2640" s="4"/>
+      <c r="G2640" s="4">
+        <v>6</v>
+      </c>
+      <c r="H2640" s="4"/>
+      <c r="I2640" s="4"/>
+    </row>
+    <row r="2641" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2641" s="4">
+        <v>11</v>
+      </c>
+      <c r="C2641" s="5"/>
+      <c r="D2641" s="4">
+        <v>40</v>
+      </c>
+      <c r="E2641" s="4"/>
+      <c r="F2641" s="4"/>
+      <c r="G2641" s="4"/>
+      <c r="H2641" s="4"/>
+      <c r="I2641" s="4"/>
+    </row>
+    <row r="2642" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2642" s="4">
+        <v>12</v>
+      </c>
+      <c r="C2642" s="5"/>
+      <c r="D2642" s="4"/>
+      <c r="E2642" s="4"/>
+      <c r="F2642" s="4"/>
+      <c r="G2642" s="4"/>
+      <c r="H2642" s="4">
+        <v>124</v>
+      </c>
+      <c r="I2642" s="4"/>
+    </row>
+    <row r="2643" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2643" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2643" s="14">
+        <f>SUM(D2631:D2642)</f>
+        <v>64</v>
+      </c>
+      <c r="E2643" s="14">
+        <f>SUM(E2631:E2642)</f>
+        <v>0</v>
+      </c>
+      <c r="F2643" s="14">
+        <f>SUM(F2631:F2642)</f>
+        <v>11.5</v>
+      </c>
+      <c r="G2643" s="14">
+        <f>SUM(G2631:G2642)</f>
+        <v>6</v>
+      </c>
+      <c r="H2643" s="14">
+        <f>SUM(H2631:H2642)</f>
+        <v>148</v>
+      </c>
+      <c r="I2643" s="14">
+        <f>SUM(I2631:I2642)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2645" s="16">
+        <v>43742</v>
+      </c>
+      <c r="B2645" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2645" s="5">
+        <v>9236</v>
+      </c>
+      <c r="D2645" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2645" s="4"/>
+      <c r="F2645" s="4"/>
+      <c r="G2645" s="4"/>
+      <c r="H2645" s="4"/>
+      <c r="I2645" s="4"/>
+    </row>
+    <row r="2646" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2646" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2646" s="5">
+        <v>9237</v>
+      </c>
+      <c r="D2646" s="4">
+        <v>24</v>
+      </c>
+      <c r="E2646" s="4"/>
+      <c r="F2646" s="4"/>
+      <c r="G2646" s="4"/>
+      <c r="H2646" s="4"/>
+      <c r="I2646" s="4"/>
+    </row>
+    <row r="2647" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2647" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2647" s="5">
+        <v>9238</v>
+      </c>
+      <c r="D2647" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2647" s="4"/>
+      <c r="F2647" s="4"/>
+      <c r="G2647" s="4"/>
+      <c r="H2647" s="4"/>
+      <c r="I2647" s="4"/>
+    </row>
+    <row r="2648" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2648" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2648" s="5">
+        <v>9239</v>
+      </c>
+      <c r="D2648" s="4"/>
+      <c r="E2648" s="4"/>
+      <c r="F2648" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2648" s="4"/>
+      <c r="H2648" s="4"/>
+      <c r="I2648" s="4"/>
+    </row>
+    <row r="2649" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2649" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2649" s="5">
+        <v>9240</v>
+      </c>
+      <c r="D2649" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2649" s="4"/>
+      <c r="F2649" s="4"/>
+      <c r="G2649" s="4"/>
+      <c r="H2649" s="4"/>
+      <c r="I2649" s="4"/>
+    </row>
+    <row r="2650" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2650" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2650" s="14">
+        <f>SUM(D2645:D2649)</f>
+        <v>45</v>
+      </c>
+      <c r="E2650" s="14">
+        <f>SUM(E2645:E2649)</f>
+        <v>0</v>
+      </c>
+      <c r="F2650" s="14">
+        <f>SUM(F2645:F2649)</f>
+        <v>1</v>
+      </c>
+      <c r="G2650" s="14">
+        <f>SUM(G2645:G2649)</f>
+        <v>0</v>
+      </c>
+      <c r="H2650" s="14">
+        <f>SUM(H2645:H2649)</f>
+        <v>0</v>
+      </c>
+      <c r="I2650" s="14">
+        <f>SUM(I2645:I2649)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2652" s="16">
+        <v>43743</v>
+      </c>
+      <c r="B2652" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2652" s="5">
+        <v>9241</v>
+      </c>
+      <c r="D2652" s="4"/>
+      <c r="E2652" s="4"/>
+      <c r="F2652" s="4"/>
+      <c r="G2652" s="4">
+        <v>3</v>
+      </c>
+      <c r="H2652" s="4">
+        <v>3</v>
+      </c>
+      <c r="I2652" s="4"/>
+    </row>
+    <row r="2653" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2653" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2653" s="5">
+        <v>9242</v>
+      </c>
+      <c r="D2653" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2653" s="4"/>
+      <c r="F2653" s="4"/>
+      <c r="G2653" s="4"/>
+      <c r="H2653" s="4"/>
+      <c r="I2653" s="4"/>
+    </row>
+    <row r="2654" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2654" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2654" s="5">
+        <v>9243</v>
+      </c>
+      <c r="D2654" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="E2654" s="4"/>
+      <c r="F2654" s="4"/>
+      <c r="G2654" s="4"/>
+      <c r="H2654" s="4"/>
+      <c r="I2654" s="4"/>
+    </row>
+    <row r="2655" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2655" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2655" s="5">
+        <v>9244</v>
+      </c>
+      <c r="D2655" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2655" s="4"/>
+      <c r="F2655" s="4"/>
+      <c r="G2655" s="4"/>
+      <c r="H2655" s="4"/>
+      <c r="I2655" s="4"/>
+    </row>
+    <row r="2656" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2656" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2656" s="5">
+        <v>9245</v>
+      </c>
+      <c r="D2656" s="4"/>
+      <c r="E2656" s="4"/>
+      <c r="F2656" s="4"/>
+      <c r="G2656" s="4"/>
+      <c r="H2656" s="4">
+        <v>6</v>
+      </c>
+      <c r="I2656" s="4"/>
+    </row>
+    <row r="2657" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2657" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2657" s="5">
+        <v>9246</v>
+      </c>
+      <c r="D2657" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2657" s="4"/>
+      <c r="F2657" s="4"/>
+      <c r="G2657" s="4"/>
+      <c r="H2657" s="4"/>
+      <c r="I2657" s="4"/>
+    </row>
+    <row r="2658" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2658" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2658" s="5">
+        <v>9247</v>
+      </c>
+      <c r="D2658" s="4"/>
+      <c r="E2658" s="4"/>
+      <c r="F2658" s="4"/>
+      <c r="G2658" s="4"/>
+      <c r="H2658" s="4">
+        <v>6</v>
+      </c>
+      <c r="I2658" s="4"/>
+    </row>
+    <row r="2659" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2659" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2659" s="5">
+        <v>9248</v>
+      </c>
+      <c r="D2659" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2659" s="4"/>
+      <c r="F2659" s="4"/>
+      <c r="G2659" s="4"/>
+      <c r="H2659" s="4"/>
+      <c r="I2659" s="4"/>
+    </row>
+    <row r="2660" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2660" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2660" s="5">
+        <v>9249</v>
+      </c>
+      <c r="D2660" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2660" s="4"/>
+      <c r="F2660" s="4"/>
+      <c r="G2660" s="4"/>
+      <c r="H2660" s="4"/>
+      <c r="I2660" s="4"/>
+    </row>
+    <row r="2661" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2661" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2661" s="5">
+        <v>9250</v>
+      </c>
+      <c r="D2661" s="4"/>
+      <c r="E2661" s="4"/>
+      <c r="F2661" s="4">
+        <v>8</v>
+      </c>
+      <c r="G2661" s="4"/>
+      <c r="H2661" s="4"/>
+      <c r="I2661" s="4"/>
+    </row>
+    <row r="2662" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2662" s="4">
+        <v>11</v>
+      </c>
+      <c r="C2662" s="5">
+        <v>9251</v>
+      </c>
+      <c r="D2662" s="4"/>
+      <c r="E2662" s="4"/>
+      <c r="F2662" s="4">
+        <v>8</v>
+      </c>
+      <c r="G2662" s="4"/>
+      <c r="H2662" s="4"/>
+      <c r="I2662" s="4"/>
+    </row>
+    <row r="2663" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2663" s="4">
+        <v>12</v>
+      </c>
+      <c r="C2663" s="5">
+        <v>9252</v>
+      </c>
+      <c r="D2663" s="4"/>
+      <c r="E2663" s="4"/>
+      <c r="F2663" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2663" s="4"/>
+      <c r="H2663" s="4"/>
+      <c r="I2663" s="4"/>
+    </row>
+    <row r="2664" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2664" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2664" s="5">
+        <v>9253</v>
+      </c>
+      <c r="D2664" s="4"/>
+      <c r="E2664" s="4"/>
+      <c r="F2664" s="4">
+        <v>5</v>
+      </c>
+      <c r="G2664" s="4"/>
+      <c r="H2664" s="4"/>
+      <c r="I2664" s="4"/>
+    </row>
+    <row r="2665" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2665" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2665" s="14">
+        <f>SUM(D2652:D2664)</f>
+        <v>43.5</v>
+      </c>
+      <c r="E2665" s="14">
+        <f t="shared" ref="E2665:I2665" si="209">SUM(E2652:E2664)</f>
+        <v>0</v>
+      </c>
+      <c r="F2665" s="14">
+        <f t="shared" si="209"/>
+        <v>25</v>
+      </c>
+      <c r="G2665" s="14">
+        <f t="shared" si="209"/>
+        <v>3</v>
+      </c>
+      <c r="H2665" s="14">
+        <f t="shared" si="209"/>
+        <v>15</v>
+      </c>
+      <c r="I2665" s="14">
+        <f t="shared" si="209"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2667" s="16">
+        <v>43745</v>
+      </c>
+      <c r="B2667" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2667" s="5">
+        <v>9254</v>
+      </c>
+      <c r="D2667" s="4"/>
+      <c r="E2667" s="4"/>
+      <c r="F2667" s="4"/>
+      <c r="G2667" s="4"/>
+      <c r="H2667" s="4">
+        <v>8</v>
+      </c>
+      <c r="I2667" s="4"/>
+    </row>
+    <row r="2668" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2668" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2668" s="5">
+        <v>9255</v>
+      </c>
+      <c r="D2668" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2668" s="4"/>
+      <c r="F2668" s="4"/>
+      <c r="G2668" s="4"/>
+      <c r="H2668" s="4"/>
+      <c r="I2668" s="4"/>
+    </row>
+    <row r="2669" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2669" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2669" s="5">
+        <v>9256</v>
+      </c>
+      <c r="D2669" s="4"/>
+      <c r="E2669" s="4"/>
+      <c r="F2669" s="4"/>
+      <c r="G2669" s="4">
+        <v>7</v>
+      </c>
+      <c r="H2669" s="4"/>
+      <c r="I2669" s="4"/>
+    </row>
+    <row r="2670" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2670" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2670" s="5">
+        <v>9257</v>
+      </c>
+      <c r="D2670" s="4"/>
+      <c r="E2670" s="4"/>
+      <c r="F2670" s="4"/>
+      <c r="G2670" s="4">
+        <v>7</v>
+      </c>
+      <c r="H2670" s="4"/>
+      <c r="I2670" s="4"/>
+    </row>
+    <row r="2671" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2671" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2671" s="5">
+        <v>9258</v>
+      </c>
+      <c r="D2671" s="4"/>
+      <c r="E2671" s="4"/>
+      <c r="F2671" s="4">
+        <v>12</v>
+      </c>
+      <c r="G2671" s="4"/>
+      <c r="H2671" s="4"/>
+      <c r="I2671" s="4"/>
+    </row>
+    <row r="2672" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2672" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2672" s="5">
+        <v>9259</v>
+      </c>
+      <c r="D2672" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2672" s="4"/>
+      <c r="F2672" s="4"/>
+      <c r="G2672" s="4"/>
+      <c r="H2672" s="4"/>
+      <c r="I2672" s="4"/>
+    </row>
+    <row r="2673" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2673" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2673" s="5">
+        <v>9260</v>
+      </c>
+      <c r="D2673" s="4">
+        <v>24</v>
+      </c>
+      <c r="E2673" s="4"/>
+      <c r="F2673" s="4"/>
+      <c r="G2673" s="4"/>
+      <c r="H2673" s="4"/>
+      <c r="I2673" s="4"/>
+    </row>
+    <row r="2674" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2674" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2674" s="5">
+        <v>9261</v>
+      </c>
+      <c r="D2674" s="4"/>
+      <c r="E2674" s="4"/>
+      <c r="F2674" s="4"/>
+      <c r="G2674" s="4"/>
+      <c r="H2674" s="4">
+        <v>8</v>
+      </c>
+      <c r="I2674" s="4"/>
+    </row>
+    <row r="2675" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2675" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2675" s="5">
+        <v>9262</v>
+      </c>
+      <c r="D2675" s="4"/>
+      <c r="E2675" s="4"/>
+      <c r="F2675" s="4"/>
+      <c r="G2675" s="4"/>
+      <c r="H2675" s="4">
+        <v>7</v>
+      </c>
+      <c r="I2675" s="4"/>
+    </row>
+    <row r="2676" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2676" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2676" s="5">
+        <v>9263</v>
+      </c>
+      <c r="D2676" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2676" s="4"/>
+      <c r="F2676" s="4"/>
+      <c r="G2676" s="4"/>
+      <c r="H2676" s="4"/>
+      <c r="I2676" s="4"/>
+    </row>
+    <row r="2677" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2677" s="4">
+        <v>11</v>
+      </c>
+      <c r="C2677" s="5">
+        <v>9264</v>
+      </c>
+      <c r="D2677" s="4">
+        <v>6</v>
+      </c>
+      <c r="E2677" s="4"/>
+      <c r="F2677" s="4"/>
+      <c r="G2677" s="4"/>
+      <c r="H2677" s="4"/>
+      <c r="I2677" s="4"/>
+    </row>
+    <row r="2678" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2678" s="4">
+        <v>12</v>
+      </c>
+      <c r="C2678" s="5">
+        <v>9265</v>
+      </c>
+      <c r="D2678" s="4">
+        <v>6</v>
+      </c>
+      <c r="E2678" s="4"/>
+      <c r="F2678" s="4"/>
+      <c r="G2678" s="4"/>
+      <c r="H2678" s="4"/>
+      <c r="I2678" s="4"/>
+    </row>
+    <row r="2679" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2679" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2679" s="5">
+        <v>9266</v>
+      </c>
+      <c r="D2679" s="4"/>
+      <c r="E2679" s="4"/>
+      <c r="F2679" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2679" s="4"/>
+      <c r="H2679" s="4"/>
+      <c r="I2679" s="4"/>
+    </row>
+    <row r="2680" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2680" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2680" s="5">
+        <v>9267</v>
+      </c>
+      <c r="D2680" s="4"/>
+      <c r="E2680" s="4"/>
+      <c r="F2680" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G2680" s="4"/>
+      <c r="H2680" s="4"/>
+      <c r="I2680" s="4"/>
+    </row>
+    <row r="2681" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2681" s="4">
+        <v>15</v>
+      </c>
+      <c r="C2681" s="5">
+        <v>9268</v>
+      </c>
+      <c r="D2681" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="E2681" s="4"/>
+      <c r="F2681" s="4"/>
+      <c r="G2681" s="4"/>
+      <c r="H2681" s="4"/>
+      <c r="I2681" s="4"/>
+    </row>
+    <row r="2682" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2682" s="4">
+        <v>16</v>
+      </c>
+      <c r="C2682" s="5">
+        <v>9269</v>
+      </c>
+      <c r="D2682" s="4"/>
+      <c r="E2682" s="4"/>
+      <c r="F2682" s="4">
+        <v>5</v>
+      </c>
+      <c r="G2682" s="4"/>
+      <c r="H2682" s="4"/>
+      <c r="I2682" s="4"/>
+    </row>
+    <row r="2683" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2683" s="4">
+        <v>17</v>
+      </c>
+      <c r="C2683" s="5">
+        <v>9270</v>
+      </c>
+      <c r="D2683" s="4"/>
+      <c r="E2683" s="4"/>
+      <c r="F2683" s="4">
+        <v>8</v>
+      </c>
+      <c r="G2683" s="4"/>
+      <c r="H2683" s="4"/>
+      <c r="I2683" s="4"/>
+    </row>
+    <row r="2684" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2684" s="4">
+        <v>18</v>
+      </c>
+      <c r="C2684" s="5">
+        <v>9271</v>
+      </c>
+      <c r="D2684" s="4"/>
+      <c r="E2684" s="4"/>
+      <c r="F2684" s="4">
+        <v>7</v>
+      </c>
+      <c r="G2684" s="4"/>
+      <c r="H2684" s="4"/>
+      <c r="I2684" s="4"/>
+    </row>
+    <row r="2685" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2685" s="4">
+        <v>19</v>
+      </c>
+      <c r="C2685" s="5">
+        <v>9272</v>
+      </c>
+      <c r="D2685" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2685" s="4"/>
+      <c r="F2685" s="4"/>
+      <c r="G2685" s="4"/>
+      <c r="H2685" s="4"/>
+      <c r="I2685" s="4"/>
+    </row>
+    <row r="2686" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2686" s="4">
+        <v>20</v>
+      </c>
+      <c r="C2686" s="5">
+        <v>9273</v>
+      </c>
+      <c r="D2686" s="4"/>
+      <c r="E2686" s="4"/>
+      <c r="F2686" s="4">
+        <v>16</v>
+      </c>
+      <c r="G2686" s="4"/>
+      <c r="H2686" s="4"/>
+      <c r="I2686" s="4"/>
+    </row>
+    <row r="2687" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2687" s="4">
+        <v>21</v>
+      </c>
+      <c r="C2687" s="5">
+        <v>9274</v>
+      </c>
+      <c r="D2687" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2687" s="4"/>
+      <c r="F2687" s="4"/>
+      <c r="G2687" s="4"/>
+      <c r="H2687" s="4"/>
+      <c r="I2687" s="4"/>
+    </row>
+    <row r="2688" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2688" s="4">
+        <v>22</v>
+      </c>
+      <c r="C2688" s="5">
+        <v>9275</v>
+      </c>
+      <c r="D2688" s="4"/>
+      <c r="E2688" s="4"/>
+      <c r="F2688" s="4">
+        <v>8</v>
+      </c>
+      <c r="G2688" s="4"/>
+      <c r="H2688" s="4"/>
+      <c r="I2688" s="4"/>
+    </row>
+    <row r="2689" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C2689" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2689" s="14">
+        <f>SUM(D2667:D2688)</f>
+        <v>82.5</v>
+      </c>
+      <c r="E2689" s="14">
+        <f t="shared" ref="E2689:I2689" si="210">SUM(E2667:E2688)</f>
+        <v>0</v>
+      </c>
+      <c r="F2689" s="14">
+        <f t="shared" si="210"/>
+        <v>68.5</v>
+      </c>
+      <c r="G2689" s="14">
+        <f t="shared" si="210"/>
+        <v>14</v>
+      </c>
+      <c r="H2689" s="14">
+        <f t="shared" si="210"/>
+        <v>23</v>
+      </c>
+      <c r="I2689" s="14">
+        <f t="shared" si="210"/>
         <v>0</v>
       </c>
     </row>
